--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="419">
   <si>
     <t>SNO</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t xml:space="preserve">ALSO TRY TO MAKE SURE THE CODE IS RUNNING. KEEP SPECIAL FOCUS FROM SECTION 13. </t>
+  </si>
+  <si>
+    <t>HELM</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,6 +1589,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6681,7 +6687,7 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,8 +7171,8 @@
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>398</v>
+      <c r="B26" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="C26" s="2">
         <v>47</v>
@@ -7187,7 +7193,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" s="2">
         <v>46</v>
@@ -7208,7 +7214,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>95</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2">
         <v>45</v>
@@ -7229,7 +7235,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2">
         <v>44</v>
@@ -7249,6 +7255,12 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>21</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>400</v>
+      </c>
       <c r="C30" s="2">
         <v>43</v>
       </c>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -2795,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -3714,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,19 +4154,19 @@
       <c r="B24" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="26">
         <v>49</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="20">
         <v>44551</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="21" t="s">
         <v>278</v>
       </c>
       <c r="H24" t="s">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
     <sheet name="CLOUD SERVICES" sheetId="3" r:id="rId2"/>
     <sheet name="7-12-2021" sheetId="19" r:id="rId3"/>
     <sheet name="13-12-21" sheetId="20" r:id="rId4"/>
-    <sheet name="Int. Prep" sheetId="21" r:id="rId5"/>
+    <sheet name="22-12-21" sheetId="22" r:id="rId5"/>
+    <sheet name="Int. Prep" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="327">
   <si>
     <t>SNO</t>
   </si>
@@ -854,9 +855,6 @@
     <t>DOCKER</t>
   </si>
   <si>
-    <t>DPT VIDEOS 19[49.45], 20, 21, DCC-GIT &amp; GIT HUB</t>
-  </si>
-  <si>
     <t>KUBERNETES</t>
   </si>
   <si>
@@ -927,6 +925,81 @@
   </si>
   <si>
     <t>AWS SECURITY (VPT)</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git config user.name</t>
+  </si>
+  <si>
+    <t>git config user.email</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -am ""</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>git reset "" --hard</t>
+  </si>
+  <si>
+    <t>git reset "" --soft</t>
+  </si>
+  <si>
+    <t>git restore --staged</t>
+  </si>
+  <si>
+    <t>git revert</t>
+  </si>
+  <si>
+    <t>git remote add origin ""</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>git branch [LIST]</t>
+  </si>
+  <si>
+    <t>git branch "" [NEW]</t>
+  </si>
+  <si>
+    <t>git checkout ""</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 19[49.45], 20, 21, 22 [36.26]</t>
+  </si>
+  <si>
+    <t>DCC-GIT &amp; GIT HUB</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS</t>
+  </si>
+  <si>
+    <t>UDEMY ANSIBLE</t>
+  </si>
+  <si>
+    <t>HAHAHA PLAN CHANGED</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,6 +1218,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,7 +1948,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N18">
         <v>23</v>
@@ -1885,7 +1967,7 @@
         <v>72151.59</v>
       </c>
       <c r="M19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N19">
         <v>7</v>
@@ -3714,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3878,7 @@
         <v>270</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>156</v>
@@ -4069,7 +4151,7 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" t="s">
         <v>269</v>
@@ -4093,10 +4175,10 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -4120,7 +4202,7 @@
         <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -4128,7 +4210,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="27">
         <v>50</v>
@@ -4141,10 +4223,10 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -4152,7 +4234,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="26">
         <v>49</v>
@@ -4164,10 +4246,10 @@
         <v>137</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>223</v>
@@ -4191,10 +4273,10 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="H25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -4202,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="2">
         <v>47</v>
@@ -4223,7 +4305,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2">
         <v>46</v>
@@ -4244,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2">
         <v>45</v>
@@ -4259,6 +4341,9 @@
       <c r="G28" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="P28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -4283,13 +4368,16 @@
       <c r="H29" t="s">
         <v>224</v>
       </c>
+      <c r="P29" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>21</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2">
         <v>43</v>
@@ -4304,6 +4392,9 @@
       <c r="G30" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="P30" t="s">
+        <v>304</v>
+      </c>
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -4320,6 +4411,9 @@
       <c r="G31" s="9" t="s">
         <v>202</v>
       </c>
+      <c r="P31" t="s">
+        <v>317</v>
+      </c>
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4339,6 +4433,9 @@
       <c r="H32" t="s">
         <v>225</v>
       </c>
+      <c r="P32" t="s">
+        <v>318</v>
+      </c>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
@@ -4355,6 +4452,9 @@
       <c r="G33" s="14" t="s">
         <v>203</v>
       </c>
+      <c r="P33" t="s">
+        <v>311</v>
+      </c>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
@@ -4371,6 +4471,9 @@
       <c r="G34" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="P34" t="s">
+        <v>305</v>
+      </c>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
@@ -4387,6 +4490,9 @@
       <c r="G35" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="P35" t="s">
+        <v>306</v>
+      </c>
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
@@ -4403,6 +4509,9 @@
       <c r="G36" s="14" t="s">
         <v>206</v>
       </c>
+      <c r="P36" t="s">
+        <v>307</v>
+      </c>
       <c r="S36" s="24"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
@@ -4419,6 +4528,9 @@
       <c r="G37" s="14" t="s">
         <v>207</v>
       </c>
+      <c r="P37" t="s">
+        <v>309</v>
+      </c>
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
@@ -4435,6 +4547,9 @@
       <c r="G38" s="14" t="s">
         <v>208</v>
       </c>
+      <c r="P38" t="s">
+        <v>308</v>
+      </c>
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
@@ -4451,6 +4566,9 @@
       <c r="G39" s="14" t="s">
         <v>208</v>
       </c>
+      <c r="P39" t="s">
+        <v>310</v>
+      </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -4467,6 +4585,9 @@
       <c r="G40" s="14" t="s">
         <v>208</v>
       </c>
+      <c r="P40" t="s">
+        <v>312</v>
+      </c>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
@@ -4483,6 +4604,9 @@
       <c r="G41" s="14" t="s">
         <v>208</v>
       </c>
+      <c r="P41" t="s">
+        <v>313</v>
+      </c>
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
@@ -4502,6 +4626,9 @@
       <c r="H42" t="s">
         <v>226</v>
       </c>
+      <c r="P42" t="s">
+        <v>314</v>
+      </c>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
@@ -4518,6 +4645,9 @@
       <c r="G43" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="P43" t="s">
+        <v>315</v>
+      </c>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
@@ -4534,6 +4664,9 @@
       <c r="G44" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="P44" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -4552,6 +4685,9 @@
       <c r="H45" t="s">
         <v>227</v>
       </c>
+      <c r="P45" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -4567,6 +4703,9 @@
       <c r="G46" s="9" t="s">
         <v>210</v>
       </c>
+      <c r="P46" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -4582,6 +4721,9 @@
       <c r="G47" s="9" t="s">
         <v>211</v>
       </c>
+      <c r="P47" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -4844,7 +4986,7 @@
         <v>246</v>
       </c>
       <c r="H64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
@@ -4862,7 +5004,7 @@
         <v>218</v>
       </c>
       <c r="H65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -4880,7 +5022,7 @@
         <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
@@ -4987,6 +5129,1217 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="26">
+        <v>63</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44537</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="26">
+        <v>62</v>
+      </c>
+      <c r="D11" s="20">
+        <v>44538</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="26">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20">
+        <v>44539</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="26">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20">
+        <v>44540</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="26">
+        <v>59</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44541</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="27">
+        <v>58</v>
+      </c>
+      <c r="D15" s="18">
+        <v>44542</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="27">
+        <v>57</v>
+      </c>
+      <c r="D16" s="18">
+        <v>44543</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="26">
+        <v>56</v>
+      </c>
+      <c r="D17" s="20">
+        <v>44544</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="26">
+        <v>55</v>
+      </c>
+      <c r="D18" s="20">
+        <v>44545</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="26">
+        <v>54</v>
+      </c>
+      <c r="D19" s="20">
+        <v>44546</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26">
+        <v>53</v>
+      </c>
+      <c r="D20" s="20">
+        <v>44547</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="27">
+        <v>52</v>
+      </c>
+      <c r="D21" s="18">
+        <v>44548</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="27">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18">
+        <v>44549</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="27">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18">
+        <v>44550</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="26">
+        <v>49</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44551</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="29">
+        <v>48</v>
+      </c>
+      <c r="D25" s="30">
+        <v>44552</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="2">
+        <v>47</v>
+      </c>
+      <c r="D26" s="13">
+        <v>44553</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="2">
+        <v>46</v>
+      </c>
+      <c r="D27" s="13">
+        <v>44554</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45</v>
+      </c>
+      <c r="D28" s="13">
+        <v>44555</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44</v>
+      </c>
+      <c r="D29" s="13">
+        <v>44556</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>21</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43</v>
+      </c>
+      <c r="D30" s="13">
+        <v>44557</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="S30" s="24"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>42</v>
+      </c>
+      <c r="D31" s="13">
+        <v>44558</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="S31" s="24"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>41</v>
+      </c>
+      <c r="D32" s="13">
+        <v>44559</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" t="s">
+        <v>225</v>
+      </c>
+      <c r="S32" s="24"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13">
+        <v>44560</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="S33" s="24"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="13">
+        <v>44561</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="S34" s="24"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>38</v>
+      </c>
+      <c r="D35" s="13">
+        <v>44562</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="S35" s="24"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13">
+        <v>44563</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="13">
+        <v>44564</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>35</v>
+      </c>
+      <c r="D38" s="13">
+        <v>44565</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="S38" s="24"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>34</v>
+      </c>
+      <c r="D39" s="13">
+        <v>44566</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="S39" s="24"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>33</v>
+      </c>
+      <c r="D40" s="13">
+        <v>44567</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" s="24"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>32</v>
+      </c>
+      <c r="D41" s="13">
+        <v>44568</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="S41" s="24"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>31</v>
+      </c>
+      <c r="D42" s="13">
+        <v>44569</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" t="s">
+        <v>226</v>
+      </c>
+      <c r="S42" s="24"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13">
+        <v>44570</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="14"/>
+      <c r="S43" s="24"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>29</v>
+      </c>
+      <c r="D44" s="13">
+        <v>44571</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>28</v>
+      </c>
+      <c r="D45" s="13">
+        <v>44572</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="14"/>
+      <c r="H45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>27</v>
+      </c>
+      <c r="D46" s="13">
+        <v>44573</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>26</v>
+      </c>
+      <c r="D47" s="13">
+        <v>44574</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>25</v>
+      </c>
+      <c r="D48" s="13">
+        <v>44575</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="D49" s="13">
+        <v>44576</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>23</v>
+      </c>
+      <c r="D50" s="13">
+        <v>44577</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>22</v>
+      </c>
+      <c r="D51" s="13">
+        <v>44578</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>21</v>
+      </c>
+      <c r="D52" s="13">
+        <v>44579</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13">
+        <v>44580</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>19</v>
+      </c>
+      <c r="D54" s="13">
+        <v>44581</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>18</v>
+      </c>
+      <c r="D55" s="13">
+        <v>44582</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>17</v>
+      </c>
+      <c r="D56" s="13">
+        <v>44583</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>16</v>
+      </c>
+      <c r="D57" s="13">
+        <v>44584</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>15</v>
+      </c>
+      <c r="D58" s="13">
+        <v>44585</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" s="13">
+        <v>44586</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" s="13">
+        <v>44587</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>12</v>
+      </c>
+      <c r="D61" s="13">
+        <v>44588</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>11</v>
+      </c>
+      <c r="D62" s="13">
+        <v>44589</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>10</v>
+      </c>
+      <c r="D63" s="13">
+        <v>44590</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="13">
+        <v>44591</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>8</v>
+      </c>
+      <c r="D65" s="13">
+        <v>44592</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66" s="13">
+        <v>44593</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="13">
+        <v>44594</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="13">
+        <v>44595</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="13">
+        <v>44596</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="13">
+        <v>44597</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="13">
+        <v>44598</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13">
+        <v>44599</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,27 +6350,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="341">
   <si>
     <t>SNO</t>
   </si>
@@ -993,13 +993,55 @@
     <t>DCC-GIT &amp; GIT HUB</t>
   </si>
   <si>
-    <t>DPT VIDEOS</t>
-  </si>
-  <si>
-    <t>UDEMY ANSIBLE</t>
-  </si>
-  <si>
     <t>HAHAHA PLAN CHANGED</t>
+  </si>
+  <si>
+    <t>RAJ DEEP YT VIDEOS</t>
+  </si>
+  <si>
+    <t>VALAXY TECH YT VIDEOS</t>
+  </si>
+  <si>
+    <t>DEVOPS INTERVIEW YT VIDEOS</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 19 - 23</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 24 - 26</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 27 - 29</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 30 - 32</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 33 - 35</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 36 - 38</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 39 - 41</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 42 - 44</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 45 - 46</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 47 - 48</t>
+  </si>
+  <si>
+    <t>UDEMY ANSIBLE 1 DAY</t>
+  </si>
+  <si>
+    <t>REVISION</t>
+  </si>
+  <si>
+    <t>BY THIS TIME I SHOULD BE PERFECT WITH DPT</t>
   </si>
 </sst>
 </file>
@@ -3796,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G59" sqref="G59:G61"/>
     </sheetView>
   </sheetViews>
@@ -5131,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,7 +5650,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H25" t="s">
         <v>289</v>
@@ -5632,7 +5674,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -5653,7 +5695,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -5674,7 +5716,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -5695,10 +5737,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="H29" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -5719,7 +5758,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -5735,7 +5774,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -5751,10 +5790,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="H32" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -5770,7 +5806,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -5786,7 +5822,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -5801,8 +5837,11 @@
         <v>141</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="14" t="s">
-        <v>325</v>
+      <c r="G35" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H35" t="s">
+        <v>340</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -5818,7 +5857,10 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="14" t="s">
-        <v>215</v>
+        <v>338</v>
+      </c>
+      <c r="H36" t="s">
+        <v>225</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -5833,8 +5875,8 @@
         <v>136</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>214</v>
+      <c r="G37" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -5849,8 +5891,8 @@
         <v>137</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>216</v>
+      <c r="G38" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="S38" s="24"/>
     </row>
@@ -5865,8 +5907,11 @@
         <v>138</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>217</v>
+      <c r="G39" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" t="s">
+        <v>227</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -5882,7 +5927,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -5898,7 +5943,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S41" s="24"/>
     </row>
@@ -5914,10 +5959,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -5932,7 +5974,9 @@
         <v>142</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="14"/>
+      <c r="G43" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
@@ -5946,7 +5990,9 @@
         <v>136</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="14"/>
+      <c r="G44" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -5959,9 +6005,8 @@
         <v>137</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="14"/>
-      <c r="H45" t="s">
-        <v>227</v>
+      <c r="G45" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
@@ -5975,7 +6020,12 @@
         <v>138</v>
       </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -5988,7 +6038,9 @@
         <v>139</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -6001,7 +6053,9 @@
         <v>140</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -6014,7 +6068,9 @@
         <v>141</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -6027,7 +6083,9 @@
         <v>142</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -6040,7 +6098,9 @@
         <v>136</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -6053,7 +6113,12 @@
         <v>137</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -6065,8 +6130,12 @@
       <c r="E53" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -6078,10 +6147,11 @@
       <c r="E54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" t="s">
-        <v>228</v>
+      <c r="F54" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -6094,8 +6164,12 @@
       <c r="E55" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
@@ -6107,8 +6181,12 @@
       <c r="E56" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="H56" t="s">
         <v>229</v>
       </c>
@@ -6123,8 +6201,12 @@
       <c r="E57" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
@@ -6136,7 +6218,9 @@
       <c r="E58" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
@@ -6149,7 +6233,9 @@
       <c r="E59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
@@ -6162,7 +6248,9 @@
       <c r="E60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
@@ -6175,7 +6263,9 @@
       <c r="E61" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -6188,7 +6278,9 @@
       <c r="E62" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
@@ -6201,7 +6293,9 @@
       <c r="E63" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
@@ -6214,7 +6308,9 @@
       <c r="E64" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="G64" s="9"/>
       <c r="H64" t="s">
         <v>290</v>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="342">
   <si>
     <t>SNO</t>
   </si>
@@ -1005,36 +1005,6 @@
     <t>DEVOPS INTERVIEW YT VIDEOS</t>
   </si>
   <si>
-    <t>DPT VIDEOS 19 - 23</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 24 - 26</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 27 - 29</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 30 - 32</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 33 - 35</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 36 - 38</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 39 - 41</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 42 - 44</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 45 - 46</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 47 - 48</t>
-  </si>
-  <si>
     <t>UDEMY ANSIBLE 1 DAY</t>
   </si>
   <si>
@@ -1042,6 +1012,39 @@
   </si>
   <si>
     <t>BY THIS TIME I SHOULD BE PERFECT WITH DPT</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 19 - 21</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 22 - 24</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 25 - 27</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 28 - 30</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 31 - 33</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 34 - 36</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 37 - 39</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 40 - 42</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 43 - 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPT VIDEOS 47 </t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 48, UDEMY ANSIBLE 1 DAY</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,6 +1272,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5171,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,7 +5680,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -5695,7 +5701,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -5716,7 +5722,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -5737,7 +5743,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -5758,11 +5764,13 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2">
         <v>42</v>
       </c>
@@ -5774,7 +5782,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -5790,7 +5798,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -5806,7 +5814,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -5822,7 +5830,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -5838,10 +5846,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="H35" t="s">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -5856,11 +5861,11 @@
         <v>142</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="14" t="s">
-        <v>338</v>
+      <c r="G36" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="H36" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -5876,7 +5881,10 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="14" t="s">
-        <v>215</v>
+        <v>341</v>
+      </c>
+      <c r="H37" t="s">
+        <v>225</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -5910,9 +5918,6 @@
       <c r="G39" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H39" t="s">
-        <v>227</v>
-      </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -5926,8 +5931,11 @@
         <v>139</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>216</v>
+      <c r="G40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -5959,7 +5967,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -5993,6 +6001,7 @@
       <c r="G44" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="S44" s="24"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -6023,9 +6032,6 @@
       <c r="G46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H46" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -6039,7 +6045,10 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="H47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
@@ -6084,7 +6093,7 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -6114,10 +6123,7 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -6130,11 +6136,12 @@
       <c r="E53" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>339</v>
-      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>246</v>
+        <v>219</v>
+      </c>
+      <c r="H53" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
@@ -6148,10 +6155,10 @@
         <v>139</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -6165,10 +6172,10 @@
         <v>140</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -6182,13 +6189,10 @@
         <v>141</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="H56" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -6202,10 +6206,13 @@
         <v>142</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>327</v>
+      </c>
+      <c r="H57" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -6219,9 +6226,11 @@
         <v>136</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G58" s="9"/>
+        <v>329</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
@@ -6234,7 +6243,7 @@
         <v>137</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G59" s="9"/>
     </row>
@@ -6249,7 +6258,7 @@
         <v>138</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G60" s="9"/>
     </row>
@@ -6264,7 +6273,7 @@
         <v>139</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G61" s="9"/>
     </row>
@@ -6279,7 +6288,7 @@
         <v>140</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G62" s="9"/>
     </row>
@@ -6294,7 +6303,7 @@
         <v>141</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G63" s="9"/>
     </row>
@@ -6309,12 +6318,9 @@
         <v>142</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
@@ -6326,10 +6332,12 @@
       <c r="E65" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="G65" s="9"/>
       <c r="H65" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -6345,7 +6353,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
@@ -6360,6 +6368,9 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
+      <c r="H67" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
@@ -6425,7 +6436,14 @@
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" t="s">
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" t="s">
         <v>230</v>
       </c>
     </row>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="341">
   <si>
     <t>SNO</t>
   </si>
@@ -1005,18 +1005,12 @@
     <t>DEVOPS INTERVIEW YT VIDEOS</t>
   </si>
   <si>
-    <t>UDEMY ANSIBLE 1 DAY</t>
-  </si>
-  <si>
     <t>REVISION</t>
   </si>
   <si>
     <t>BY THIS TIME I SHOULD BE PERFECT WITH DPT</t>
   </si>
   <si>
-    <t>DPT VIDEOS 19 - 21</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 22 - 24</t>
   </si>
   <si>
@@ -1045,6 +1039,9 @@
   </si>
   <si>
     <t>DPT VIDEOS 48, UDEMY ANSIBLE 1 DAY</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 19 - 21, DCC-GIT-PROJECT</t>
   </si>
 </sst>
 </file>
@@ -5179,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +5677,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -5701,7 +5698,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -5722,7 +5719,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -5743,7 +5740,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -5764,7 +5761,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -5782,7 +5779,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -5798,7 +5795,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -5814,7 +5811,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -5830,7 +5827,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -5862,10 +5859,10 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -5881,7 +5878,7 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H37" t="s">
         <v>225</v>
@@ -6155,7 +6152,7 @@
         <v>139</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>246</v>
@@ -6172,7 +6169,7 @@
         <v>140</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>325</v>
@@ -6189,7 +6186,7 @@
         <v>141</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>326</v>
@@ -6206,7 +6203,7 @@
         <v>142</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>327</v>
@@ -6226,7 +6223,7 @@
         <v>136</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>327</v>
@@ -6243,7 +6240,7 @@
         <v>137</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G59" s="9"/>
     </row>
@@ -6258,7 +6255,7 @@
         <v>138</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G60" s="9"/>
     </row>
@@ -6273,7 +6270,7 @@
         <v>139</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G61" s="9"/>
     </row>
@@ -6288,7 +6285,7 @@
         <v>140</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G62" s="9"/>
     </row>
@@ -6303,7 +6300,7 @@
         <v>141</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G63" s="9"/>
     </row>
@@ -6318,7 +6315,7 @@
         <v>142</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G64" s="9"/>
     </row>
@@ -6333,7 +6330,7 @@
         <v>136</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" t="s">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="353">
   <si>
     <t>SNO</t>
   </si>
@@ -1042,6 +1042,42 @@
   </si>
   <si>
     <t>DPT VIDEOS 19 - 21, DCC-GIT-PROJECT</t>
+  </si>
+  <si>
+    <t>BT-1</t>
+  </si>
+  <si>
+    <t>BT-2</t>
+  </si>
+  <si>
+    <t>BT-3</t>
+  </si>
+  <si>
+    <t>BT-4</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>DevOps Tools Review</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>CloudFormation</t>
+  </si>
+  <si>
+    <t>Git/Git-Hub/Bit-Bucket</t>
+  </si>
+  <si>
+    <t>More Review</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Alright</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,6 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,15 +1332,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>96141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1328,7 +1365,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="2476500"/>
+          <a:off x="104775" y="1143000"/>
           <a:ext cx="6543675" cy="3525141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1641,12 +1678,13 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J1" sqref="J1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1661,6 +1699,21 @@
       <c r="C1">
         <v>53951.72</v>
       </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="33">
+        <v>44623</v>
+      </c>
+      <c r="I1">
+        <v>38</v>
+      </c>
+      <c r="J1">
+        <v>30</v>
+      </c>
       <c r="S1" t="s">
         <v>148</v>
       </c>
@@ -1687,6 +1740,21 @@
       <c r="C2">
         <v>25838.87</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="33">
+        <v>44988</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
       <c r="S2" s="10">
         <v>44302</v>
       </c>
@@ -1716,6 +1784,21 @@
       <c r="B3">
         <v>78380</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="33">
+        <v>45354</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
       <c r="S3" s="10">
         <v>44366</v>
       </c>
@@ -1745,6 +1828,21 @@
       <c r="B4">
         <v>480</v>
       </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="33">
+        <v>45719</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
       <c r="S4" s="10">
         <v>44411</v>
       </c>
@@ -1779,6 +1877,21 @@
         <f>SUM(C1:C4)</f>
         <v>79790.59</v>
       </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33">
+        <v>46084</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
       <c r="S5" s="10">
         <v>44443</v>
       </c>
@@ -1802,6 +1915,21 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="33">
+        <v>46449</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
       <c r="S6" s="10">
         <v>44492</v>
       </c>
@@ -1834,6 +1962,21 @@
       <c r="C7">
         <v>3000</v>
       </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="33">
+        <v>46815</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
       <c r="S7" s="10">
         <v>44531</v>
       </c>
@@ -1860,6 +2003,21 @@
       <c r="C8">
         <v>11000</v>
       </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" s="33">
+        <v>47180</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
       <c r="S8" t="s">
         <v>149</v>
       </c>
@@ -1882,6 +2040,21 @@
       <c r="B9">
         <v>21800</v>
       </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33">
+        <v>47545</v>
+      </c>
+      <c r="I9">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
       <c r="W9" t="s">
         <v>259</v>
       </c>
@@ -1896,11 +2069,41 @@
       <c r="B10">
         <v>5606</v>
       </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="33">
+        <v>47910</v>
+      </c>
+      <c r="I10">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>39</v>
+      </c>
       <c r="W10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" s="33">
+        <v>48276</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
       <c r="N11" t="s">
         <v>237</v>
       </c>
@@ -1915,6 +2118,21 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" s="33">
+        <v>48641</v>
+      </c>
+      <c r="I12">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
       <c r="N12" t="s">
         <v>238</v>
       </c>
@@ -1929,6 +2147,21 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="33">
+        <v>49006</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
       <c r="N13" t="s">
         <v>239</v>
       </c>
@@ -1943,6 +2176,21 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="33">
+        <v>49371</v>
+      </c>
+      <c r="I14">
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
       <c r="N14">
         <v>17000</v>
       </c>
@@ -1957,6 +2205,21 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>344</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15" s="33">
+        <v>49737</v>
+      </c>
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
       <c r="N15">
         <v>16800</v>
       </c>
@@ -1971,6 +2234,21 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16" s="33">
+        <v>50102</v>
+      </c>
+      <c r="I16">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>45</v>
+      </c>
       <c r="W16" t="s">
         <v>266</v>
       </c>
@@ -1990,8 +2268,38 @@
         <f>(C5-(C7+C8))</f>
         <v>65790.59</v>
       </c>
+      <c r="F17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" s="33">
+        <v>50467</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18" s="33">
+        <v>50832</v>
+      </c>
+      <c r="I18">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>47</v>
+      </c>
       <c r="M18" t="s">
         <v>295</v>
       </c>
@@ -2011,6 +2319,21 @@
         <f>(B5-B17)</f>
         <v>72151.59</v>
       </c>
+      <c r="F19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" s="33">
+        <v>51198</v>
+      </c>
+      <c r="I19">
+        <v>56</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
       <c r="M19" t="s">
         <v>296</v>
       </c>
@@ -2024,6 +2347,18 @@
       </c>
       <c r="B20">
         <v>98500</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" s="33">
+        <v>51563</v>
+      </c>
+      <c r="I20">
+        <v>57</v>
+      </c>
+      <c r="J20">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2031,10 +2366,62 @@
         <f>SUM(B19:B20)</f>
         <v>170651.59</v>
       </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21" s="33">
+        <v>51928</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="H22" s="33">
+        <v>52293</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>98500</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23" s="33">
+        <v>52659</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" s="33">
+        <v>53024</v>
+      </c>
+      <c r="I24">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -5176,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,17 +6053,17 @@
       <c r="B26" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="26">
         <v>47</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="20">
         <v>44553</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6451,13 +6838,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6482,6 +6872,43 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="366">
   <si>
     <t>SNO</t>
   </si>
@@ -1078,6 +1078,45 @@
   </si>
   <si>
     <t>Alright</t>
+  </si>
+  <si>
+    <t>Apache Maven</t>
+  </si>
+  <si>
+    <t>Apache Tomcat-Nginx</t>
+  </si>
+  <si>
+    <t>Jfrog</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Packer</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Jira+B27:B42</t>
   </si>
 </sst>
 </file>
@@ -5563,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,10 +6877,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,12 +6913,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>350</v>
       </c>
@@ -6887,15 +6926,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>351</v>
       </c>
       <c r="B28" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -6903,12 +6945,80 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>352</v>
       </c>
       <c r="B30" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="365">
   <si>
     <t>SNO</t>
   </si>
@@ -1011,15 +1011,6 @@
     <t>BY THIS TIME I SHOULD BE PERFECT WITH DPT</t>
   </si>
   <si>
-    <t>DPT VIDEOS 22 - 24</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 25 - 27</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 28 - 30</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 31 - 33</t>
   </si>
   <si>
@@ -1117,6 +1108,12 @@
   </si>
   <si>
     <t>Jira+B27:B42</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 22 - 24, IWAYQ AWS PROJECT, 25</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 26, 27, 28, 29, 30</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2155,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -2308,7 +2305,7 @@
         <v>65790.59</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2359,7 +2356,7 @@
         <v>72151.59</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -5602,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,7 +6100,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6113,18 +6110,18 @@
       <c r="B27" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="26">
         <v>46</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="20">
         <v>44554</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>330</v>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -6145,7 +6142,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -6166,7 +6163,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -6187,7 +6184,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -6205,7 +6202,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -6221,7 +6218,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -6237,7 +6234,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -6253,7 +6250,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -6269,7 +6266,10 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>211</v>
+        <v>335</v>
+      </c>
+      <c r="H35" t="s">
+        <v>329</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -6284,11 +6284,11 @@
         <v>142</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
-        <v>338</v>
+      <c r="G36" s="14" t="s">
+        <v>336</v>
       </c>
       <c r="H36" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -6304,10 +6304,7 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="H37" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -6341,6 +6338,9 @@
       <c r="G39" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -6354,11 +6354,8 @@
         <v>139</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" t="s">
-        <v>227</v>
+      <c r="G40" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -6390,7 +6387,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -6455,6 +6452,9 @@
       <c r="G46" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="H46" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -6468,10 +6468,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
@@ -6516,7 +6513,7 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -6546,7 +6543,10 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="H52" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -6561,10 +6561,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H53" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
@@ -6580,8 +6577,8 @@
       <c r="F54" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>246</v>
+      <c r="G54" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -6598,7 +6595,7 @@
         <v>328</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -6615,7 +6612,10 @@
         <v>328</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="H56" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -6633,9 +6633,6 @@
       </c>
       <c r="G57" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="H57" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -6915,12 +6912,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -6928,72 +6925,72 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -7003,22 +7000,22 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="373">
   <si>
     <t>SNO</t>
   </si>
@@ -732,15 +732,6 @@
     <t>DPT VIDEOS 22, 23, 24, DCC-MAVEN, IWAYQ-3T-PROJ</t>
   </si>
   <si>
-    <t>ANM</t>
-  </si>
-  <si>
-    <t>17600 CE</t>
-  </si>
-  <si>
-    <t>17500 CE</t>
-  </si>
-  <si>
     <t>AWS SAA/SYS-OPS PPT READ</t>
   </si>
   <si>
@@ -906,12 +897,6 @@
     <t>BE EXPERT WITH THE FILES THAT I AM UPLOADING IN THE GITHUB.</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t xml:space="preserve">FINISHED WITH AWS-CLOUDFORMATION VIDEOS. AS OF NOW CONCENTRATING ON THE AWS DEVOPS TOOLS. BUT THE PROCESS IS LITTLE BIT DIFFERENT. SO NOT DOING. JUST WATCHING VIDEOS. </t>
   </si>
   <si>
@@ -1114,6 +1099,45 @@
   </si>
   <si>
     <t>DPT VIDEOS 26, 27, 28, 29, 30</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>CHITS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>SCHOOL FEES</t>
+  </si>
+  <si>
+    <t>GOLD</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J24"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,6 +1774,15 @@
       <c r="J1">
         <v>30</v>
       </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" t="s">
+        <v>367</v>
+      </c>
       <c r="S1" t="s">
         <v>148</v>
       </c>
@@ -1760,7 +1793,7 @@
         <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="X1">
         <v>100000</v>
@@ -1791,6 +1824,12 @@
       <c r="J2">
         <v>31</v>
       </c>
+      <c r="L2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2">
+        <v>45827</v>
+      </c>
       <c r="S2" s="10">
         <v>44302</v>
       </c>
@@ -1801,7 +1840,7 @@
         <v>6000</v>
       </c>
       <c r="W2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X2">
         <v>368000</v>
@@ -1835,6 +1874,12 @@
       <c r="J3">
         <v>32</v>
       </c>
+      <c r="L3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3">
+        <v>98875</v>
+      </c>
       <c r="S3" s="10">
         <v>44366</v>
       </c>
@@ -1845,7 +1890,7 @@
         <v>5000</v>
       </c>
       <c r="W3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="X3">
         <v>200000</v>
@@ -1879,6 +1924,12 @@
       <c r="J4">
         <v>33</v>
       </c>
+      <c r="L4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4">
+        <v>98875</v>
+      </c>
       <c r="S4" s="10">
         <v>44411</v>
       </c>
@@ -1889,7 +1940,7 @@
         <v>9000</v>
       </c>
       <c r="W4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X4">
         <v>280000</v>
@@ -1928,6 +1979,12 @@
       <c r="J5">
         <v>34</v>
       </c>
+      <c r="L5" t="s">
+        <v>363</v>
+      </c>
+      <c r="M5">
+        <v>83622</v>
+      </c>
       <c r="S5" s="10">
         <v>44443</v>
       </c>
@@ -1938,7 +1995,7 @@
         <v>4000</v>
       </c>
       <c r="W5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X5">
         <v>468000</v>
@@ -1966,6 +2023,12 @@
       <c r="J6">
         <v>35</v>
       </c>
+      <c r="L6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6">
+        <v>78380</v>
+      </c>
       <c r="S6" s="10">
         <v>44492</v>
       </c>
@@ -1976,7 +2039,7 @@
         <v>5000</v>
       </c>
       <c r="W6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="X6">
         <v>68000</v>
@@ -2013,6 +2076,9 @@
       <c r="J7">
         <v>36</v>
       </c>
+      <c r="L7" t="s">
+        <v>366</v>
+      </c>
       <c r="S7" s="10">
         <v>44531</v>
       </c>
@@ -2023,7 +2089,7 @@
         <v>10900</v>
       </c>
       <c r="W7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="X7">
         <v>400000</v>
@@ -2066,7 +2132,7 @@
         <v>39900</v>
       </c>
       <c r="W8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2092,7 +2158,7 @@
         <v>38</v>
       </c>
       <c r="W9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="X9">
         <v>350000</v>
@@ -2120,8 +2186,12 @@
       <c r="J10">
         <v>39</v>
       </c>
+      <c r="M10">
+        <f>SUM(M2:M9)</f>
+        <v>405579</v>
+      </c>
       <c r="W10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2140,14 +2210,8 @@
       <c r="J11">
         <v>40</v>
       </c>
-      <c r="N11" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11">
-        <v>60</v>
-      </c>
       <c r="W11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X11">
         <v>270000</v>
@@ -2155,7 +2219,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2169,14 +2233,17 @@
       <c r="J12">
         <v>41</v>
       </c>
+      <c r="L12" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12">
+        <v>9900</v>
+      </c>
       <c r="N12" t="s">
-        <v>238</v>
-      </c>
-      <c r="O12">
-        <v>17.3</v>
+        <v>368</v>
       </c>
       <c r="W12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="X12">
         <v>120000</v>
@@ -2184,7 +2251,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -2198,14 +2265,14 @@
       <c r="J13">
         <v>42</v>
       </c>
+      <c r="M13">
+        <v>3000</v>
+      </c>
       <c r="N13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O13">
-        <v>26</v>
+        <v>369</v>
       </c>
       <c r="W13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="X13">
         <v>500000</v>
@@ -2213,7 +2280,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2227,14 +2294,14 @@
       <c r="J14">
         <v>43</v>
       </c>
-      <c r="N14">
-        <v>17000</v>
-      </c>
-      <c r="O14">
-        <v>54</v>
+      <c r="M14">
+        <v>6000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>370</v>
       </c>
       <c r="W14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X14">
         <v>80000</v>
@@ -2242,7 +2309,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -2256,14 +2323,14 @@
       <c r="J15">
         <v>44</v>
       </c>
-      <c r="N15">
-        <v>16800</v>
-      </c>
-      <c r="O15">
-        <v>51</v>
+      <c r="M15">
+        <v>18000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>371</v>
       </c>
       <c r="W15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="X15">
         <v>550000</v>
@@ -2271,7 +2338,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -2285,8 +2352,12 @@
       <c r="J16">
         <v>45</v>
       </c>
+      <c r="M16">
+        <f>SUM(M12:M15)</f>
+        <v>36900</v>
+      </c>
       <c r="W16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="X16">
         <v>150000</v>
@@ -2305,7 +2376,7 @@
         <v>65790.59</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -2319,10 +2390,13 @@
       <c r="J17">
         <v>46</v>
       </c>
+      <c r="L17" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2336,11 +2410,8 @@
       <c r="J18">
         <v>47</v>
       </c>
-      <c r="M18" t="s">
-        <v>295</v>
-      </c>
-      <c r="N18">
-        <v>23</v>
+      <c r="M18">
+        <v>10250</v>
       </c>
       <c r="X18">
         <f>SUM(X1:X17)</f>
@@ -2356,7 +2427,7 @@
         <v>72151.59</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -2370,11 +2441,8 @@
       <c r="J19">
         <v>48</v>
       </c>
-      <c r="M19" t="s">
-        <v>296</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
+      <c r="M19">
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2395,6 +2463,12 @@
       </c>
       <c r="J20">
         <v>49</v>
+      </c>
+      <c r="M20">
+        <v>76000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2428,6 +2502,9 @@
       <c r="J22">
         <v>51</v>
       </c>
+      <c r="L22" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -2445,6 +2522,9 @@
       <c r="J23">
         <v>52</v>
       </c>
+      <c r="M23">
+        <v>10500</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G24">
@@ -2458,12 +2538,38 @@
       </c>
       <c r="J24">
         <v>53</v>
+      </c>
+      <c r="M24">
+        <v>50000</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>164290.59</v>
+      </c>
+      <c r="M25">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3692,7 @@
         <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>180</v>
@@ -3602,10 +3708,10 @@
         <v>136</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>181</v>
@@ -3621,7 +3727,7 @@
         <v>137</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>182</v>
@@ -3637,7 +3743,7 @@
         <v>138</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -3651,7 +3757,7 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -4324,7 +4430,7 @@
         <v>181</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4332,7 +4438,7 @@
         <v>190</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4343,10 +4449,10 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>156</v>
@@ -4366,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C10" s="26">
         <v>63</v>
@@ -4390,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" s="26">
         <v>62</v>
@@ -4414,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" s="26">
         <v>61</v>
@@ -4462,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C14" s="26">
         <v>59</v>
@@ -4486,7 +4592,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C15" s="27">
         <v>58</v>
@@ -4502,7 +4608,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4523,10 +4629,10 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -4547,10 +4653,10 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -4571,10 +4677,10 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -4598,7 +4704,7 @@
         <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -4619,10 +4725,10 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -4630,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="27">
         <v>52</v>
@@ -4643,10 +4749,10 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -4654,7 +4760,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C22" s="27">
         <v>51</v>
@@ -4670,7 +4776,7 @@
         <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -4678,7 +4784,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="27">
         <v>50</v>
@@ -4691,10 +4797,10 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -4702,7 +4808,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" s="26">
         <v>49</v>
@@ -4714,10 +4820,10 @@
         <v>137</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>223</v>
@@ -4741,10 +4847,10 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -4752,7 +4858,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2">
         <v>47</v>
@@ -4773,7 +4879,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2">
         <v>46</v>
@@ -4794,7 +4900,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2">
         <v>45</v>
@@ -4810,7 +4916,7 @@
         <v>200</v>
       </c>
       <c r="P28" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -4837,7 +4943,7 @@
         <v>224</v>
       </c>
       <c r="P29" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4845,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2">
         <v>43</v>
@@ -4861,7 +4967,7 @@
         <v>201</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -4880,7 +4986,7 @@
         <v>202</v>
       </c>
       <c r="P31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -4902,7 +5008,7 @@
         <v>225</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -4921,7 +5027,7 @@
         <v>203</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -4940,7 +5046,7 @@
         <v>204</v>
       </c>
       <c r="P34" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -4959,7 +5065,7 @@
         <v>204</v>
       </c>
       <c r="P35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -4978,7 +5084,7 @@
         <v>206</v>
       </c>
       <c r="P36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -4997,7 +5103,7 @@
         <v>207</v>
       </c>
       <c r="P37" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -5016,7 +5122,7 @@
         <v>208</v>
       </c>
       <c r="P38" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S38" s="24"/>
     </row>
@@ -5035,7 +5141,7 @@
         <v>208</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -5054,7 +5160,7 @@
         <v>208</v>
       </c>
       <c r="P40" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -5073,7 +5179,7 @@
         <v>208</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S41" s="24"/>
     </row>
@@ -5095,7 +5201,7 @@
         <v>226</v>
       </c>
       <c r="P42" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -5114,7 +5220,7 @@
         <v>215</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S43" s="24"/>
     </row>
@@ -5133,7 +5239,7 @@
         <v>215</v>
       </c>
       <c r="P44" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
@@ -5154,7 +5260,7 @@
         <v>227</v>
       </c>
       <c r="P45" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
@@ -5172,7 +5278,7 @@
         <v>210</v>
       </c>
       <c r="P46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
@@ -5190,7 +5296,7 @@
         <v>211</v>
       </c>
       <c r="P47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
@@ -5406,7 +5512,7 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -5421,7 +5527,7 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
@@ -5436,7 +5542,7 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
@@ -5451,10 +5557,10 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
@@ -5472,7 +5578,7 @@
         <v>218</v>
       </c>
       <c r="H65" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -5490,7 +5596,7 @@
         <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
@@ -5600,7 +5706,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,7 +5765,7 @@
         <v>181</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5667,7 +5773,7 @@
         <v>190</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5678,10 +5784,10 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>156</v>
@@ -5701,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C10" s="26">
         <v>63</v>
@@ -5725,7 +5831,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" s="26">
         <v>62</v>
@@ -5749,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" s="26">
         <v>61</v>
@@ -5797,7 +5903,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C14" s="26">
         <v>59</v>
@@ -5821,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C15" s="27">
         <v>58</v>
@@ -5837,7 +5943,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5858,10 +5964,10 @@
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -5882,10 +5988,10 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5906,10 +6012,10 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5933,7 +6039,7 @@
         <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -5954,10 +6060,10 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -5965,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="27">
         <v>52</v>
@@ -5978,10 +6084,10 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -5989,7 +6095,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C22" s="27">
         <v>51</v>
@@ -6005,7 +6111,7 @@
         <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -6013,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C23" s="27">
         <v>50</v>
@@ -6026,10 +6132,10 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -6037,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" s="26">
         <v>49</v>
@@ -6049,10 +6155,10 @@
         <v>137</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>223</v>
@@ -6076,10 +6182,10 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -6087,7 +6193,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C26" s="26">
         <v>47</v>
@@ -6100,7 +6206,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6108,7 +6214,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="26">
         <v>46</v>
@@ -6121,7 +6227,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -6129,20 +6235,20 @@
         <v>19</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="2">
+        <v>278</v>
+      </c>
+      <c r="C28" s="26">
         <v>45</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="20">
         <v>44555</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>364</v>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -6163,7 +6269,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -6171,7 +6277,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2">
         <v>43</v>
@@ -6184,7 +6290,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -6202,7 +6308,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -6218,7 +6324,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -6234,7 +6340,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -6266,10 +6372,10 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -6285,7 +6391,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H36" t="s">
         <v>225</v>
@@ -6561,7 +6667,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
@@ -6575,10 +6681,10 @@
         <v>139</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -6592,10 +6698,10 @@
         <v>140</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -6609,10 +6715,10 @@
         <v>141</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H56" t="s">
         <v>229</v>
@@ -6629,10 +6735,10 @@
         <v>142</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -6646,10 +6752,10 @@
         <v>136</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
@@ -6663,7 +6769,7 @@
         <v>137</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G59" s="9"/>
     </row>
@@ -6678,7 +6784,7 @@
         <v>138</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G60" s="9"/>
     </row>
@@ -6693,7 +6799,7 @@
         <v>139</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G61" s="9"/>
     </row>
@@ -6708,7 +6814,7 @@
         <v>140</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G62" s="9"/>
     </row>
@@ -6723,7 +6829,7 @@
         <v>141</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G63" s="9"/>
     </row>
@@ -6738,7 +6844,7 @@
         <v>142</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G64" s="9"/>
     </row>
@@ -6753,11 +6859,11 @@
         <v>136</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -6773,7 +6879,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
@@ -6789,7 +6895,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
@@ -6876,8 +6982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,37 +6993,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -6925,97 +7031,106 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>349</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -2582,8 +2582,8 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:I33"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5706,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,17 +6258,17 @@
       <c r="B29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="26">
         <v>44</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="20">
         <v>44556</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
         <v>325</v>
       </c>
     </row>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="373">
   <si>
     <t>SNO</t>
   </si>
@@ -5706,7 +5706,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,8 +6982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,16 +7089,25 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>344</v>
+      </c>
       <c r="B35" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
       <c r="B36" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
       <c r="B37" t="s">
         <v>351</v>
       </c>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="375">
   <si>
     <t>SNO</t>
   </si>
@@ -1138,6 +1138,12 @@
   </si>
   <si>
     <t>GOLD</t>
+  </si>
+  <si>
+    <t>KUBEADM PROCESS FAILED. NEED TO LEARN FROM DOCKERHINT YT CHANNEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKS CREATION ALSO FAILED. </t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,6 +1377,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5703,17 +5715,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6279,150 +6292,190 @@
       <c r="B30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="26">
         <v>43</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="20">
         <v>44557</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
         <v>326</v>
+      </c>
+      <c r="H30" t="s">
+        <v>373</v>
       </c>
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" t="s">
+        <v>374</v>
+      </c>
+      <c r="S31" s="24"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="2">
         <v>42</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>44558</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="S31" s="24"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
+      <c r="H32" s="35">
+        <v>37</v>
+      </c>
+      <c r="I32" s="1">
+        <v>38</v>
+      </c>
+      <c r="J32" s="1">
+        <v>39</v>
+      </c>
+      <c r="K32" s="1">
+        <v>40</v>
+      </c>
+      <c r="L32" s="1">
         <v>41</v>
       </c>
-      <c r="D32" s="13">
-        <v>44559</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>328</v>
+      <c r="M32" s="1">
+        <v>42</v>
       </c>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="13">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>329</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="H33" s="1">
+        <v>43</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44</v>
+      </c>
+      <c r="J33" s="1">
+        <v>45</v>
+      </c>
+      <c r="K33" s="1">
+        <v>46</v>
+      </c>
+      <c r="L33" s="1"/>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="13">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>211</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="H34" s="1">
+        <v>47</v>
+      </c>
+      <c r="I34" s="1">
+        <v>48</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" s="13">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="H35" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="13">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="14" t="s">
-        <v>331</v>
+      <c r="G36" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="H36" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="S36" s="24"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="13">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="14" t="s">
-        <v>215</v>
+        <v>331</v>
+      </c>
+      <c r="H37" t="s">
+        <v>225</v>
       </c>
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="13">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="14" t="s">
@@ -6432,48 +6485,48 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="13">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H39" t="s">
-        <v>227</v>
-      </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="13">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>216</v>
+      <c r="G40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
       </c>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="13">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -6483,29 +6536,29 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="13">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" s="13">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -6515,13 +6568,13 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="13">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
@@ -6531,61 +6584,62 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="13">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="S45" s="24"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="13">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H46" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" s="13">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="H47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D48" s="13">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
@@ -6594,13 +6648,13 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="13">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
@@ -6609,28 +6663,28 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" s="13">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D51" s="13">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
@@ -6639,100 +6693,95 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" s="13">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H52" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" s="13">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>243</v>
+        <v>219</v>
+      </c>
+      <c r="H53" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="13">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>320</v>
+        <v>138</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="13">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="13">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H56" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="13">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>323</v>
@@ -6740,16 +6789,19 @@
       <c r="G57" s="14" t="s">
         <v>322</v>
       </c>
+      <c r="H57" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="13">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>323</v>
@@ -6760,28 +6812,30 @@
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="13">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="13">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>323</v>
@@ -6790,13 +6844,13 @@
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="13">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>323</v>
@@ -6805,13 +6859,13 @@
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="13">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>323</v>
@@ -6820,13 +6874,13 @@
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" s="13">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>323</v>
@@ -6835,13 +6889,13 @@
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="13">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>323</v>
@@ -6850,131 +6904,147 @@
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="13">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G65" s="9"/>
-      <c r="H65" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="13">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G66" s="9"/>
       <c r="H66" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="13">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="13">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="13">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" s="13">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="13">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="13">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="13">
+        <v>44599</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" t="s">
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="383">
   <si>
     <t>SNO</t>
   </si>
@@ -1144,6 +1144,30 @@
   </si>
   <si>
     <t xml:space="preserve">EKS CREATION ALSO FAILED. </t>
+  </si>
+  <si>
+    <t>OTHER SERVICES-CLUSTERIP, MULTIPORT, LOAD BALANCER</t>
+  </si>
+  <si>
+    <t>K8S MONITORING WITH RANCHER &amp; OPENSHIFT</t>
+  </si>
+  <si>
+    <t>37 38</t>
+  </si>
+  <si>
+    <t>39 40</t>
+  </si>
+  <si>
+    <t>41 42</t>
+  </si>
+  <si>
+    <t>43 44</t>
+  </si>
+  <si>
+    <t>LEARNED REPLICA SET CONTROLLER, DEPLOYMENT CONTROLLER, NODE-PORT SERVICE, LIVENESS &amp; READINESS SERVICE</t>
+  </si>
+  <si>
+    <t>CLUSTER-IP SERVICE, SERVICE DISCOVERY</t>
   </si>
 </sst>
 </file>
@@ -5718,7 +5742,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:L34"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,7 +5987,7 @@
       <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C16" s="27">
@@ -5987,7 +6011,7 @@
       <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="26">
@@ -6011,7 +6035,7 @@
       <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>168</v>
       </c>
       <c r="C18" s="26">
@@ -6059,7 +6083,7 @@
       <c r="A20" s="9">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="26">
@@ -6083,7 +6107,7 @@
       <c r="A21" s="9">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="21" t="s">
         <v>273</v>
       </c>
       <c r="C21" s="27">
@@ -6107,7 +6131,7 @@
       <c r="A22" s="9">
         <v>13</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="21" t="s">
         <v>274</v>
       </c>
       <c r="C22" s="27">
@@ -6339,23 +6363,22 @@
       <c r="G32" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="35">
-        <v>37</v>
-      </c>
-      <c r="I32" s="1">
-        <v>38</v>
-      </c>
-      <c r="J32" s="1">
-        <v>39</v>
-      </c>
-      <c r="K32" s="1">
-        <v>40</v>
-      </c>
-      <c r="L32" s="1">
-        <v>41</v>
-      </c>
-      <c r="M32" s="1">
-        <v>42</v>
+      <c r="H32" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" t="s">
+        <v>381</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -6374,18 +6397,21 @@
         <v>328</v>
       </c>
       <c r="H33" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I33" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J33" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1"/>
+      <c r="N33" t="s">
+        <v>382</v>
+      </c>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
@@ -6402,15 +6428,14 @@
       <c r="G34" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="H34" s="1">
-        <v>47</v>
-      </c>
-      <c r="I34" s="1">
-        <v>48</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
+      <c r="N34" t="s">
+        <v>375</v>
+      </c>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
@@ -6423,9 +6448,12 @@
       <c r="E35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="N35" t="s">
+        <v>376</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -6439,10 +6467,10 @@
       <c r="E36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>330</v>
       </c>
+      <c r="G36" s="3"/>
       <c r="H36" t="s">
         <v>324</v>
       </c>
@@ -6458,10 +6486,10 @@
       <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>331</v>
       </c>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
         <v>225</v>
       </c>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="392">
   <si>
     <t>SNO</t>
   </si>
@@ -1164,10 +1164,37 @@
     <t>43 44</t>
   </si>
   <si>
-    <t>LEARNED REPLICA SET CONTROLLER, DEPLOYMENT CONTROLLER, NODE-PORT SERVICE, LIVENESS &amp; READINESS SERVICE</t>
-  </si>
-  <si>
-    <t>CLUSTER-IP SERVICE, SERVICE DISCOVERY</t>
+    <t>DEPLOYMENT CONTROLLER</t>
+  </si>
+  <si>
+    <t>NODE-PORT SERVICE</t>
+  </si>
+  <si>
+    <t>LIVENESS &amp; READINESS SERVICE</t>
+  </si>
+  <si>
+    <t>REPLICA SET CONTROLLER</t>
+  </si>
+  <si>
+    <t>CLUSTER-IP SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE DISCOVERY</t>
+  </si>
+  <si>
+    <t>NAME-SPACES</t>
+  </si>
+  <si>
+    <t>HORIZONTAL POD AUTOSCALER</t>
+  </si>
+  <si>
+    <t>REQUEST &amp; LIMITS</t>
+  </si>
+  <si>
+    <t>METRICS API</t>
+  </si>
+  <si>
+    <t>SECRET SERVICE</t>
   </si>
 </sst>
 </file>
@@ -1401,11 +1428,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5741,8 +5768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6350,23 +6377,23 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="2">
+      <c r="C32" s="26">
         <v>42</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="20">
         <v>44558</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="34" t="s">
         <v>378</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -6377,9 +6404,6 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" t="s">
-        <v>381</v>
-      </c>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
@@ -6409,9 +6433,6 @@
         <v>48</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="N33" t="s">
-        <v>382</v>
-      </c>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
@@ -6493,6 +6514,12 @@
       <c r="H37" t="s">
         <v>225</v>
       </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>384</v>
+      </c>
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
@@ -6509,6 +6536,12 @@
       <c r="G38" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>381</v>
+      </c>
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
@@ -6525,6 +6558,12 @@
       <c r="G39" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="P39" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>382</v>
+      </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -6544,6 +6583,12 @@
       <c r="H40" t="s">
         <v>227</v>
       </c>
+      <c r="P40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>383</v>
+      </c>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
@@ -6560,6 +6605,12 @@
       <c r="G41" s="9" t="s">
         <v>216</v>
       </c>
+      <c r="P41" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>385</v>
+      </c>
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
@@ -6576,6 +6627,12 @@
       <c r="G42" s="9" t="s">
         <v>216</v>
       </c>
+      <c r="P42" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>386</v>
+      </c>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
@@ -6592,6 +6649,12 @@
       <c r="G43" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="P43" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>387</v>
+      </c>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
@@ -6608,6 +6671,12 @@
       <c r="G44" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="P44" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>388</v>
+      </c>
       <c r="S44" s="24"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
@@ -6624,6 +6693,12 @@
       <c r="G45" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="P45" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>389</v>
+      </c>
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
@@ -6640,6 +6715,12 @@
       <c r="G46" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="P46" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -6657,6 +6738,12 @@
       </c>
       <c r="H47" t="s">
         <v>226</v>
+      </c>
+      <c r="P47" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="394">
   <si>
     <t>SNO</t>
   </si>
@@ -1161,9 +1161,6 @@
     <t>41 42</t>
   </si>
   <si>
-    <t>43 44</t>
-  </si>
-  <si>
     <t>DEPLOYMENT CONTROLLER</t>
   </si>
   <si>
@@ -1195,6 +1192,15 @@
   </si>
   <si>
     <t>SECRET SERVICE</t>
+  </si>
+  <si>
+    <t>42 43 44</t>
+  </si>
+  <si>
+    <t>45 46</t>
+  </si>
+  <si>
+    <t>47 48</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,6 +1439,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5769,7 +5778,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:G32"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,11 +6405,8 @@
       <c r="I32" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="36" t="s">
         <v>379</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -6420,18 +6426,16 @@
       <c r="G33" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="H33" s="1">
-        <v>45</v>
-      </c>
-      <c r="I33" s="1">
-        <v>46</v>
-      </c>
-      <c r="J33" s="1">
-        <v>47</v>
-      </c>
-      <c r="K33" s="1">
-        <v>48</v>
-      </c>
+      <c r="H33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="S33" s="24"/>
     </row>
@@ -6518,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -6540,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S38" s="24"/>
     </row>
@@ -6562,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -6587,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="Q40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -6609,7 +6613,7 @@
         <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S41" s="24"/>
     </row>
@@ -6631,7 +6635,7 @@
         <v>6</v>
       </c>
       <c r="Q42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -6653,7 +6657,7 @@
         <v>7</v>
       </c>
       <c r="Q43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S43" s="24"/>
     </row>
@@ -6675,7 +6679,7 @@
         <v>8</v>
       </c>
       <c r="Q44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S44" s="24"/>
     </row>
@@ -6697,7 +6701,7 @@
         <v>9</v>
       </c>
       <c r="Q45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S45" s="24"/>
     </row>
@@ -6719,7 +6723,7 @@
         <v>10</v>
       </c>
       <c r="Q46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
@@ -6743,7 +6747,7 @@
         <v>11</v>
       </c>
       <c r="Q47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="397">
   <si>
     <t>SNO</t>
   </si>
@@ -1002,21 +1002,6 @@
     <t>DPT VIDEOS 34 - 36</t>
   </si>
   <si>
-    <t>DPT VIDEOS 37 - 39</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 40 - 42</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 43 - 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPT VIDEOS 47 </t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 48, UDEMY ANSIBLE 1 DAY</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 19 - 21, DCC-GIT-PROJECT</t>
   </si>
   <si>
@@ -1200,7 +1185,31 @@
     <t>45 46</t>
   </si>
   <si>
-    <t>47 48</t>
+    <t>930~1130</t>
+  </si>
+  <si>
+    <t>1130~500</t>
+  </si>
+  <si>
+    <t>5~8</t>
+  </si>
+  <si>
+    <t>130~430</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 37 - 39, 40, 41</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 42, 43, 44, 45, 46, 47</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 48, UDEMY - AWS-EKS-KD</t>
+  </si>
+  <si>
+    <t>DCC - K8S PROJECT</t>
+  </si>
+  <si>
+    <t>UDEMY - SIMPLE PROJECT</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1856,13 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="S1" t="s">
         <v>148</v>
@@ -1897,7 +1906,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M2">
         <v>45827</v>
@@ -1947,7 +1956,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M3">
         <v>98875</v>
@@ -1997,7 +2006,7 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M4">
         <v>98875</v>
@@ -2052,7 +2061,7 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M5">
         <v>83622</v>
@@ -2149,7 +2158,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="S7" s="10">
         <v>44531</v>
@@ -2291,7 +2300,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2306,13 +2315,13 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M12">
         <v>9900</v>
       </c>
       <c r="N12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="W12" t="s">
         <v>259</v>
@@ -2323,7 +2332,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -2341,7 +2350,7 @@
         <v>3000</v>
       </c>
       <c r="N13" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="W13" t="s">
         <v>260</v>
@@ -2352,7 +2361,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2370,7 +2379,7 @@
         <v>6000</v>
       </c>
       <c r="N14" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="W14" t="s">
         <v>261</v>
@@ -2381,7 +2390,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -2399,7 +2408,7 @@
         <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="W15" t="s">
         <v>262</v>
@@ -2410,7 +2419,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -2448,7 +2457,7 @@
         <v>65790.59</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -2463,12 +2472,12 @@
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2499,7 +2508,7 @@
         <v>72151.59</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -2540,7 +2549,7 @@
         <v>76000</v>
       </c>
       <c r="N20" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2575,7 +2584,7 @@
         <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2626,7 +2635,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -5777,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6288,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6300,7 +6309,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -6321,7 +6330,7 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -6366,7 +6375,7 @@
         <v>326</v>
       </c>
       <c r="H30" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="S30" s="24"/>
     </row>
@@ -6379,7 +6388,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S31" s="24"/>
     </row>
@@ -6397,19 +6406,26 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M32" s="1">
+        <v>47</v>
+      </c>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
@@ -6424,19 +6440,17 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J33" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
@@ -6451,15 +6465,18 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="H34" s="1">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>391</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="S34" s="24"/>
     </row>
@@ -6473,12 +6490,12 @@
       <c r="E35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="3"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="N35" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S35" s="24"/>
     </row>
@@ -6492,10 +6509,10 @@
       <c r="E36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G36" s="3"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="H36" t="s">
         <v>324</v>
       </c>
@@ -6511,10 +6528,10 @@
       <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G37" s="3"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="H37" t="s">
         <v>225</v>
       </c>
@@ -6522,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="S37" s="24"/>
     </row>
@@ -6537,14 +6554,14 @@
         <v>136</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="14" t="s">
-        <v>215</v>
+      <c r="G38" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S38" s="24"/>
     </row>
@@ -6559,14 +6576,14 @@
         <v>137</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="14" t="s">
-        <v>215</v>
+      <c r="G39" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="P39" s="1">
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S39" s="24"/>
     </row>
@@ -6581,8 +6598,8 @@
         <v>138</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="14" t="s">
-        <v>215</v>
+      <c r="G40" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H40" t="s">
         <v>227</v>
@@ -6591,7 +6608,7 @@
         <v>4</v>
       </c>
       <c r="Q40" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="S40" s="24"/>
     </row>
@@ -6607,13 +6624,13 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>216</v>
+        <v>395</v>
       </c>
       <c r="P41" s="1">
         <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S41" s="24"/>
     </row>
@@ -6629,13 +6646,13 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>216</v>
+        <v>396</v>
       </c>
       <c r="P42" s="1">
         <v>6</v>
       </c>
       <c r="Q42" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S42" s="24"/>
     </row>
@@ -6651,13 +6668,13 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P43" s="1">
         <v>7</v>
       </c>
       <c r="Q43" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="S43" s="24"/>
     </row>
@@ -6673,13 +6690,13 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P44" s="1">
         <v>8</v>
       </c>
       <c r="Q44" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="S44" s="24"/>
     </row>
@@ -6695,13 +6712,13 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P45" s="1">
         <v>9</v>
       </c>
       <c r="Q45" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S45" s="24"/>
     </row>
@@ -6717,13 +6734,13 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P46" s="1">
         <v>10</v>
       </c>
       <c r="Q46" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
@@ -6738,7 +6755,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
         <v>226</v>
@@ -6747,7 +6764,7 @@
         <v>11</v>
       </c>
       <c r="Q47" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
@@ -6762,7 +6779,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
@@ -6775,9 +6792,11 @@
       <c r="E49" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>220</v>
+      <c r="F49" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
@@ -6790,9 +6809,11 @@
       <c r="E50" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>220</v>
+      <c r="F50" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -6805,9 +6826,11 @@
       <c r="E51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>214</v>
+      <c r="F51" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
@@ -6820,9 +6843,11 @@
       <c r="E52" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>214</v>
+      <c r="F52" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -6835,9 +6860,11 @@
       <c r="E53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>219</v>
+      <c r="F53" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="H53" t="s">
         <v>228</v>
@@ -6853,9 +6880,11 @@
       <c r="E54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
-        <v>243</v>
+      <c r="F54" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -6872,7 +6901,7 @@
         <v>323</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -6888,8 +6917,8 @@
       <c r="F56" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>321</v>
+      <c r="G56" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -6905,8 +6934,8 @@
       <c r="F57" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>322</v>
+      <c r="G57" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="H57" t="s">
         <v>229</v>
@@ -7064,7 +7093,9 @@
       <c r="E67" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G67" s="9"/>
       <c r="H67" t="s">
         <v>285</v>
@@ -7080,7 +7111,9 @@
       <c r="E68" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" t="s">
         <v>284</v>
@@ -7096,7 +7129,9 @@
       <c r="E69" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
@@ -7109,7 +7144,9 @@
       <c r="E70" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
@@ -7122,7 +7159,9 @@
       <c r="E71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
@@ -7135,7 +7174,9 @@
       <c r="E72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
@@ -7207,12 +7248,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -7220,90 +7261,90 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
         <v>344</v>
-      </c>
-      <c r="B35" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,22 +7354,22 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="18600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="402">
   <si>
     <t>SNO</t>
   </si>
@@ -1188,28 +1188,43 @@
     <t>930~1130</t>
   </si>
   <si>
-    <t>1130~500</t>
-  </si>
-  <si>
-    <t>5~8</t>
-  </si>
-  <si>
-    <t>130~430</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 37 - 39, 40, 41</t>
   </si>
   <si>
-    <t>DPT VIDEOS 42, 43, 44, 45, 46, 47</t>
-  </si>
-  <si>
-    <t>DPT VIDEOS 48, UDEMY - AWS-EKS-KD</t>
-  </si>
-  <si>
     <t>DCC - K8S PROJECT</t>
   </si>
   <si>
     <t>UDEMY - SIMPLE PROJECT</t>
+  </si>
+  <si>
+    <t>10~15</t>
+  </si>
+  <si>
+    <t>47 48</t>
+  </si>
+  <si>
+    <t>15~20</t>
+  </si>
+  <si>
+    <t>START READING FOR INTERVIEW AND START WATCHING VIDEOS.</t>
+  </si>
+  <si>
+    <t>JIRA TOOL</t>
+  </si>
+  <si>
+    <t>KUBERNETES HELM</t>
+  </si>
+  <si>
+    <t>MICROSERVICES</t>
+  </si>
+  <si>
+    <t>DPT PROJECT</t>
+  </si>
+  <si>
+    <t>UDEMY-K8S HANDS-ON/UDEMY - AWS-EKS-KD</t>
+  </si>
+  <si>
+    <t>DPT VIDEOS 42, 43, 44, 45, 46, 47, 48</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1344,11 +1359,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,6 +1475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5784,10 +5811,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,7 +6227,7 @@
       <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="21" t="s">
         <v>275</v>
       </c>
       <c r="C23" s="27">
@@ -6406,7 +6433,7 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>372</v>
@@ -6417,14 +6444,14 @@
       <c r="J32" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="M32" s="1">
-        <v>47</v>
+      <c r="M32" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="S32" s="24"/>
     </row>
@@ -6440,16 +6467,16 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>388</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="S33" s="24"/>
     </row>
@@ -6465,14 +6492,9 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="H34" s="1">
-        <v>48</v>
-      </c>
-      <c r="I34" t="s">
-        <v>391</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
@@ -6491,8 +6513,11 @@
         <v>140</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="14" t="s">
-        <v>215</v>
+      <c r="G35" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" t="s">
+        <v>324</v>
       </c>
       <c r="N35" t="s">
         <v>371</v>
@@ -6511,10 +6536,10 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="H36" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="S36" s="24"/>
     </row>
@@ -6529,11 +6554,8 @@
         <v>142</v>
       </c>
       <c r="F37" s="14"/>
-      <c r="G37" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" t="s">
-        <v>225</v>
+      <c r="G37" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="P37" s="1">
         <v>1</v>
@@ -6554,8 +6576,8 @@
         <v>136</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>217</v>
+      <c r="G38" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
@@ -6577,7 +6599,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P39" s="1">
         <v>3</v>
@@ -6599,10 +6621,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="P40" s="1">
         <v>4</v>
@@ -6624,7 +6643,10 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="H41" t="s">
+        <v>226</v>
       </c>
       <c r="P41" s="1">
         <v>5</v>
@@ -6646,7 +6668,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P42" s="1">
         <v>6</v>
@@ -6757,9 +6779,6 @@
       <c r="G47" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H47" t="s">
-        <v>226</v>
-      </c>
       <c r="P47" s="1">
         <v>11</v>
       </c>
@@ -6781,33 +6800,28 @@
       <c r="G48" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
+      <c r="H48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
         <v>25</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>44575</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
-        <v>24</v>
-      </c>
-      <c r="D50" s="13">
-        <v>44576</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>323</v>
@@ -6815,16 +6829,19 @@
       <c r="G50" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" s="13">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>323</v>
@@ -6832,33 +6849,39 @@
       <c r="G51" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="13">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" s="13">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>323</v>
@@ -6866,19 +6889,22 @@
       <c r="G53" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="H53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="13">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>323</v>
@@ -6886,16 +6912,19 @@
       <c r="G54" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="13">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>323</v>
@@ -6903,33 +6932,39 @@
       <c r="G55" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" s="13">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="13">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>323</v>
@@ -6937,36 +6972,39 @@
       <c r="G57" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" s="13">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="13">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>323</v>
@@ -6974,232 +7012,276 @@
       <c r="G59" s="14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="13">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="13">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="13">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="13">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" s="13">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="13">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="13">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G66" s="9"/>
-      <c r="H66" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="13">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G67" s="9"/>
-      <c r="H67" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="13">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="13">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="13">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="13">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="13">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>323</v>
       </c>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="13">
+        <v>44598</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>44599</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" t="s">
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18600" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -5813,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6301,7 +6301,7 @@
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="23" t="s">
         <v>295</v>
       </c>
       <c r="C26" s="26">
@@ -6456,17 +6456,17 @@
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
+      <c r="C33" s="26">
         <v>41</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="20">
         <v>44559</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
         <v>401</v>
       </c>
       <c r="K33" s="1" t="s">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="19800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="398">
   <si>
     <t>SNO</t>
   </si>
@@ -1185,9 +1185,6 @@
     <t>45 46</t>
   </si>
   <si>
-    <t>930~1130</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 37 - 39, 40, 41</t>
   </si>
   <si>
@@ -1197,15 +1194,9 @@
     <t>UDEMY - SIMPLE PROJECT</t>
   </si>
   <si>
-    <t>10~15</t>
-  </si>
-  <si>
     <t>47 48</t>
   </si>
   <si>
-    <t>15~20</t>
-  </si>
-  <si>
     <t>START READING FOR INTERVIEW AND START WATCHING VIDEOS.</t>
   </si>
   <si>
@@ -1219,9 +1210,6 @@
   </si>
   <si>
     <t>DPT PROJECT</t>
-  </si>
-  <si>
-    <t>UDEMY-K8S HANDS-ON/UDEMY - AWS-EKS-KD</t>
   </si>
   <si>
     <t>DPT VIDEOS 42, 43, 44, 45, 46, 47, 48</t>
@@ -5811,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,7 +6067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>8</v>
       </c>
@@ -6103,7 +6091,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -6127,7 +6115,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -6151,7 +6139,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>11</v>
       </c>
@@ -6175,7 +6163,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>12</v>
       </c>
@@ -6199,7 +6187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>13</v>
       </c>
@@ -6223,7 +6211,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>14</v>
       </c>
@@ -6247,7 +6235,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>15</v>
       </c>
@@ -6273,7 +6261,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>16</v>
       </c>
@@ -6296,8 +6284,14 @@
       <c r="H25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>17</v>
       </c>
@@ -6317,8 +6311,14 @@
       <c r="G26" s="21" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>18</v>
       </c>
@@ -6338,8 +6338,14 @@
       <c r="G27" s="21" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>19</v>
       </c>
@@ -6359,8 +6365,14 @@
       <c r="G28" s="21" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>20</v>
       </c>
@@ -6380,8 +6392,14 @@
       <c r="G29" s="21" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>21</v>
       </c>
@@ -6405,8 +6423,14 @@
         <v>368</v>
       </c>
       <c r="S30" s="24"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="24"/>
       <c r="C31" s="2"/>
@@ -6418,8 +6442,14 @@
         <v>369</v>
       </c>
       <c r="S31" s="24"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="24"/>
       <c r="C32" s="26">
@@ -6433,7 +6463,7 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>372</v>
@@ -6450,12 +6480,18 @@
       <c r="L32" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>393</v>
+      <c r="M32" s="36" t="s">
+        <v>391</v>
       </c>
       <c r="S32" s="24"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="26">
         <v>41</v>
       </c>
@@ -6467,64 +6503,76 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="H33" t="s">
+        <v>324</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="S33" s="24"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="26">
         <v>40</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="20">
         <v>44560</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
         <v>370</v>
       </c>
       <c r="S34" s="24"/>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="26">
         <v>39</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="20">
         <v>44561</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="H35" t="s">
-        <v>324</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="N35" t="s">
         <v>371</v>
       </c>
       <c r="S35" s="24"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>38</v>
       </c>
@@ -6536,14 +6584,26 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>378</v>
       </c>
       <c r="S36" s="24"/>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>37</v>
       </c>
@@ -6558,14 +6618,20 @@
         <v>215</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>13</v>
+      </c>
+      <c r="U37">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>36</v>
       </c>
@@ -6576,18 +6642,27 @@
         <v>136</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="14" t="s">
-        <v>215</v>
+      <c r="G38" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" t="s">
+        <v>227</v>
       </c>
       <c r="P38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S38" s="24"/>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>14</v>
+      </c>
+      <c r="U38">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>35</v>
       </c>
@@ -6602,14 +6677,20 @@
         <v>216</v>
       </c>
       <c r="P39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S39" s="24"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>15</v>
+      </c>
+      <c r="U39">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>34</v>
       </c>
@@ -6624,14 +6705,20 @@
         <v>216</v>
       </c>
       <c r="P40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="S40" s="24"/>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>16</v>
+      </c>
+      <c r="U40">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <v>33</v>
       </c>
@@ -6643,20 +6730,23 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="H41" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
       <c r="P41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S41" s="24"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>17</v>
+      </c>
+      <c r="U41">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <v>32</v>
       </c>
@@ -6668,17 +6758,23 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P42" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S42" s="24"/>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>18</v>
+      </c>
+      <c r="U42">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <v>31</v>
       </c>
@@ -6693,14 +6789,20 @@
         <v>220</v>
       </c>
       <c r="P43" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S43" s="24"/>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>19</v>
+      </c>
+      <c r="U43">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <v>30</v>
       </c>
@@ -6715,14 +6817,20 @@
         <v>220</v>
       </c>
       <c r="P44" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S44" s="24"/>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <v>29</v>
       </c>
@@ -6737,14 +6845,20 @@
         <v>220</v>
       </c>
       <c r="P45" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S45" s="24"/>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>21</v>
+      </c>
+      <c r="U45">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <v>28</v>
       </c>
@@ -6756,62 +6870,66 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P46" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
+        <v>385</v>
+      </c>
+      <c r="T46">
+        <v>22</v>
+      </c>
+      <c r="U46">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
         <v>27</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>44573</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="P47" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
+      <c r="F48" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
         <v>26</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>44574</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F49" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -6830,7 +6948,7 @@
         <v>320</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.25">
@@ -6890,7 +7008,7 @@
         <v>321</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>215</v>
@@ -6913,7 +7031,7 @@
         <v>321</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.25">
@@ -6933,7 +7051,7 @@
         <v>321</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.25">
@@ -6953,7 +7071,7 @@
         <v>321</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.25">
@@ -6993,7 +7111,7 @@
         <v>243</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.25">
@@ -7087,7 +7205,7 @@
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.25">
@@ -7105,7 +7223,7 @@
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -7123,7 +7241,7 @@
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="400">
   <si>
     <t>SNO</t>
   </si>
@@ -987,9 +987,6 @@
     <t>VALAXY TECH YT VIDEOS</t>
   </si>
   <si>
-    <t>DEVOPS INTERVIEW YT VIDEOS</t>
-  </si>
-  <si>
     <t>REVISION</t>
   </si>
   <si>
@@ -1203,16 +1200,25 @@
     <t>JIRA TOOL</t>
   </si>
   <si>
-    <t>KUBERNETES HELM</t>
-  </si>
-  <si>
-    <t>MICROSERVICES</t>
-  </si>
-  <si>
-    <t>DPT PROJECT</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 42, 43, 44, 45, 46, 47, 48</t>
+  </si>
+  <si>
+    <t>KUBERNETES HELM KHO</t>
+  </si>
+  <si>
+    <t>MICROSERVICES DOCKER</t>
+  </si>
+  <si>
+    <t>DEVOPSHINT</t>
+  </si>
+  <si>
+    <t>KUBERNETES HELM KHO JENKINS</t>
+  </si>
+  <si>
+    <t>ANSIBLE PACKER</t>
+  </si>
+  <si>
+    <t>UDEMY-K8S HANDS-ON, PROMETHEUS FROM AWS</t>
   </si>
 </sst>
 </file>
@@ -1871,13 +1877,13 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" t="s">
         <v>359</v>
       </c>
-      <c r="M1" t="s">
-        <v>360</v>
-      </c>
       <c r="N1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S1" t="s">
         <v>148</v>
@@ -1921,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M2">
         <v>45827</v>
@@ -1971,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M3">
         <v>98875</v>
@@ -2021,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M4">
         <v>98875</v>
@@ -2076,7 +2082,7 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M5">
         <v>83622</v>
@@ -2173,7 +2179,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S7" s="10">
         <v>44531</v>
@@ -2315,7 +2321,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -2330,13 +2336,13 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M12">
         <v>9900</v>
       </c>
       <c r="N12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W12" t="s">
         <v>259</v>
@@ -2347,7 +2353,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -2365,7 +2371,7 @@
         <v>3000</v>
       </c>
       <c r="N13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W13" t="s">
         <v>260</v>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -2394,7 +2400,7 @@
         <v>6000</v>
       </c>
       <c r="N14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W14" t="s">
         <v>261</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -2423,7 +2429,7 @@
         <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W15" t="s">
         <v>262</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -2472,7 +2478,7 @@
         <v>65790.59</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -2487,12 +2493,12 @@
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2523,7 +2529,7 @@
         <v>72151.59</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -2564,7 +2570,7 @@
         <v>76000</v>
       </c>
       <c r="N20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2599,7 +2605,7 @@
         <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2650,7 +2656,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -5801,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,7 +6315,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -6336,7 +6342,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T27">
         <v>3</v>
@@ -6363,7 +6369,7 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -6390,7 +6396,7 @@
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -6417,10 +6423,10 @@
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S30" s="24"/>
       <c r="T30">
@@ -6439,7 +6445,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S31" s="24"/>
       <c r="T31">
@@ -6463,25 +6469,25 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H32" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="J32" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>374</v>
-      </c>
       <c r="K32" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="L32" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="L32" s="34" t="s">
-        <v>387</v>
-      </c>
       <c r="M32" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S32" s="24"/>
       <c r="T32">
@@ -6503,10 +6509,10 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6536,7 +6542,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S34" s="24"/>
       <c r="T34">
@@ -6558,11 +6564,11 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
       <c r="H35" s="1"/>
       <c r="N35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S35" s="24"/>
       <c r="T35">
@@ -6593,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S36" s="24"/>
       <c r="T36">
@@ -6621,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S37" s="24"/>
       <c r="T37">
@@ -6652,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="Q38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S38" s="24"/>
       <c r="T38">
@@ -6680,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="Q39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S39" s="24"/>
       <c r="T39">
@@ -6708,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S40" s="24"/>
       <c r="T40">
@@ -6730,13 +6736,13 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P41" s="1">
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S41" s="24"/>
       <c r="T41">
@@ -6758,13 +6764,13 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P42" s="1">
         <v>7</v>
       </c>
       <c r="Q42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S42" s="24"/>
       <c r="T42">
@@ -6792,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="Q43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S43" s="24"/>
       <c r="T43">
@@ -6820,7 +6826,7 @@
         <v>9</v>
       </c>
       <c r="Q44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S44" s="24"/>
       <c r="T44">
@@ -6842,13 +6848,16 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="H45" t="s">
+        <v>228</v>
       </c>
       <c r="P45" s="1">
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S45" s="24"/>
       <c r="T45">
@@ -6859,24 +6868,18 @@
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
-        <v>28</v>
-      </c>
-      <c r="D46" s="13">
-        <v>44572</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
       <c r="P46" s="1">
         <v>11</v>
       </c>
       <c r="Q46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T46">
         <v>22</v>
@@ -6886,13 +6889,21 @@
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="C47" s="2">
+        <v>28</v>
+      </c>
+      <c r="D47" s="13">
+        <v>44572</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -6905,13 +6916,13 @@
         <v>138</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>26</v>
       </c>
@@ -6922,16 +6933,13 @@
         <v>139</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>25</v>
       </c>
@@ -6942,16 +6950,13 @@
         <v>140</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>24</v>
       </c>
@@ -6962,16 +6967,13 @@
         <v>141</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>23</v>
       </c>
@@ -6982,16 +6984,13 @@
         <v>142</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <v>22</v>
       </c>
@@ -7002,19 +7001,13 @@
         <v>136</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <v>21</v>
       </c>
@@ -7025,16 +7018,14 @@
         <v>137</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <v>20</v>
       </c>
@@ -7045,16 +7036,14 @@
         <v>138</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>19</v>
       </c>
@@ -7065,16 +7054,14 @@
         <v>139</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="H56" s="37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>18</v>
       </c>
@@ -7085,16 +7072,14 @@
         <v>140</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="H57" s="37"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <v>17</v>
       </c>
@@ -7105,16 +7090,14 @@
         <v>141</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <v>16</v>
       </c>
@@ -7125,16 +7108,14 @@
         <v>142</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <v>15</v>
       </c>
@@ -7145,16 +7126,14 @@
         <v>136</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <v>14</v>
       </c>
@@ -7165,14 +7144,14 @@
         <v>137</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <v>13</v>
       </c>
@@ -7183,14 +7162,14 @@
         <v>138</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <v>12</v>
       </c>
@@ -7201,14 +7180,14 @@
         <v>139</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="H63" s="37"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <v>11</v>
       </c>
@@ -7219,12 +7198,12 @@
         <v>140</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="37" t="s">
-        <v>396</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
@@ -7237,12 +7216,12 @@
         <v>141</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="37" t="s">
-        <v>396</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
@@ -7255,9 +7234,12 @@
         <v>142</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G66" s="9"/>
+        <v>322</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
@@ -7270,9 +7252,12 @@
         <v>136</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G67" s="9"/>
+        <v>322</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
@@ -7285,9 +7270,12 @@
         <v>137</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G68" s="9"/>
+        <v>322</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
@@ -7300,9 +7288,10 @@
         <v>138</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G69" s="9"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
@@ -7315,7 +7304,7 @@
         <v>139</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G70" s="9"/>
     </row>
@@ -7330,7 +7319,7 @@
         <v>140</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G71" s="9"/>
     </row>
@@ -7345,7 +7334,7 @@
         <v>141</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G72" s="9"/>
     </row>
@@ -7360,7 +7349,7 @@
         <v>142</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -7448,12 +7437,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -7461,90 +7450,90 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
         <v>339</v>
-      </c>
-      <c r="B31" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7554,22 +7543,22 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="21000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -5807,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:H69"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="P40" s="1">
         <v>5</v>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P41" s="1">
         <v>6</v>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="P42" s="1">
         <v>7</v>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P44" s="1">
         <v>9</v>
@@ -6837,22 +6837,13 @@
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
-        <v>29</v>
-      </c>
-      <c r="D45" s="13">
-        <v>44571</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" t="s">
-        <v>228</v>
-      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
       <c r="P45" s="1">
         <v>10</v>
       </c>
@@ -6868,13 +6859,24 @@
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="C46" s="2">
+        <v>29</v>
+      </c>
+      <c r="D46" s="13">
+        <v>44571</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" t="s">
+        <v>228</v>
+      </c>
       <c r="P46" s="1">
         <v>11</v>
       </c>
@@ -6919,7 +6921,7 @@
         <v>322</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
@@ -6953,7 +6955,7 @@
         <v>322</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -6987,7 +6989,7 @@
         <v>322</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -7004,7 +7006,7 @@
         <v>322</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>392</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
@@ -7021,7 +7023,7 @@
         <v>322</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="H54" s="28"/>
     </row>
@@ -7039,7 +7041,7 @@
         <v>322</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H55" s="28"/>
     </row>
@@ -7111,7 +7113,7 @@
         <v>322</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H59" s="37"/>
     </row>
@@ -7165,7 +7167,7 @@
         <v>322</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H62" s="37"/>
     </row>
@@ -7183,7 +7185,7 @@
         <v>322</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="H63" s="37"/>
     </row>
@@ -7219,7 +7221,7 @@
         <v>322</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="H65" s="37"/>
     </row>
@@ -7272,9 +7274,7 @@
       <c r="F68" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>2</v>
-      </c>
+      <c r="G68" s="9"/>
       <c r="H68" s="37"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="22200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="7-12-2021" sheetId="19" r:id="rId3"/>
     <sheet name="13-12-21" sheetId="20" r:id="rId4"/>
     <sheet name="22-12-21" sheetId="22" r:id="rId5"/>
-    <sheet name="Int. Prep" sheetId="21" r:id="rId6"/>
+    <sheet name="1-1-2022" sheetId="23" r:id="rId6"/>
+    <sheet name="Int. Prep" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="412">
   <si>
     <t>SNO</t>
   </si>
@@ -1095,33 +1096,9 @@
     <t>NOV</t>
   </si>
   <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
     <t>JAN</t>
   </si>
   <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>CHITS</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>DPT</t>
-  </si>
-  <si>
-    <t>SCHOOL FEES</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
     <t>KUBEADM PROCESS FAILED. NEED TO LEARN FROM DOCKERHINT YT CHANNEL</t>
   </si>
   <si>
@@ -1219,6 +1196,66 @@
   </si>
   <si>
     <t>UDEMY-K8S HANDS-ON, PROMETHEUS FROM AWS</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>PREPARE</t>
+  </si>
+  <si>
+    <t>PREPARE &amp; INTERVIEW</t>
+  </si>
+  <si>
+    <t>INTERVIEW &amp; JOB</t>
+  </si>
+  <si>
+    <t>RELEASE &amp; NEW JOB</t>
+  </si>
+  <si>
+    <t>SAVE FOR NIHANT &amp; NIHIRA FD</t>
+  </si>
+  <si>
+    <t>SAVE FOR PARVATAGIRI PLOT SHOPS CONST.</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>AS OF NOW, I KNOW THE CONCEPTS, I KNOW THE PROJECT FLOW. IF THERE ARE ANY COURSES LEFT, I WILL LOOK LATER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLECT THE INTERVIEW QUESTIONS AND KEEP IT AS REFERENCE. DO NOT LEARN ONLY THEM. MY STUDY SHOULD INVOLVE THOSE QUESTIONS AS WELL. </t>
+  </si>
+  <si>
+    <t>COLLECT ALL QUESTIONS, LISTEN TO INTERVIEWS AND PREPARE PROCESS. PREPARE RESUME AS WELL.</t>
+  </si>
+  <si>
+    <t>NEED TO LEARN</t>
+  </si>
+  <si>
+    <t>GIT COMMANDS</t>
+  </si>
+  <si>
+    <t>DOCKER COMMANDS</t>
+  </si>
+  <si>
+    <t>K8S COMMANDS</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1362,11 +1399,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,6 +1522,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,13 +1936,10 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" t="s">
-        <v>361</v>
+        <v>404</v>
+      </c>
+      <c r="M1" s="11">
+        <v>2022</v>
       </c>
       <c r="S1" t="s">
         <v>148</v>
@@ -1927,10 +1983,10 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M2">
-        <v>45827</v>
+        <v>358</v>
+      </c>
+      <c r="M2" t="s">
+        <v>398</v>
       </c>
       <c r="S2" s="10">
         <v>44302</v>
@@ -1977,10 +2033,10 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>355</v>
-      </c>
-      <c r="M3">
-        <v>98875</v>
+        <v>392</v>
+      </c>
+      <c r="M3" t="s">
+        <v>399</v>
       </c>
       <c r="S3" s="10">
         <v>44366</v>
@@ -2027,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4">
-        <v>98875</v>
+        <v>393</v>
+      </c>
+      <c r="M4" t="s">
+        <v>400</v>
       </c>
       <c r="S4" s="10">
         <v>44411</v>
@@ -2082,10 +2138,10 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>357</v>
-      </c>
-      <c r="M5">
-        <v>83622</v>
+        <v>394</v>
+      </c>
+      <c r="M5" t="s">
+        <v>400</v>
       </c>
       <c r="S5" s="10">
         <v>44443</v>
@@ -2126,10 +2182,10 @@
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6">
-        <v>78380</v>
+        <v>395</v>
+      </c>
+      <c r="M6" t="s">
+        <v>401</v>
       </c>
       <c r="S6" s="10">
         <v>44492</v>
@@ -2179,7 +2235,10 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>396</v>
+      </c>
+      <c r="M7" t="s">
+        <v>401</v>
       </c>
       <c r="S7" s="10">
         <v>44531</v>
@@ -2222,6 +2281,12 @@
       <c r="J8">
         <v>37</v>
       </c>
+      <c r="L8" t="s">
+        <v>397</v>
+      </c>
+      <c r="M8" t="s">
+        <v>402</v>
+      </c>
       <c r="S8" t="s">
         <v>149</v>
       </c>
@@ -2259,6 +2324,12 @@
       <c r="J9">
         <v>38</v>
       </c>
+      <c r="L9" t="s">
+        <v>354</v>
+      </c>
+      <c r="M9" t="s">
+        <v>402</v>
+      </c>
       <c r="W9" t="s">
         <v>256</v>
       </c>
@@ -2288,9 +2359,11 @@
       <c r="J10">
         <v>39</v>
       </c>
-      <c r="M10">
-        <f>SUM(M2:M9)</f>
-        <v>405579</v>
+      <c r="L10" t="s">
+        <v>355</v>
+      </c>
+      <c r="M10" t="s">
+        <v>403</v>
       </c>
       <c r="W10" t="s">
         <v>257</v>
@@ -2312,6 +2385,12 @@
       <c r="J11">
         <v>40</v>
       </c>
+      <c r="L11" t="s">
+        <v>356</v>
+      </c>
+      <c r="M11" t="s">
+        <v>403</v>
+      </c>
       <c r="W11" t="s">
         <v>258</v>
       </c>
@@ -2336,13 +2415,10 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>354</v>
-      </c>
-      <c r="M12">
-        <v>9900</v>
-      </c>
-      <c r="N12" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="M12" t="s">
+        <v>403</v>
       </c>
       <c r="W12" t="s">
         <v>259</v>
@@ -2367,11 +2443,11 @@
       <c r="J13">
         <v>42</v>
       </c>
-      <c r="M13">
-        <v>3000</v>
-      </c>
-      <c r="N13" t="s">
-        <v>363</v>
+      <c r="L13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s">
+        <v>403</v>
       </c>
       <c r="W13" t="s">
         <v>260</v>
@@ -2396,12 +2472,6 @@
       <c r="J14">
         <v>43</v>
       </c>
-      <c r="M14">
-        <v>6000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>364</v>
-      </c>
       <c r="W14" t="s">
         <v>261</v>
       </c>
@@ -2425,12 +2495,6 @@
       <c r="J15">
         <v>44</v>
       </c>
-      <c r="M15">
-        <v>18000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>365</v>
-      </c>
       <c r="W15" t="s">
         <v>262</v>
       </c>
@@ -2454,10 +2518,6 @@
       <c r="J16">
         <v>45</v>
       </c>
-      <c r="M16">
-        <f>SUM(M12:M15)</f>
-        <v>36900</v>
-      </c>
       <c r="W16" t="s">
         <v>263</v>
       </c>
@@ -2492,9 +2552,6 @@
       <c r="J17">
         <v>46</v>
       </c>
-      <c r="L17" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
@@ -2512,9 +2569,6 @@
       <c r="J18">
         <v>47</v>
       </c>
-      <c r="M18">
-        <v>10250</v>
-      </c>
       <c r="X18">
         <f>SUM(X1:X17)</f>
         <v>3904000</v>
@@ -2543,9 +2597,6 @@
       <c r="J19">
         <v>48</v>
       </c>
-      <c r="M19">
-        <v>3000</v>
-      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2565,12 +2616,6 @@
       </c>
       <c r="J20">
         <v>49</v>
-      </c>
-      <c r="M20">
-        <v>76000</v>
-      </c>
-      <c r="N20" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2604,9 +2649,6 @@
       <c r="J22">
         <v>51</v>
       </c>
-      <c r="L22" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -2624,9 +2666,6 @@
       <c r="J23">
         <v>52</v>
       </c>
-      <c r="M23">
-        <v>10500</v>
-      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G24">
@@ -2640,38 +2679,12 @@
       </c>
       <c r="J24">
         <v>53</v>
-      </c>
-      <c r="M24">
-        <v>50000</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C17:C24)</f>
         <v>164290.59</v>
-      </c>
-      <c r="M25">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M34">
-        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -5807,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6125,7 +6138,7 @@
       <c r="A19" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="26">
@@ -6271,7 +6284,7 @@
       <c r="A25" s="9">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="29">
@@ -6426,7 +6439,7 @@
         <v>325</v>
       </c>
       <c r="H30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="S30" s="24"/>
       <c r="T30">
@@ -6445,7 +6458,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="S31" s="24"/>
       <c r="T31">
@@ -6469,25 +6482,25 @@
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="21" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="S32" s="24"/>
       <c r="T32">
@@ -6509,7 +6522,7 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H33" t="s">
         <v>323</v>
@@ -6542,7 +6555,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="S34" s="24"/>
       <c r="T34">
@@ -6564,11 +6577,11 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H35" s="1"/>
       <c r="N35" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="S35" s="24"/>
       <c r="T35">
@@ -6599,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="S36" s="24"/>
       <c r="T36">
@@ -6627,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="S37" s="24"/>
       <c r="T37">
@@ -6658,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="Q38" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="S38" s="24"/>
       <c r="T38">
@@ -6686,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="Q39" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="S39" s="24"/>
       <c r="T39">
@@ -6708,13 +6721,13 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P40" s="1">
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="S40" s="24"/>
       <c r="T40">
@@ -6736,13 +6749,13 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P41" s="1">
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="S41" s="24"/>
       <c r="T41">
@@ -6770,7 +6783,7 @@
         <v>7</v>
       </c>
       <c r="Q42" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="S42" s="24"/>
       <c r="T42">
@@ -6798,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="Q43" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="S43" s="24"/>
       <c r="T43">
@@ -6826,7 +6839,7 @@
         <v>9</v>
       </c>
       <c r="Q44" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="S44" s="24"/>
       <c r="T44">
@@ -6839,7 +6852,7 @@
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="23" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -6848,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="S45" s="24"/>
       <c r="T45">
@@ -6881,7 +6894,7 @@
         <v>11</v>
       </c>
       <c r="Q46" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="T46">
         <v>22</v>
@@ -6955,7 +6968,7 @@
         <v>322</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -6972,7 +6985,7 @@
         <v>322</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
@@ -6989,7 +7002,7 @@
         <v>322</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -7023,7 +7036,7 @@
         <v>322</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H54" s="28"/>
     </row>
@@ -7041,7 +7054,7 @@
         <v>322</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H55" s="28"/>
     </row>
@@ -7059,7 +7072,7 @@
         <v>322</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H56" s="37"/>
     </row>
@@ -7077,7 +7090,7 @@
         <v>322</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H57" s="37"/>
     </row>
@@ -7095,7 +7108,7 @@
         <v>322</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H58" s="37"/>
     </row>
@@ -7113,7 +7126,7 @@
         <v>322</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H59" s="37"/>
     </row>
@@ -7131,7 +7144,7 @@
         <v>322</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H60" s="37"/>
     </row>
@@ -7149,7 +7162,7 @@
         <v>322</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H61" s="37"/>
     </row>
@@ -7167,7 +7180,7 @@
         <v>322</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H62" s="37"/>
     </row>
@@ -7398,6 +7411,1476 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="26">
+        <v>63</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44537</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="26">
+        <v>62</v>
+      </c>
+      <c r="D11" s="20">
+        <v>44538</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="26">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20">
+        <v>44539</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="26">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20">
+        <v>44540</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="26">
+        <v>59</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44541</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="27">
+        <v>58</v>
+      </c>
+      <c r="D15" s="18">
+        <v>44542</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="27">
+        <v>57</v>
+      </c>
+      <c r="D16" s="18">
+        <v>44543</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="26">
+        <v>56</v>
+      </c>
+      <c r="D17" s="20">
+        <v>44544</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="26">
+        <v>55</v>
+      </c>
+      <c r="D18" s="20">
+        <v>44545</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="26">
+        <v>54</v>
+      </c>
+      <c r="D19" s="20">
+        <v>44546</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="26">
+        <v>53</v>
+      </c>
+      <c r="D20" s="20">
+        <v>44547</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="27">
+        <v>52</v>
+      </c>
+      <c r="D21" s="18">
+        <v>44548</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="27">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18">
+        <v>44549</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="27">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18">
+        <v>44550</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="26">
+        <v>49</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44551</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="29">
+        <v>48</v>
+      </c>
+      <c r="D25" s="30">
+        <v>44552</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="26">
+        <v>47</v>
+      </c>
+      <c r="D26" s="20">
+        <v>44553</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="26">
+        <v>46</v>
+      </c>
+      <c r="D27" s="20">
+        <v>44554</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="26">
+        <v>45</v>
+      </c>
+      <c r="D28" s="20">
+        <v>44555</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="26">
+        <v>44</v>
+      </c>
+      <c r="D29" s="20">
+        <v>44556</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>21</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="26">
+        <v>43</v>
+      </c>
+      <c r="D30" s="20">
+        <v>44557</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="H30" t="s">
+        <v>359</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" t="s">
+        <v>360</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="26">
+        <v>42</v>
+      </c>
+      <c r="D32" s="20">
+        <v>44558</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="26">
+        <v>41</v>
+      </c>
+      <c r="D33" s="20">
+        <v>44559</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H33" t="s">
+        <v>323</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="S33" s="24"/>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="26">
+        <v>40</v>
+      </c>
+      <c r="D34" s="20">
+        <v>44560</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="N34" t="s">
+        <v>361</v>
+      </c>
+      <c r="S34" s="24"/>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="26">
+        <v>39</v>
+      </c>
+      <c r="D35" s="20">
+        <v>44561</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="N35" t="s">
+        <v>362</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="27">
+        <v>38</v>
+      </c>
+      <c r="D36" s="18">
+        <v>44562</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" t="s">
+        <v>405</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="13">
+        <v>44563</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" t="s">
+        <v>406</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13">
+        <v>44564</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="39"/>
+      <c r="P38" s="1"/>
+      <c r="S38" s="24"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>35</v>
+      </c>
+      <c r="D39" s="13">
+        <v>44565</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="39"/>
+      <c r="L39" t="s">
+        <v>408</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="S39" s="24"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>34</v>
+      </c>
+      <c r="D40" s="13">
+        <v>44566</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="39"/>
+      <c r="L40" t="s">
+        <v>409</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="S40" s="24"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>33</v>
+      </c>
+      <c r="D41" s="13">
+        <v>44567</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="39"/>
+      <c r="L41" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="S41" s="24"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>32</v>
+      </c>
+      <c r="D42" s="13">
+        <v>44568</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="39"/>
+      <c r="L42" t="s">
+        <v>411</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="S42" s="24"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>31</v>
+      </c>
+      <c r="D43" s="13">
+        <v>44569</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="39"/>
+      <c r="P43" s="1"/>
+      <c r="S43" s="24"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>30</v>
+      </c>
+      <c r="D44" s="13">
+        <v>44570</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="40"/>
+      <c r="P44" s="1"/>
+      <c r="S44" s="24"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="P45" s="1"/>
+      <c r="S45" s="24"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>29</v>
+      </c>
+      <c r="D46" s="13">
+        <v>44571</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>28</v>
+      </c>
+      <c r="D47" s="13">
+        <v>44572</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>27</v>
+      </c>
+      <c r="D48" s="13">
+        <v>44573</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>26</v>
+      </c>
+      <c r="D49" s="13">
+        <v>44574</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>25</v>
+      </c>
+      <c r="D50" s="13">
+        <v>44575</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>24</v>
+      </c>
+      <c r="D51" s="13">
+        <v>44576</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>23</v>
+      </c>
+      <c r="D52" s="13">
+        <v>44577</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" s="13">
+        <v>44578</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>21</v>
+      </c>
+      <c r="D54" s="13">
+        <v>44579</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <v>20</v>
+      </c>
+      <c r="D55" s="13">
+        <v>44580</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>19</v>
+      </c>
+      <c r="D56" s="13">
+        <v>44581</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" s="37"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>18</v>
+      </c>
+      <c r="D57" s="13">
+        <v>44582</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H57" s="37"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <v>17</v>
+      </c>
+      <c r="D58" s="13">
+        <v>44583</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <v>16</v>
+      </c>
+      <c r="D59" s="13">
+        <v>44584</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>15</v>
+      </c>
+      <c r="D60" s="13">
+        <v>44585</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" s="13">
+        <v>44586</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" s="13">
+        <v>44587</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>12</v>
+      </c>
+      <c r="D63" s="13">
+        <v>44588</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" s="37"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>11</v>
+      </c>
+      <c r="D64" s="13">
+        <v>44589</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="37"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="13">
+        <v>44590</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>9</v>
+      </c>
+      <c r="D66" s="13">
+        <v>44591</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>8</v>
+      </c>
+      <c r="D67" s="13">
+        <v>44592</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="37"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+      <c r="D68" s="13">
+        <v>44593</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="37"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>6</v>
+      </c>
+      <c r="D69" s="13">
+        <v>44594</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="37"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13">
+        <v>44595</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>4</v>
+      </c>
+      <c r="D71" s="13">
+        <v>44596</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="13">
+        <v>44597</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="13">
+        <v>44598</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="13">
+        <v>44599</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G37:G44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22200" windowWidth="28800" windowHeight="12420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="22800" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
     <sheet name="CLOUD SERVICES" sheetId="3" r:id="rId2"/>
-    <sheet name="7-12-2021" sheetId="19" r:id="rId3"/>
-    <sheet name="13-12-21" sheetId="20" r:id="rId4"/>
-    <sheet name="22-12-21" sheetId="22" r:id="rId5"/>
-    <sheet name="1-1-2022" sheetId="23" r:id="rId6"/>
-    <sheet name="Int. Prep" sheetId="21" r:id="rId7"/>
+    <sheet name="13-12-21" sheetId="20" r:id="rId3"/>
+    <sheet name="22-12-21" sheetId="22" r:id="rId4"/>
+    <sheet name="1-1-2022" sheetId="23" r:id="rId5"/>
+    <sheet name="Int. Prep" sheetId="21" r:id="rId6"/>
+    <sheet name="3-1-22" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="425">
   <si>
     <t>SNO</t>
   </si>
@@ -514,9 +514,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>TIMINGS</t>
-  </si>
-  <si>
     <t>MAVEN</t>
   </si>
   <si>
@@ -529,27 +526,6 @@
     <t>SONARQUBE</t>
   </si>
   <si>
-    <t>STUDY</t>
-  </si>
-  <si>
-    <t>SLEEP</t>
-  </si>
-  <si>
-    <t>9:30/10:00</t>
-  </si>
-  <si>
-    <t>KIDS READY</t>
-  </si>
-  <si>
-    <t>STUDY IN JOB</t>
-  </si>
-  <si>
-    <t>JOB</t>
-  </si>
-  <si>
-    <t>BEST PRACTICES</t>
-  </si>
-  <si>
     <t>NO CHANGING OF PLAN ANY FURTHER.</t>
   </si>
   <si>
@@ -604,21 +580,12 @@
     <t>DPT VIDEOS 5, 6, 7 - AWS</t>
   </si>
   <si>
-    <t>DPT VIDEOS 16, 17, 18, 19 - TERRAFORM</t>
-  </si>
-  <si>
     <t>UDEMY - TERRAFORM-KD1</t>
   </si>
   <si>
-    <t>UDEMY - TERRAFORM-KD2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DONE ALL 4 VIDEOS ALONG WITH REVISION COMPLETED. </t>
   </si>
   <si>
-    <t>DPT VIDEOS 20, 21, DCC-GIT &amp; GIT HUB</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 25, 26, DCC-ARTIFACTORY, SONARQUBE</t>
   </si>
   <si>
@@ -727,18 +694,9 @@
     <t>AWS IWAYQ, AWS SYS-OPS</t>
   </si>
   <si>
-    <t>IT-BASH &amp; PYTHON</t>
-  </si>
-  <si>
     <t>DPT VIDEOS 22, 23, 24, DCC-MAVEN, IWAYQ-3T-PROJ</t>
   </si>
   <si>
-    <t>AWS SAA/SYS-OPS PPT READ</t>
-  </si>
-  <si>
-    <t>AWS IWAYQ ALL VIDEOS PRACTICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">GONE THROUGH PREVIOUS DAYS TOPICS. </t>
   </si>
   <si>
@@ -1243,9 +1201,6 @@
     <t xml:space="preserve">COLLECT THE INTERVIEW QUESTIONS AND KEEP IT AS REFERENCE. DO NOT LEARN ONLY THEM. MY STUDY SHOULD INVOLVE THOSE QUESTIONS AS WELL. </t>
   </si>
   <si>
-    <t>COLLECT ALL QUESTIONS, LISTEN TO INTERVIEWS AND PREPARE PROCESS. PREPARE RESUME AS WELL.</t>
-  </si>
-  <si>
     <t>NEED TO LEARN</t>
   </si>
   <si>
@@ -1256,13 +1211,97 @@
   </si>
   <si>
     <t>K8S COMMANDS</t>
+  </si>
+  <si>
+    <t>AWS 3 TIER ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>THE NEW TOOLS</t>
+  </si>
+  <si>
+    <t>K8S - KARPENTER</t>
+  </si>
+  <si>
+    <t>OPENSHIFT</t>
+  </si>
+  <si>
+    <t>Container Trends 2021 - YouTube</t>
+  </si>
+  <si>
+    <t>GITLAB AS JENKINS REPLACEMENT</t>
+  </si>
+  <si>
+    <t>RUNTIME ENGINES - DOCKERD, CONTAINERD</t>
+  </si>
+  <si>
+    <t>FLUX, ARGO (GITOPS TOOLS)</t>
+  </si>
+  <si>
+    <t>COLLECT ALL QUESTIONS, LISTEN TO INTERVIEWS AND</t>
+  </si>
+  <si>
+    <t>START PREPARING FOR INTERVIEWS, AS OF NOW COMPETITION IS VERY HIGH, AND I SEE THAT JOBS ARE VERY LESS. SO NEED TO BE HIGHLY SKILLED IN ALL THE TOOLS</t>
+  </si>
+  <si>
+    <t>LINUX</t>
+  </si>
+  <si>
+    <t>APACHE HTTP WEB SERVER</t>
+  </si>
+  <si>
+    <t>APACHE TOMCAT &amp; NGINX</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM PROJECT</t>
+  </si>
+  <si>
+    <t>GIT, GIT HUB, BIT BUCKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAVEN </t>
+  </si>
+  <si>
+    <t>MICROSERVICES</t>
+  </si>
+  <si>
+    <t>GIT PROJECTS</t>
+  </si>
+  <si>
+    <t>PACKER AMI PROJECT</t>
+  </si>
+  <si>
+    <t>DPT DEVOPS PROJECT</t>
+  </si>
+  <si>
+    <t>EKS PROJECT</t>
+  </si>
+  <si>
+    <t>DEVOPS RESPONSIBILITIES VIDEO</t>
+  </si>
+  <si>
+    <t>DOCKER SWARM</t>
+  </si>
+  <si>
+    <t>MICROSERVICES/CONTAINERS</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>KUBERNETES/HELM</t>
+  </si>
+  <si>
+    <t>INTERVIEW PREPERATION/AWS SERVERLESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1320,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1330,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1357,32 +1404,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1399,24 +1420,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,22 +1456,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,7 +1477,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,20 +1517,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1896,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,11 +1913,8 @@
       <c r="A1" t="s">
         <v>159</v>
       </c>
-      <c r="B1">
-        <v>1552.72</v>
-      </c>
       <c r="C1">
-        <v>53951.72</v>
+        <v>146483.72</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1926,7 +1922,7 @@
       <c r="G1">
         <v>7</v>
       </c>
-      <c r="H1" s="33">
+      <c r="H1" s="29">
         <v>44623</v>
       </c>
       <c r="I1">
@@ -1936,7 +1932,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M1" s="11">
         <v>2022</v>
@@ -1951,7 +1947,7 @@
         <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="X1">
         <v>100000</v>
@@ -1961,11 +1957,8 @@
       <c r="A2" t="s">
         <v>160</v>
       </c>
-      <c r="B2">
-        <v>33144.870000000003</v>
-      </c>
       <c r="C2">
-        <v>25838.87</v>
+        <v>10067.870000000001</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1973,7 +1966,7 @@
       <c r="G2">
         <v>8</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="29">
         <v>44988</v>
       </c>
       <c r="I2">
@@ -1983,10 +1976,10 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="S2" s="10">
         <v>44302</v>
@@ -1998,7 +1991,7 @@
         <v>6000</v>
       </c>
       <c r="W2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="X2">
         <v>368000</v>
@@ -2014,16 +2007,13 @@
       <c r="A3" t="s">
         <v>161</v>
       </c>
-      <c r="B3">
-        <v>78380</v>
-      </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="29">
         <v>45354</v>
       </c>
       <c r="I3">
@@ -2033,10 +2023,10 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="M3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="S3" s="10">
         <v>44366</v>
@@ -2048,7 +2038,7 @@
         <v>5000</v>
       </c>
       <c r="W3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="X3">
         <v>200000</v>
@@ -2064,8 +2054,8 @@
       <c r="A4" t="s">
         <v>162</v>
       </c>
-      <c r="B4">
-        <v>480</v>
+      <c r="C4">
+        <v>460</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2073,7 +2063,7 @@
       <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <v>45719</v>
       </c>
       <c r="I4">
@@ -2083,10 +2073,10 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="S4" s="10">
         <v>44411</v>
@@ -2098,7 +2088,7 @@
         <v>9000</v>
       </c>
       <c r="W4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="X4">
         <v>280000</v>
@@ -2114,13 +2104,9 @@
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5">
-        <f>SUM(B1:B4)</f>
-        <v>113557.59</v>
-      </c>
       <c r="C5">
         <f>SUM(C1:C4)</f>
-        <v>79790.59</v>
+        <v>157011.59</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -2128,7 +2114,7 @@
       <c r="G5">
         <v>11</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="29">
         <v>46084</v>
       </c>
       <c r="I5">
@@ -2138,10 +2124,10 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="M5" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="S5" s="10">
         <v>44443</v>
@@ -2153,7 +2139,7 @@
         <v>4000</v>
       </c>
       <c r="W5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="X5">
         <v>468000</v>
@@ -2172,7 +2158,7 @@
       <c r="G6">
         <v>12</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="29">
         <v>46449</v>
       </c>
       <c r="I6">
@@ -2182,10 +2168,10 @@
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M6" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="S6" s="10">
         <v>44492</v>
@@ -2197,7 +2183,7 @@
         <v>5000</v>
       </c>
       <c r="W6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="X6">
         <v>68000</v>
@@ -2213,9 +2199,6 @@
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
       <c r="C7">
         <v>3000</v>
       </c>
@@ -2225,7 +2208,7 @@
       <c r="G7">
         <v>13</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="29">
         <v>46815</v>
       </c>
       <c r="I7">
@@ -2235,10 +2218,10 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="M7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="S7" s="10">
         <v>44531</v>
@@ -2250,7 +2233,7 @@
         <v>10900</v>
       </c>
       <c r="W7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="X7">
         <v>400000</v>
@@ -2260,11 +2243,8 @@
       <c r="A8" t="s">
         <v>146</v>
       </c>
-      <c r="B8">
-        <v>11000</v>
-      </c>
       <c r="C8">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2272,7 +2252,7 @@
       <c r="G8">
         <v>14</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="29">
         <v>47180</v>
       </c>
       <c r="I8">
@@ -2282,10 +2262,10 @@
         <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="S8" t="s">
         <v>149</v>
@@ -2299,23 +2279,20 @@
         <v>39900</v>
       </c>
       <c r="W8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
-      <c r="B9">
-        <v>21800</v>
-      </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>47545</v>
       </c>
       <c r="I9">
@@ -2325,13 +2302,13 @@
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M9" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="W9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="X9">
         <v>350000</v>
@@ -2341,8 +2318,8 @@
       <c r="A10" t="s">
         <v>145</v>
       </c>
-      <c r="B10">
-        <v>5606</v>
+      <c r="C10">
+        <v>5600</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -2350,7 +2327,7 @@
       <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="29">
         <v>47910</v>
       </c>
       <c r="I10">
@@ -2360,23 +2337,27 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M10" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="W10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C7:C10)</f>
+        <v>19850</v>
+      </c>
       <c r="F11">
         <v>12</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="29">
         <v>48276</v>
       </c>
       <c r="I11">
@@ -2386,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M11" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="W11" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="X11">
         <v>270000</v>
@@ -2400,12 +2381,12 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G12">
         <v>18</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="29">
         <v>48641</v>
       </c>
       <c r="I12">
@@ -2415,13 +2396,13 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="M12" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="W12" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="X12">
         <v>120000</v>
@@ -2429,12 +2410,12 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G13">
         <v>19</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="29">
         <v>49006</v>
       </c>
       <c r="I13">
@@ -2447,10 +2428,10 @@
         <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="W13" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="X13">
         <v>500000</v>
@@ -2458,12 +2439,12 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="29">
         <v>49371</v>
       </c>
       <c r="I14">
@@ -2473,7 +2454,7 @@
         <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="X14">
         <v>80000</v>
@@ -2481,12 +2462,12 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G15">
         <v>21</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="29">
         <v>49737</v>
       </c>
       <c r="I15">
@@ -2496,7 +2477,7 @@
         <v>44</v>
       </c>
       <c r="W15" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="X15">
         <v>550000</v>
@@ -2504,12 +2485,12 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G16">
         <v>22</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="29">
         <v>50102</v>
       </c>
       <c r="I16">
@@ -2519,7 +2500,7 @@
         <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="X16">
         <v>150000</v>
@@ -2529,21 +2510,17 @@
       <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="B17">
-        <f>SUM(B7:B16)</f>
-        <v>41406</v>
-      </c>
       <c r="C17">
-        <f>(C5-(C7+C8))</f>
-        <v>65790.59</v>
+        <f>(C5-C11)</f>
+        <v>137161.59</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G17">
         <v>23</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="29">
         <v>50467</v>
       </c>
       <c r="I17">
@@ -2555,12 +2532,12 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G18">
         <v>24</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="29">
         <v>50832</v>
       </c>
       <c r="I18">
@@ -2578,17 +2555,13 @@
       <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="B19">
-        <f>(B5-B17)</f>
-        <v>72151.59</v>
-      </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="29">
         <v>51198</v>
       </c>
       <c r="I19">
@@ -2602,13 +2575,10 @@
       <c r="A20" t="s">
         <v>163</v>
       </c>
-      <c r="B20">
-        <v>98500</v>
-      </c>
       <c r="G20">
         <v>26</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="29">
         <v>51563</v>
       </c>
       <c r="I20">
@@ -2619,14 +2589,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>SUM(B19:B20)</f>
-        <v>170651.59</v>
-      </c>
       <c r="G21">
         <v>27</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="29">
         <v>51928</v>
       </c>
       <c r="I21">
@@ -2640,7 +2606,7 @@
       <c r="G22">
         <v>28</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="29">
         <v>52293</v>
       </c>
       <c r="I22">
@@ -2651,13 +2617,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>98500</v>
-      </c>
       <c r="G23">
         <v>29</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="29">
         <v>52659</v>
       </c>
       <c r="I23">
@@ -2671,7 +2634,7 @@
       <c r="G24">
         <v>30</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="29">
         <v>53024</v>
       </c>
       <c r="I24">
@@ -2679,12 +2642,6 @@
       </c>
       <c r="J24">
         <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f>SUM(C17:C24)</f>
-        <v>164290.59</v>
       </c>
     </row>
   </sheetData>
@@ -3564,925 +3521,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="16">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P2" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0.6875</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O8" s="16">
-        <v>0.6875</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="P9" s="16">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>44537</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>44538</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>44539</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>44540</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>44541</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>44542</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>44543</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" t="s">
-        <v>239</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>44544</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>44545</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>44546</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>44547</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>44548</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>44549</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>44550</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>44551</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>44552</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>44553</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>44554</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>44555</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>44556</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>44557</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>44558</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>44559</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>44560</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>44561</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>44562</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>44563</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>44564</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>44565</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>44566</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>44567</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>44568</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>44569</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>44570</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>44571</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44572</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>44573</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>44574</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>44575</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>44576</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>44577</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>44578</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>44579</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>44580</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>44581</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>44582</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>44583</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>44584</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>44585</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>44586</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>44587</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>44588</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>44589</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>44590</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>44591</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>44592</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>44593</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>44594</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>44595</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>44596</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>44597</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>44598</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>44599</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -4499,86 +3537,86 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>244</v>
+        <v>173</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>245</v>
+        <v>182</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4586,375 +3624,375 @@
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="22">
         <v>63</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>44537</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>189</v>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B11" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="22">
         <v>62</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>44538</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>192</v>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="22">
         <v>61</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>44539</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>193</v>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>60</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>44540</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>231</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="22">
         <v>59</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>44541</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>232</v>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="B15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="23">
         <v>58</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>44542</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>234</v>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="23">
         <v>57</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>44543</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>242</v>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="22">
         <v>56</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>44544</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23" t="s">
-        <v>246</v>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="22">
         <v>55</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>44545</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>247</v>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="22">
         <v>54</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>44546</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
-        <v>195</v>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>53</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>44547</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25" t="s">
-        <v>280</v>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>12</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="23">
         <v>52</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>44548</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19" t="s">
-        <v>283</v>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>13</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="23">
         <v>51</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>44549</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>222</v>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="B23" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="23">
         <v>50</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>44550</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>288</v>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="22">
         <v>49</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>44551</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>317</v>
+      <c r="F24" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="2">
         <v>48</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>44552</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -4962,23 +4000,23 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>295</v>
+      <c r="B26" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="C26" s="2">
         <v>47</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>44553</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -4986,41 +4024,41 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>18</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>277</v>
+      <c r="B27" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="C27" s="2">
         <v>46</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>44554</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="14" t="s">
-        <v>199</v>
+      <c r="G27" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>19</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>278</v>
+      <c r="B28" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C28" s="2">
         <v>45</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>44555</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -5028,23 +4066,23 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>20</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="2">
         <v>44</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>44556</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -5052,26 +4090,26 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P29" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>21</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>279</v>
+      <c r="B30" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="C30" s="2">
         <v>43</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>44557</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -5079,18 +4117,18 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="P30" t="s">
-        <v>299</v>
-      </c>
-      <c r="S30" s="24"/>
+        <v>285</v>
+      </c>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>42</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>44558</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -5098,18 +4136,18 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P31" t="s">
-        <v>312</v>
-      </c>
-      <c r="S31" s="24"/>
+        <v>298</v>
+      </c>
+      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>41</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>44559</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -5117,272 +4155,272 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="P32" t="s">
-        <v>313</v>
-      </c>
-      <c r="S32" s="24"/>
+        <v>299</v>
+      </c>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>40</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>44560</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="14" t="s">
-        <v>203</v>
+      <c r="G33" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="P33" t="s">
-        <v>306</v>
-      </c>
-      <c r="S33" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>39</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>44561</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="14" t="s">
-        <v>204</v>
+      <c r="G34" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="P34" t="s">
-        <v>300</v>
-      </c>
-      <c r="S34" s="24"/>
+        <v>286</v>
+      </c>
+      <c r="S34" s="20"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>38</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>44562</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="14" t="s">
-        <v>204</v>
+      <c r="G35" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="P35" t="s">
-        <v>301</v>
-      </c>
-      <c r="S35" s="24"/>
+        <v>287</v>
+      </c>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>37</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>44563</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="14" t="s">
-        <v>206</v>
+      <c r="G36" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="P36" t="s">
-        <v>302</v>
-      </c>
-      <c r="S36" s="24"/>
+        <v>288</v>
+      </c>
+      <c r="S36" s="20"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>44564</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="14" t="s">
-        <v>207</v>
+      <c r="G37" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="P37" t="s">
-        <v>304</v>
-      </c>
-      <c r="S37" s="24"/>
+        <v>290</v>
+      </c>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>35</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>44565</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="14" t="s">
-        <v>208</v>
+      <c r="G38" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="P38" t="s">
-        <v>303</v>
-      </c>
-      <c r="S38" s="24"/>
+        <v>289</v>
+      </c>
+      <c r="S38" s="20"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>34</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>44566</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="14" t="s">
-        <v>208</v>
+      <c r="G39" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="P39" t="s">
-        <v>305</v>
-      </c>
-      <c r="S39" s="24"/>
+        <v>291</v>
+      </c>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>33</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>44567</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="14" t="s">
-        <v>208</v>
+      <c r="G40" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="P40" t="s">
-        <v>307</v>
-      </c>
-      <c r="S40" s="24"/>
+        <v>293</v>
+      </c>
+      <c r="S40" s="20"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <v>32</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>44568</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="14" t="s">
-        <v>208</v>
+      <c r="G41" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="P41" t="s">
-        <v>308</v>
-      </c>
-      <c r="S41" s="24"/>
+        <v>294</v>
+      </c>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <v>31</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>44569</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="14" t="s">
-        <v>209</v>
+      <c r="G42" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="P42" t="s">
-        <v>309</v>
-      </c>
-      <c r="S42" s="24"/>
+        <v>295</v>
+      </c>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <v>30</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>44570</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="14" t="s">
-        <v>215</v>
+      <c r="G43" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="P43" t="s">
-        <v>310</v>
-      </c>
-      <c r="S43" s="24"/>
+        <v>296</v>
+      </c>
+      <c r="S43" s="20"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <v>29</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>44571</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="14" t="s">
-        <v>215</v>
+      <c r="G44" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="P44" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <v>28</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>44572</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="14" t="s">
-        <v>215</v>
+      <c r="G45" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <v>27</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>44573</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -5390,17 +4428,17 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <v>26</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>44574</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -5408,17 +4446,17 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P47" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <v>25</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>44575</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -5426,14 +4464,14 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>24</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>44576</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -5441,14 +4479,14 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>23</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>44577</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -5456,14 +4494,14 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>22</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>44578</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -5471,14 +4509,14 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>21</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>44579</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -5486,14 +4524,14 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <v>20</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>44580</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -5501,14 +4539,14 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <v>19</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>44581</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -5516,17 +4554,17 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <v>18</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>44582</v>
       </c>
       <c r="E55" s="9" t="s">
@@ -5534,14 +4572,14 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>17</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>44583</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -5549,17 +4587,17 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>16</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>44584</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -5567,14 +4605,14 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <v>15</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>44585</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -5582,14 +4620,14 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <v>14</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>44586</v>
       </c>
       <c r="E59" s="9" t="s">
@@ -5597,14 +4635,14 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <v>13</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>44587</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -5612,14 +4650,14 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <v>12</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <v>44588</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -5627,14 +4665,14 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <v>11</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>44589</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -5642,14 +4680,14 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <v>10</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>44590</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -5657,14 +4695,14 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <v>9</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>44591</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -5672,17 +4710,17 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H64" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
         <v>8</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>44592</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -5690,17 +4728,17 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H65" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <v>7</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>44593</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -5708,17 +4746,17 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H66" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <v>6</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>44594</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -5726,14 +4764,14 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>5</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>44595</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -5741,14 +4779,14 @@
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
         <v>4</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>44596</v>
       </c>
       <c r="E69" s="9" t="s">
@@ -5756,14 +4794,14 @@
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
         <v>3</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>44597</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -5771,14 +4809,14 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="2">
         <v>2</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>44598</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -5786,14 +4824,14 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="12">
         <v>44599</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -5804,7 +4842,7 @@
         <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5816,12 +4854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,86 +4873,86 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>244</v>
+        <v>173</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>245</v>
+        <v>182</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M8" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5922,386 +4960,386 @@
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="22">
         <v>63</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>44537</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>189</v>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B11" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="22">
         <v>62</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>44538</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>192</v>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="22">
         <v>61</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>44539</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>193</v>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>60</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>44540</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>231</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="22">
         <v>59</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>44541</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>232</v>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="B15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="23">
         <v>58</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>44542</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>234</v>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="23">
         <v>57</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>44543</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>242</v>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="22">
         <v>56</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>44544</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23" t="s">
-        <v>246</v>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="22">
         <v>55</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>44545</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>247</v>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="22">
         <v>54</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>44546</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
-        <v>195</v>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>11</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>53</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>44547</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25" t="s">
-        <v>280</v>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>12</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="23">
         <v>52</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>44548</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19" t="s">
-        <v>283</v>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>13</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="23">
         <v>51</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>44549</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>222</v>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="B23" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="23">
         <v>50</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>44550</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>288</v>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="H23" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="B24" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="22">
         <v>49</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>44551</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>317</v>
+      <c r="F24" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="25">
         <v>48</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="26">
         <v>44552</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
-        <v>319</v>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -6314,21 +5352,21 @@
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="22">
         <v>47</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>44553</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="s">
-        <v>326</v>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -6341,21 +5379,21 @@
       <c r="A27" s="9">
         <v>18</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="22">
         <v>46</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>44554</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="s">
-        <v>352</v>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="T27">
         <v>3</v>
@@ -6368,21 +5406,21 @@
       <c r="A28" s="9">
         <v>19</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="B28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="22">
         <v>45</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <v>44555</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
-        <v>353</v>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -6395,21 +5433,21 @@
       <c r="A29" s="9">
         <v>20</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <v>44</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>44556</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="s">
-        <v>324</v>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -6422,26 +5460,26 @@
       <c r="A30" s="9">
         <v>21</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="26">
+      <c r="B30" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="22">
         <v>43</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="16">
         <v>44557</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21" t="s">
-        <v>325</v>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="H30" t="s">
-        <v>359</v>
-      </c>
-      <c r="S30" s="24"/>
+        <v>345</v>
+      </c>
+      <c r="S30" s="20"/>
       <c r="T30">
         <v>6</v>
       </c>
@@ -6450,17 +5488,17 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" t="s">
-        <v>360</v>
-      </c>
-      <c r="S31" s="24"/>
+        <v>346</v>
+      </c>
+      <c r="S31" s="20"/>
       <c r="T31">
         <v>7</v>
       </c>
@@ -6469,40 +5507,40 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26">
+      <c r="A32" s="28"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22">
         <v>42</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="16">
         <v>44558</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="H32" s="34" t="s">
+      <c r="F32" s="31"/>
+      <c r="G32" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="K32" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="L32" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="S32" s="24"/>
+      <c r="M32" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="S32" s="20"/>
       <c r="T32">
         <v>8</v>
       </c>
@@ -6511,26 +5549,26 @@
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="26">
+      <c r="C33" s="22">
         <v>41</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>44559</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>385</v>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>371</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="S33" s="24"/>
+      <c r="S33" s="20"/>
       <c r="T33">
         <v>9</v>
       </c>
@@ -6539,25 +5577,25 @@
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="26">
+      <c r="C34" s="22">
         <v>40</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="16">
         <v>44560</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21" t="s">
-        <v>217</v>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
-        <v>361</v>
-      </c>
-      <c r="S34" s="24"/>
+        <v>347</v>
+      </c>
+      <c r="S34" s="20"/>
       <c r="T34">
         <v>10</v>
       </c>
@@ -6566,24 +5604,24 @@
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="26">
+      <c r="C35" s="22">
         <v>39</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>44561</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="s">
-        <v>391</v>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="H35" s="1"/>
       <c r="N35" t="s">
-        <v>362</v>
-      </c>
-      <c r="S35" s="24"/>
+        <v>348</v>
+      </c>
+      <c r="S35" s="20"/>
       <c r="T35">
         <v>11</v>
       </c>
@@ -6595,7 +5633,7 @@
       <c r="C36" s="2">
         <v>38</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>44562</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -6603,18 +5641,18 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
         <v>215</v>
-      </c>
-      <c r="H36" t="s">
-        <v>226</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
       </c>
       <c r="Q36" t="s">
-        <v>369</v>
-      </c>
-      <c r="S36" s="24"/>
+        <v>355</v>
+      </c>
+      <c r="S36" s="20"/>
       <c r="T36">
         <v>12</v>
       </c>
@@ -6626,23 +5664,23 @@
       <c r="C37" s="2">
         <v>37</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>44563</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
-        <v>215</v>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="P37" s="1">
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>366</v>
-      </c>
-      <c r="S37" s="24"/>
+        <v>352</v>
+      </c>
+      <c r="S37" s="20"/>
       <c r="T37">
         <v>13</v>
       </c>
@@ -6654,7 +5692,7 @@
       <c r="C38" s="2">
         <v>36</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>44564</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -6662,18 +5700,18 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
         <v>216</v>
-      </c>
-      <c r="H38" t="s">
-        <v>227</v>
       </c>
       <c r="P38" s="1">
         <v>3</v>
       </c>
       <c r="Q38" t="s">
-        <v>367</v>
-      </c>
-      <c r="S38" s="24"/>
+        <v>353</v>
+      </c>
+      <c r="S38" s="20"/>
       <c r="T38">
         <v>14</v>
       </c>
@@ -6685,7 +5723,7 @@
       <c r="C39" s="2">
         <v>35</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>44565</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -6693,15 +5731,15 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P39" s="1">
         <v>4</v>
       </c>
       <c r="Q39" t="s">
-        <v>368</v>
-      </c>
-      <c r="S39" s="24"/>
+        <v>354</v>
+      </c>
+      <c r="S39" s="20"/>
       <c r="T39">
         <v>15</v>
       </c>
@@ -6713,7 +5751,7 @@
       <c r="C40" s="2">
         <v>34</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>44566</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -6721,15 +5759,15 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="P40" s="1">
         <v>5</v>
       </c>
       <c r="Q40" t="s">
-        <v>370</v>
-      </c>
-      <c r="S40" s="24"/>
+        <v>356</v>
+      </c>
+      <c r="S40" s="20"/>
       <c r="T40">
         <v>16</v>
       </c>
@@ -6741,7 +5779,7 @@
       <c r="C41" s="2">
         <v>33</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>44567</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -6749,15 +5787,15 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="P41" s="1">
         <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>371</v>
-      </c>
-      <c r="S41" s="24"/>
+        <v>357</v>
+      </c>
+      <c r="S41" s="20"/>
       <c r="T41">
         <v>17</v>
       </c>
@@ -6769,7 +5807,7 @@
       <c r="C42" s="2">
         <v>32</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>44568</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -6777,15 +5815,15 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="P42" s="1">
         <v>7</v>
       </c>
       <c r="Q42" t="s">
-        <v>372</v>
-      </c>
-      <c r="S42" s="24"/>
+        <v>358</v>
+      </c>
+      <c r="S42" s="20"/>
       <c r="T42">
         <v>18</v>
       </c>
@@ -6797,7 +5835,7 @@
       <c r="C43" s="2">
         <v>31</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>44569</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -6805,15 +5843,15 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="P43" s="1">
         <v>8</v>
       </c>
       <c r="Q43" t="s">
-        <v>373</v>
-      </c>
-      <c r="S43" s="24"/>
+        <v>359</v>
+      </c>
+      <c r="S43" s="20"/>
       <c r="T43">
         <v>19</v>
       </c>
@@ -6825,7 +5863,7 @@
       <c r="C44" s="2">
         <v>30</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>44570</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -6833,15 +5871,15 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="P44" s="1">
         <v>9</v>
       </c>
       <c r="Q44" t="s">
-        <v>374</v>
-      </c>
-      <c r="S44" s="24"/>
+        <v>360</v>
+      </c>
+      <c r="S44" s="20"/>
       <c r="T44">
         <v>20</v>
       </c>
@@ -6851,19 +5889,19 @@
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
-      <c r="D45" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="D45" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="P45" s="1">
         <v>10</v>
       </c>
       <c r="Q45" t="s">
-        <v>375</v>
-      </c>
-      <c r="S45" s="24"/>
+        <v>361</v>
+      </c>
+      <c r="S45" s="20"/>
       <c r="T45">
         <v>21</v>
       </c>
@@ -6875,26 +5913,26 @@
       <c r="C46" s="2">
         <v>29</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>44571</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="P46" s="1">
         <v>11</v>
       </c>
       <c r="Q46" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="T46">
         <v>22</v>
@@ -6907,118 +5945,118 @@
       <c r="C47" s="2">
         <v>28</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>44572</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <v>27</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>44573</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>26</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>44574</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>25</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>44575</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>388</v>
+        <v>308</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>24</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>44576</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>388</v>
+        <v>308</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>23</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>44577</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>384</v>
+        <v>308</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <v>22</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>44578</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G53" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7026,298 +6064,298 @@
       <c r="C54" s="2">
         <v>21</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>44579</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="H54" s="28"/>
+        <v>308</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <v>20</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>44580</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H55" s="28"/>
+        <v>308</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>19</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>44581</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H56" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H56" s="33"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>18</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>44582</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H57" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H57" s="33"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <v>17</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>44583</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H58" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="33"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <v>16</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>44584</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H59" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H59" s="33"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <v>15</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>44585</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H60" s="33"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <v>14</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <v>44586</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H61" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" s="33"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <v>13</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>44587</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="H62" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H62" s="33"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <v>12</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>44588</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G63" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H63" s="37"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>44589</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G64" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="37"/>
+      <c r="H64" s="33"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
         <v>10</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>44590</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="37"/>
+      <c r="H65" s="33"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <v>9</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>44591</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G66" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="37"/>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <v>8</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>44592</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G67" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="37"/>
+      <c r="H67" s="33"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>7</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>44593</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="37"/>
+      <c r="H68" s="33"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
         <v>6</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>44594</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="37"/>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
         <v>5</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>44595</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G70" s="9"/>
     </row>
@@ -7325,14 +6363,14 @@
       <c r="C71" s="2">
         <v>4</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>44596</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G71" s="9"/>
     </row>
@@ -7340,14 +6378,14 @@
       <c r="C72" s="2">
         <v>3</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="12">
         <v>44597</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G72" s="9"/>
     </row>
@@ -7355,14 +6393,14 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="12">
         <v>44598</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -7370,7 +6408,7 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="12">
         <v>44599</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -7381,27 +6419,1549 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>284</v>
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:T46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="22">
+        <v>63</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44537</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="22">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44538</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="22">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44539</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="22">
+        <v>60</v>
+      </c>
+      <c r="D13" s="16">
+        <v>44540</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="22">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44541</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="23">
+        <v>58</v>
+      </c>
+      <c r="D15" s="14">
+        <v>44542</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="23">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14">
+        <v>44543</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="22">
+        <v>56</v>
+      </c>
+      <c r="D17" s="16">
+        <v>44544</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="22">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16">
+        <v>44545</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="22">
+        <v>54</v>
+      </c>
+      <c r="D19" s="16">
+        <v>44546</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="22">
+        <v>53</v>
+      </c>
+      <c r="D20" s="16">
+        <v>44547</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="23">
+        <v>52</v>
+      </c>
+      <c r="D21" s="14">
+        <v>44548</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="23">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14">
+        <v>44549</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44550</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="22">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16">
+        <v>44551</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="25">
+        <v>48</v>
+      </c>
+      <c r="D25" s="26">
+        <v>44552</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" t="s">
+        <v>272</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="22">
+        <v>47</v>
+      </c>
+      <c r="D26" s="16">
+        <v>44553</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="22">
+        <v>46</v>
+      </c>
+      <c r="D27" s="16">
+        <v>44554</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="22">
+        <v>45</v>
+      </c>
+      <c r="D28" s="16">
+        <v>44555</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="22">
+        <v>44</v>
+      </c>
+      <c r="D29" s="16">
+        <v>44556</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="22">
+        <v>43</v>
+      </c>
+      <c r="D30" s="16">
+        <v>44557</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" t="s">
+        <v>345</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" t="s">
+        <v>346</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22">
+        <v>42</v>
+      </c>
+      <c r="D32" s="16">
+        <v>44558</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>41</v>
+      </c>
+      <c r="D33" s="16">
+        <v>44559</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="S33" s="20"/>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="22">
+        <v>40</v>
+      </c>
+      <c r="D34" s="16">
+        <v>44560</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="N34" t="s">
+        <v>347</v>
+      </c>
+      <c r="S34" s="20"/>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="22">
+        <v>39</v>
+      </c>
+      <c r="D35" s="16">
+        <v>44561</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="N35" t="s">
+        <v>348</v>
+      </c>
+      <c r="S35" s="20"/>
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="23">
+        <v>38</v>
+      </c>
+      <c r="D36" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>391</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44563</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" t="s">
+        <v>392</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="P38" s="11"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44564</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="36"/>
+      <c r="P39" s="1"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>35</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44565</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="2">
+        <v>34</v>
+      </c>
+      <c r="D41" s="12">
+        <v>44566</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="2">
+        <v>33</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44567</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="2">
+        <v>32</v>
+      </c>
+      <c r="D43" s="12">
+        <v>44568</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>31</v>
+      </c>
+      <c r="D44" s="12">
+        <v>44569</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" s="2">
+        <v>30</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44570</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="2">
+        <v>29</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44571</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="2">
+        <v>28</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44572</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="P48" s="34"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="2">
+        <v>27</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44573</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="P49" s="34"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="2">
+        <v>26</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44574</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="P50" s="34"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C51" s="2">
+        <v>25</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44575</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="P51" s="34"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="2">
+        <v>24</v>
+      </c>
+      <c r="D52" s="12">
+        <v>44576</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="P52" s="34"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" s="2">
+        <v>23</v>
+      </c>
+      <c r="D53" s="12">
+        <v>44577</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="P53" s="34"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="2">
+        <v>22</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44578</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" s="34"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="2">
+        <v>21</v>
+      </c>
+      <c r="D55" s="12">
+        <v>44579</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="2">
+        <v>20</v>
+      </c>
+      <c r="D56" s="12">
+        <v>44580</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>19</v>
+      </c>
+      <c r="D57" s="12">
+        <v>44581</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H57" s="33"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>415</v>
+      </c>
+      <c r="C58" s="2">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44582</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="33"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" s="2">
+        <v>17</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44583</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C60" s="2">
+        <v>16</v>
+      </c>
+      <c r="D60" s="12">
+        <v>44584</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="2">
+        <v>15</v>
+      </c>
+      <c r="D61" s="12">
+        <v>44585</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>418</v>
+      </c>
+      <c r="C62" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" s="12">
+        <v>44586</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" s="12">
+        <v>44587</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>12</v>
+      </c>
+      <c r="D64" s="12">
+        <v>44588</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>11</v>
+      </c>
+      <c r="D65" s="12">
+        <v>44589</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="12">
+        <v>44590</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>9</v>
+      </c>
+      <c r="D67" s="12">
+        <v>44591</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
+      <c r="D68" s="12">
+        <v>44592</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="33"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+      <c r="D69" s="12">
+        <v>44593</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="33"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>6</v>
+      </c>
+      <c r="D70" s="12">
+        <v>44594</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="33"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="12">
+        <v>44595</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <v>4</v>
+      </c>
+      <c r="D72" s="12">
+        <v>44596</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12">
+        <v>44597</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="12">
+        <v>44598</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
+        <v>44599</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7412,1480 +7972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M8" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="26">
-        <v>63</v>
-      </c>
-      <c r="D10" s="20">
-        <v>44537</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="26">
-        <v>62</v>
-      </c>
-      <c r="D11" s="20">
-        <v>44538</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>3</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="26">
-        <v>61</v>
-      </c>
-      <c r="D12" s="20">
-        <v>44539</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="26">
-        <v>60</v>
-      </c>
-      <c r="D13" s="20">
-        <v>44540</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="26">
-        <v>59</v>
-      </c>
-      <c r="D14" s="20">
-        <v>44541</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>6</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="27">
-        <v>58</v>
-      </c>
-      <c r="D15" s="18">
-        <v>44542</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>7</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="27">
-        <v>57</v>
-      </c>
-      <c r="D16" s="18">
-        <v>44543</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="26">
-        <v>56</v>
-      </c>
-      <c r="D17" s="20">
-        <v>44544</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>9</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="26">
-        <v>55</v>
-      </c>
-      <c r="D18" s="20">
-        <v>44545</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>10</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="26">
-        <v>54</v>
-      </c>
-      <c r="D19" s="20">
-        <v>44546</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="26">
-        <v>53</v>
-      </c>
-      <c r="D20" s="20">
-        <v>44547</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>12</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="27">
-        <v>52</v>
-      </c>
-      <c r="D21" s="18">
-        <v>44548</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>13</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="27">
-        <v>51</v>
-      </c>
-      <c r="D22" s="18">
-        <v>44549</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="27">
-        <v>50</v>
-      </c>
-      <c r="D23" s="18">
-        <v>44550</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>15</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="26">
-        <v>49</v>
-      </c>
-      <c r="D24" s="20">
-        <v>44551</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="H24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>16</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="29">
-        <v>48</v>
-      </c>
-      <c r="D25" s="30">
-        <v>44552</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="H25" t="s">
-        <v>286</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>17</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="26">
-        <v>47</v>
-      </c>
-      <c r="D26" s="20">
-        <v>44553</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>18</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="26">
-        <v>46</v>
-      </c>
-      <c r="D27" s="20">
-        <v>44554</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>19</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="26">
-        <v>45</v>
-      </c>
-      <c r="D28" s="20">
-        <v>44555</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
-      <c r="U28">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>20</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="26">
-        <v>44</v>
-      </c>
-      <c r="D29" s="20">
-        <v>44556</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>21</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="26">
-        <v>43</v>
-      </c>
-      <c r="D30" s="20">
-        <v>44557</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" t="s">
-        <v>359</v>
-      </c>
-      <c r="S30" s="24"/>
-      <c r="T30">
-        <v>6</v>
-      </c>
-      <c r="U30">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" t="s">
-        <v>360</v>
-      </c>
-      <c r="S31" s="24"/>
-      <c r="T31">
-        <v>7</v>
-      </c>
-      <c r="U31">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26">
-        <v>42</v>
-      </c>
-      <c r="D32" s="20">
-        <v>44558</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="S32" s="24"/>
-      <c r="T32">
-        <v>8</v>
-      </c>
-      <c r="U32">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="26">
-        <v>41</v>
-      </c>
-      <c r="D33" s="20">
-        <v>44559</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="H33" t="s">
-        <v>323</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="S33" s="24"/>
-      <c r="T33">
-        <v>9</v>
-      </c>
-      <c r="U33">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="26">
-        <v>40</v>
-      </c>
-      <c r="D34" s="20">
-        <v>44560</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="N34" t="s">
-        <v>361</v>
-      </c>
-      <c r="S34" s="24"/>
-      <c r="T34">
-        <v>10</v>
-      </c>
-      <c r="U34">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="26">
-        <v>39</v>
-      </c>
-      <c r="D35" s="20">
-        <v>44561</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="N35" t="s">
-        <v>362</v>
-      </c>
-      <c r="S35" s="24"/>
-      <c r="T35">
-        <v>11</v>
-      </c>
-      <c r="U35">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="27">
-        <v>38</v>
-      </c>
-      <c r="D36" s="18">
-        <v>44562</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" t="s">
-        <v>405</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="S36" s="24"/>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
-        <v>37</v>
-      </c>
-      <c r="D37" s="13">
-        <v>44563</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="H37" t="s">
-        <v>406</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
-        <v>36</v>
-      </c>
-      <c r="D38" s="13">
-        <v>44564</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="39"/>
-      <c r="P38" s="1"/>
-      <c r="S38" s="24"/>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
-        <v>35</v>
-      </c>
-      <c r="D39" s="13">
-        <v>44565</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="39"/>
-      <c r="L39" t="s">
-        <v>408</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="S39" s="24"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <v>34</v>
-      </c>
-      <c r="D40" s="13">
-        <v>44566</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="39"/>
-      <c r="L40" t="s">
-        <v>409</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="S40" s="24"/>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
-        <v>33</v>
-      </c>
-      <c r="D41" s="13">
-        <v>44567</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="39"/>
-      <c r="L41" t="s">
-        <v>410</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="S41" s="24"/>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
-        <v>32</v>
-      </c>
-      <c r="D42" s="13">
-        <v>44568</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="39"/>
-      <c r="L42" t="s">
-        <v>411</v>
-      </c>
-      <c r="P42" s="1"/>
-      <c r="S42" s="24"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
-        <v>31</v>
-      </c>
-      <c r="D43" s="13">
-        <v>44569</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="39"/>
-      <c r="P43" s="1"/>
-      <c r="S43" s="24"/>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
-        <v>30</v>
-      </c>
-      <c r="D44" s="13">
-        <v>44570</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="40"/>
-      <c r="P44" s="1"/>
-      <c r="S44" s="24"/>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="P45" s="1"/>
-      <c r="S45" s="24"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
-        <v>29</v>
-      </c>
-      <c r="D46" s="13">
-        <v>44571</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
-        <v>28</v>
-      </c>
-      <c r="D47" s="13">
-        <v>44572</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
-        <v>27</v>
-      </c>
-      <c r="D48" s="13">
-        <v>44573</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
-        <v>26</v>
-      </c>
-      <c r="D49" s="13">
-        <v>44574</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
-        <v>25</v>
-      </c>
-      <c r="D50" s="13">
-        <v>44575</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="2">
-        <v>24</v>
-      </c>
-      <c r="D51" s="13">
-        <v>44576</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="2">
-        <v>23</v>
-      </c>
-      <c r="D52" s="13">
-        <v>44577</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="2">
-        <v>22</v>
-      </c>
-      <c r="D53" s="13">
-        <v>44578</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="2">
-        <v>21</v>
-      </c>
-      <c r="D54" s="13">
-        <v>44579</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="2">
-        <v>20</v>
-      </c>
-      <c r="D55" s="13">
-        <v>44580</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="2">
-        <v>19</v>
-      </c>
-      <c r="D56" s="13">
-        <v>44581</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="2">
-        <v>18</v>
-      </c>
-      <c r="D57" s="13">
-        <v>44582</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="2">
-        <v>17</v>
-      </c>
-      <c r="D58" s="13">
-        <v>44583</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="2">
-        <v>16</v>
-      </c>
-      <c r="D59" s="13">
-        <v>44584</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H59" s="37"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="2">
-        <v>15</v>
-      </c>
-      <c r="D60" s="13">
-        <v>44585</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" s="37"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="2">
-        <v>14</v>
-      </c>
-      <c r="D61" s="13">
-        <v>44586</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H61" s="37"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" s="13">
-        <v>44587</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="H62" s="37"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="2">
-        <v>12</v>
-      </c>
-      <c r="D63" s="13">
-        <v>44588</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H63" s="37"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" s="13">
-        <v>44589</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H64" s="37"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="13">
-        <v>44590</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="37"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="2">
-        <v>9</v>
-      </c>
-      <c r="D66" s="13">
-        <v>44591</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="2">
-        <v>8</v>
-      </c>
-      <c r="D67" s="13">
-        <v>44592</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="37"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="2">
-        <v>7</v>
-      </c>
-      <c r="D68" s="13">
-        <v>44593</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="37"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="2">
-        <v>6</v>
-      </c>
-      <c r="D69" s="13">
-        <v>44594</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="37"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="2">
-        <v>5</v>
-      </c>
-      <c r="D70" s="13">
-        <v>44595</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="2">
-        <v>4</v>
-      </c>
-      <c r="D71" s="13">
-        <v>44596</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="2">
-        <v>3</v>
-      </c>
-      <c r="D72" s="13">
-        <v>44597</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="2">
-        <v>2</v>
-      </c>
-      <c r="D73" s="13">
-        <v>44598</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="13">
-        <v>44599</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G37:G44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8895,37 +7985,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -8933,115 +8023,115 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" t="s">
         <v>337</v>
-      </c>
-      <c r="B28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -9049,4 +8139,290 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>44564</v>
+      </c>
+      <c r="C3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>44565</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44572</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44572</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44573</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44579</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44580</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44581</v>
+      </c>
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44582</v>
+      </c>
+      <c r="C10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44583</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44585</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44586</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44587</v>
+      </c>
+      <c r="C15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44588</v>
+      </c>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44589</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44590</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44596</v>
+      </c>
+      <c r="C18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>44597</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44603</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44604</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>44606</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44612</v>
+      </c>
+      <c r="C21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="H34" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I32" r:id="rId1" display="https://www.youtube.com/watch?v=OKqXp-OaMag"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22800" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="23400" windowWidth="28800" windowHeight="12420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="1-1-2022" sheetId="23" r:id="rId5"/>
     <sheet name="Int. Prep" sheetId="21" r:id="rId6"/>
     <sheet name="3-1-22" sheetId="24" r:id="rId7"/>
+    <sheet name="03-01-2022" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="473">
   <si>
     <t>SNO</t>
   </si>
@@ -1295,6 +1296,150 @@
   </si>
   <si>
     <t>INTERVIEW PREPERATION/AWS SERVERLESS</t>
+  </si>
+  <si>
+    <t>DO NOT TAKE ANY STUPID DECISIONS</t>
+  </si>
+  <si>
+    <t>ON JOB SIDE. BEING IN JOB IS VERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORTANT. AND I HAVE TO WORK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON MY GOAL. I AM GETTING ALL </t>
+  </si>
+  <si>
+    <t>STUPID PLANS BECAUSE MY MIND</t>
+  </si>
+  <si>
+    <t>REQUIRES COMFORT FOR EVERYTHING.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAT IS INSANE. </t>
+  </si>
+  <si>
+    <t>DCC - K8S PROJECT/UDEMY - SIMPLE PROJECT</t>
+  </si>
+  <si>
+    <t>K8S - RAJDEEP SAHA</t>
+  </si>
+  <si>
+    <t>K8S - KALYAN REDDY</t>
+  </si>
+  <si>
+    <t>K8S - LEVEL UP 360</t>
+  </si>
+  <si>
+    <t>K8S - RICHARD CHESTERWOOD</t>
+  </si>
+  <si>
+    <t>K8S - TROUBLESHOOTING K8S - PACKT PUBLISHING</t>
+  </si>
+  <si>
+    <t>AT FIRST IDENTIFY THE TOPICS WHICH ARE IMPORTANT FOR INTERVIEW AND THEN PREPARE THEM.</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>THE PURPOSE OF INTERVIEW QUESTIONS IS TO FILL THE GAP IN MY K8S KNOWLEDGE.</t>
+  </si>
+  <si>
+    <t>IT SHOULD BE NOT LIKE, OH I FINISHED K8S BUT I MISSED THIS TOPIC. I SHOULD START AGAIN.</t>
+  </si>
+  <si>
+    <t>THIS IS THE BIGGEST MISTAKE I HAVE BEEN DOING.</t>
+  </si>
+  <si>
+    <t>K8S - EKS PROJECT IN GIT-HUB</t>
+  </si>
+  <si>
+    <t>OTHER TOPICS TO COVER IN THIS PERIOD</t>
+  </si>
+  <si>
+    <t>REQUIREMENT OF MICROSERVICES AND CONTAINERIZATION</t>
+  </si>
+  <si>
+    <t>K8S - HELM</t>
+  </si>
+  <si>
+    <t>PACKER - AMI PROJECT IN GIT-HUB</t>
+  </si>
+  <si>
+    <t>ANSIBLE - AR REDDY</t>
+  </si>
+  <si>
+    <t>ANSIBLE - SHIKHAR</t>
+  </si>
+  <si>
+    <t>ANSIBLE - DPT</t>
+  </si>
+  <si>
+    <t>DOCKER/DOCKER SWARM</t>
+  </si>
+  <si>
+    <t>JFROG-SONARQUBE INTEGRATION WITH MAVEN &amp; JENKINS</t>
+  </si>
+  <si>
+    <t>MAVEN BUILD SERVER DIFF B/W .WAR &amp; .JAR</t>
+  </si>
+  <si>
+    <t>GIT/GIT-HUB/BIT BUCKET</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM - GIT-HUB PROJECT</t>
+  </si>
+  <si>
+    <t>DPT - GIT-HUB PROJECT</t>
+  </si>
+  <si>
+    <t>AWS - ROCKING SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>AWS - IWAYQ</t>
+  </si>
+  <si>
+    <t>AWS - STEPHANE</t>
+  </si>
+  <si>
+    <t>AWS - VALAXY TECH YT</t>
+  </si>
+  <si>
+    <t>SONARQUBE, MAVEN</t>
+  </si>
+  <si>
+    <t>MY TIME TO MARKET SHOULD BE QUICK,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I CAN'T DELAY MYSELF.</t>
+  </si>
+  <si>
+    <t>INT PREP &amp; FILL THE GAPS</t>
+  </si>
+  <si>
+    <t>FOR ALL THE TOOLS</t>
+  </si>
+  <si>
+    <t>TOOL REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>WHAT PROBLEM IT SOLVES</t>
+  </si>
+  <si>
+    <t>HOW DOES IT SOLVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR ANY NEW TOOL, THE FIRST THING WE NEED TO LEARN IS TO ARCHITECTURE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOW THE TOOL WORKS AND WHAT PROBLEM THE TOOLS IS SOLVING FOR US, </t>
+  </si>
+  <si>
+    <t>THEN INSTALL AND CONFIGURE.</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,6 +1673,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3523,7 +3680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G59" sqref="G59:G61"/>
     </sheetView>
   </sheetViews>
@@ -4858,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,8 +6609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:T46"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7974,8 +8131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8143,42 +8300,110 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="V2" sqref="V2:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" t="s">
+        <v>422</v>
+      </c>
+      <c r="T1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>13</v>
+      </c>
+      <c r="AB1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44563</v>
       </c>
       <c r="C2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M2" s="10">
+        <v>44563</v>
+      </c>
+      <c r="O2" t="s">
+        <v>419</v>
+      </c>
+      <c r="T2" s="10">
+        <v>44563</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>14</v>
+      </c>
+      <c r="AB2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44564</v>
       </c>
       <c r="C3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M3" s="10">
+        <v>44564</v>
+      </c>
+      <c r="N3" s="10">
+        <v>44565</v>
+      </c>
+      <c r="O3" t="s">
+        <v>407</v>
+      </c>
+      <c r="T3" s="10">
+        <v>44564</v>
+      </c>
+      <c r="U3" s="10">
+        <v>44565</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44565</v>
       </c>
@@ -8188,24 +8413,90 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M4" s="10">
+        <v>44566</v>
+      </c>
+      <c r="N4" s="10">
+        <v>44580</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="10">
+        <v>44566</v>
+      </c>
+      <c r="U4" s="10">
+        <v>44580</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>16</v>
+      </c>
+      <c r="AB4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44572</v>
       </c>
       <c r="C5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M5" s="10">
+        <v>44581</v>
+      </c>
+      <c r="O5" t="s">
+        <v>408</v>
+      </c>
+      <c r="T5" s="10">
+        <v>44581</v>
+      </c>
+      <c r="U5" s="10">
+        <v>44595</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>17</v>
+      </c>
+      <c r="AB5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44572</v>
       </c>
       <c r="C6" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M6" s="10">
+        <v>44582</v>
+      </c>
+      <c r="O6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T6" s="10">
+        <v>44596</v>
+      </c>
+      <c r="U6" s="10">
+        <v>44610</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>18</v>
+      </c>
+      <c r="AB6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44573</v>
       </c>
@@ -8215,8 +8506,49 @@
       <c r="C7" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M7" s="10">
+        <v>44583</v>
+      </c>
+      <c r="N7" s="10">
+        <v>44598</v>
+      </c>
+      <c r="O7" t="s">
+        <v>410</v>
+      </c>
+      <c r="T7" s="10">
+        <v>44611</v>
+      </c>
+      <c r="U7" s="10">
+        <v>44626</v>
+      </c>
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>19</v>
+      </c>
+      <c r="AB7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T8" s="10">
+        <v>44627</v>
+      </c>
+      <c r="U8" s="10">
+        <v>44633</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>20</v>
+      </c>
+      <c r="AB8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44580</v>
       </c>
@@ -8226,32 +8558,116 @@
       <c r="C9" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M9" s="10">
+        <v>44599</v>
+      </c>
+      <c r="N9" s="10">
+        <v>44602</v>
+      </c>
+      <c r="O9" t="s">
+        <v>412</v>
+      </c>
+      <c r="T9" s="10">
+        <v>44599</v>
+      </c>
+      <c r="U9" s="10">
+        <v>44602</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9">
+        <v>21</v>
+      </c>
+      <c r="AB9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44582</v>
       </c>
       <c r="C10" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M10" s="10">
+        <v>44603</v>
+      </c>
+      <c r="N10" s="10">
+        <v>44604</v>
+      </c>
+      <c r="O10" t="s">
+        <v>413</v>
+      </c>
+      <c r="T10" s="10">
+        <v>44603</v>
+      </c>
+      <c r="U10" s="10">
+        <v>44604</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>22</v>
+      </c>
+      <c r="AB10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44582</v>
       </c>
       <c r="C11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M11" s="10">
+        <v>44605</v>
+      </c>
+      <c r="O11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="10">
+        <v>44605</v>
+      </c>
+      <c r="Z11">
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>23</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44582</v>
       </c>
       <c r="C12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M12" s="10">
+        <v>44606</v>
+      </c>
+      <c r="O12" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="10">
+        <v>44606</v>
+      </c>
+      <c r="Z12">
+        <v>12</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44583</v>
       </c>
@@ -8261,40 +8677,169 @@
       <c r="C13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M13" s="10">
+        <v>44607</v>
+      </c>
+      <c r="N13" s="10">
+        <v>44612</v>
+      </c>
+      <c r="O13" t="s">
+        <v>151</v>
+      </c>
+      <c r="T13" s="10">
+        <v>44607</v>
+      </c>
+      <c r="U13" s="10">
+        <v>44612</v>
+      </c>
+      <c r="Z13">
+        <v>13</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44586</v>
       </c>
       <c r="C14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M14" s="10">
+        <v>44613</v>
+      </c>
+      <c r="N14" s="10">
+        <v>44614</v>
+      </c>
+      <c r="O14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T14" s="10">
+        <v>44613</v>
+      </c>
+      <c r="U14" s="10">
+        <v>44614</v>
+      </c>
+      <c r="Z14">
+        <v>14</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44587</v>
       </c>
       <c r="C15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M15" s="10">
+        <v>44615</v>
+      </c>
+      <c r="N15" s="10">
+        <v>44616</v>
+      </c>
+      <c r="O15" t="s">
+        <v>421</v>
+      </c>
+      <c r="T15" s="10">
+        <v>44615</v>
+      </c>
+      <c r="U15" s="10">
+        <v>44616</v>
+      </c>
+      <c r="Z15">
+        <v>15</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44588</v>
       </c>
       <c r="C16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16" s="10">
+        <v>44617</v>
+      </c>
+      <c r="N16" s="10">
+        <v>44618</v>
+      </c>
+      <c r="O16" t="s">
+        <v>260</v>
+      </c>
+      <c r="T16" s="10">
+        <v>44617</v>
+      </c>
+      <c r="U16" s="10">
+        <v>44618</v>
+      </c>
+      <c r="Z16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44589</v>
       </c>
       <c r="C17" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17" s="10">
+        <v>44619</v>
+      </c>
+      <c r="N17" s="10">
+        <v>44620</v>
+      </c>
+      <c r="O17" t="s">
+        <v>420</v>
+      </c>
+      <c r="T17" s="10">
+        <v>44619</v>
+      </c>
+      <c r="U17" s="10">
+        <v>44620</v>
+      </c>
+      <c r="Z17">
+        <v>17</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44590</v>
       </c>
@@ -8304,8 +8849,35 @@
       <c r="C18" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M18" s="10">
+        <v>44621</v>
+      </c>
+      <c r="N18" s="10">
+        <v>44635</v>
+      </c>
+      <c r="O18" t="s">
+        <v>423</v>
+      </c>
+      <c r="T18" s="10">
+        <v>44621</v>
+      </c>
+      <c r="U18" s="10">
+        <v>44635</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44597</v>
       </c>
@@ -8315,8 +8887,32 @@
       <c r="C19" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19" s="10">
+        <v>44636</v>
+      </c>
+      <c r="N19" s="10">
+        <v>44645</v>
+      </c>
+      <c r="O19" t="s">
+        <v>165</v>
+      </c>
+      <c r="T19" s="10">
+        <v>44636</v>
+      </c>
+      <c r="U19" s="10">
+        <v>44645</v>
+      </c>
+      <c r="Z19">
+        <v>19</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44604</v>
       </c>
@@ -8326,8 +8922,32 @@
       <c r="C20" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20" s="10">
+        <v>44646</v>
+      </c>
+      <c r="N20" s="10">
+        <v>44648</v>
+      </c>
+      <c r="O20" t="s">
+        <v>265</v>
+      </c>
+      <c r="T20" s="10">
+        <v>44646</v>
+      </c>
+      <c r="U20" s="10">
+        <v>44648</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44606</v>
       </c>
@@ -8337,33 +8957,128 @@
       <c r="C21" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M21" s="10">
+        <v>44649</v>
+      </c>
+      <c r="N21" s="10">
+        <v>44654</v>
+      </c>
+      <c r="O21" t="s">
+        <v>424</v>
+      </c>
+      <c r="T21" s="10">
+        <v>44649</v>
+      </c>
+      <c r="U21" s="10">
+        <v>44654</v>
+      </c>
+      <c r="Z21">
+        <v>21</v>
+      </c>
+      <c r="AA21">
+        <v>9</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>22</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>11</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>415</v>
+      </c>
+      <c r="V23" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z23">
+        <v>23</v>
+      </c>
+      <c r="AA23">
+        <v>11</v>
+      </c>
+      <c r="AB23">
+        <v>12</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>411</v>
+      </c>
+      <c r="V24" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z24">
+        <v>24</v>
+      </c>
+      <c r="AA24">
+        <v>12</v>
+      </c>
+      <c r="AB24">
+        <v>13</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>416</v>
+      </c>
+      <c r="V25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>417</v>
+      </c>
+      <c r="V26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>418</v>
+      </c>
+      <c r="V27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>393</v>
       </c>
@@ -8372,7 +9087,7 @@
       </c>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>394</v>
       </c>
@@ -8381,7 +9096,7 @@
       </c>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>395</v>
       </c>
@@ -8390,7 +9105,7 @@
       </c>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>396</v>
       </c>
@@ -8425,4 +9140,1751 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="N1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="N2" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="22">
+        <v>63</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44537</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="22">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44538</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="22">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44539</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="22">
+        <v>60</v>
+      </c>
+      <c r="D13" s="16">
+        <v>44540</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="22">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44541</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="23">
+        <v>58</v>
+      </c>
+      <c r="D15" s="14">
+        <v>44542</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="23">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14">
+        <v>44543</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="22">
+        <v>56</v>
+      </c>
+      <c r="D17" s="16">
+        <v>44544</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="22">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16">
+        <v>44545</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="22">
+        <v>54</v>
+      </c>
+      <c r="D19" s="16">
+        <v>44546</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="22">
+        <v>53</v>
+      </c>
+      <c r="D20" s="16">
+        <v>44547</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="23">
+        <v>52</v>
+      </c>
+      <c r="D21" s="14">
+        <v>44548</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="23">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14">
+        <v>44549</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44550</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="22">
+        <v>49</v>
+      </c>
+      <c r="D24" s="16">
+        <v>44551</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="25">
+        <v>48</v>
+      </c>
+      <c r="D25" s="26">
+        <v>44552</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" t="s">
+        <v>272</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="22">
+        <v>47</v>
+      </c>
+      <c r="D26" s="16">
+        <v>44553</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="22">
+        <v>46</v>
+      </c>
+      <c r="D27" s="16">
+        <v>44554</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="22">
+        <v>45</v>
+      </c>
+      <c r="D28" s="16">
+        <v>44555</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="22">
+        <v>44</v>
+      </c>
+      <c r="D29" s="16">
+        <v>44556</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="22">
+        <v>43</v>
+      </c>
+      <c r="D30" s="16">
+        <v>44557</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" t="s">
+        <v>345</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" t="s">
+        <v>346</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22">
+        <v>42</v>
+      </c>
+      <c r="D32" s="16">
+        <v>44558</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>41</v>
+      </c>
+      <c r="D33" s="16">
+        <v>44559</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="S33" s="20"/>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="22">
+        <v>40</v>
+      </c>
+      <c r="D34" s="16">
+        <v>44560</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="N34" t="s">
+        <v>347</v>
+      </c>
+      <c r="S34" s="20"/>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="22">
+        <v>39</v>
+      </c>
+      <c r="D35" s="16">
+        <v>44561</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="N35" t="s">
+        <v>348</v>
+      </c>
+      <c r="S35" s="20"/>
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="23">
+        <v>38</v>
+      </c>
+      <c r="D36" s="14">
+        <v>44562</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>391</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>37</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44563</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" t="s">
+        <v>392</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="P38" s="11"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44564</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44565</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41</v>
+      </c>
+      <c r="D41" s="12">
+        <v>44566</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44567</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="2">
+        <v>39</v>
+      </c>
+      <c r="D43" s="12">
+        <v>44568</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>38</v>
+      </c>
+      <c r="D44" s="12">
+        <v>44569</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" s="2">
+        <v>37</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44570</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>461</v>
+      </c>
+      <c r="C46" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="12">
+        <v>44571</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="2">
+        <v>35</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44572</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="P47" s="34"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="2">
+        <v>34</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44573</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="P48" s="34"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="2">
+        <v>33</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44574</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="P49" s="34"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" s="2">
+        <v>32</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44575</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="P50" s="34"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" s="2">
+        <v>31</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44576</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="P51" s="34"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="40">
+        <v>44577</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="P52" s="34"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="2">
+        <v>29</v>
+      </c>
+      <c r="D53" s="12">
+        <v>44578</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="P53" s="34"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="2">
+        <v>28</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44579</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="2">
+        <v>27</v>
+      </c>
+      <c r="D55" s="40">
+        <v>44580</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="I55" s="42">
+        <v>1</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>26</v>
+      </c>
+      <c r="D56" s="12">
+        <v>44581</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="I56" s="42">
+        <v>2</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>415</v>
+      </c>
+      <c r="C57" s="2">
+        <v>25</v>
+      </c>
+      <c r="D57" s="12">
+        <v>44582</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H57" s="33"/>
+      <c r="I57" s="42">
+        <v>3</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>411</v>
+      </c>
+      <c r="C58" s="2">
+        <v>24</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44583</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H58" s="33"/>
+      <c r="I58" s="42">
+        <v>4</v>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="2">
+        <v>23</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44584</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" s="2">
+        <v>22</v>
+      </c>
+      <c r="D60" s="12">
+        <v>44585</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="H60" s="33"/>
+      <c r="J60" s="42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61" s="2">
+        <v>21</v>
+      </c>
+      <c r="D61" s="12">
+        <v>44586</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H61" s="33"/>
+      <c r="J61" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>20</v>
+      </c>
+      <c r="D62" s="12">
+        <v>44587</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H62" s="33"/>
+      <c r="J62" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <v>19</v>
+      </c>
+      <c r="D63" s="12">
+        <v>44588</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>18</v>
+      </c>
+      <c r="D64" s="12">
+        <v>44589</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>17</v>
+      </c>
+      <c r="D65" s="12">
+        <v>44590</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <v>16</v>
+      </c>
+      <c r="D66" s="40">
+        <v>44591</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>15</v>
+      </c>
+      <c r="D67" s="40">
+        <v>44592</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" s="12">
+        <v>44593</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H68" s="33"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" s="12">
+        <v>44594</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H69" s="33"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>12</v>
+      </c>
+      <c r="D70" s="12">
+        <v>44595</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+      <c r="D71" s="12">
+        <v>44596</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <v>10</v>
+      </c>
+      <c r="D72" s="12">
+        <v>44597</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <v>9</v>
+      </c>
+      <c r="D73" s="12">
+        <v>44598</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
+        <v>8</v>
+      </c>
+      <c r="D74" s="12">
+        <v>44599</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+      <c r="D75" s="12">
+        <v>44600</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+      <c r="D76" s="12">
+        <v>44601</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="12">
+        <v>44602</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+      <c r="D78" s="12">
+        <v>44603</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="2">
+        <v>3</v>
+      </c>
+      <c r="D79" s="12">
+        <v>44604</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="12">
+        <v>44605</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
+        <v>44606</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C39:C81">
+    <sortCondition descending="1" ref="C39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="23400" windowWidth="28800" windowHeight="12420" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="24000" windowWidth="28800" windowHeight="12420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Int. Prep" sheetId="21" r:id="rId6"/>
     <sheet name="3-1-22" sheetId="24" r:id="rId7"/>
     <sheet name="03-01-2022" sheetId="25" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="504">
   <si>
     <t>SNO</t>
   </si>
@@ -1440,6 +1441,99 @@
   </si>
   <si>
     <t>THEN INSTALL AND CONFIGURE.</t>
+  </si>
+  <si>
+    <t>UDEMY-JENKINS ZTH, DEVOPS RESPONSIBILITIES VIDEO</t>
+  </si>
+  <si>
+    <t>TOPICS BEING LEARNED</t>
+  </si>
+  <si>
+    <t>BEFORE CI PROCESS</t>
+  </si>
+  <si>
+    <t>WHAT IS CI</t>
+  </si>
+  <si>
+    <t>WHAT IS CONTINUOUS DELIVERY</t>
+  </si>
+  <si>
+    <t>WHAT IS CONT. DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>CI - PRINCIPLES AND PRACTICES</t>
+  </si>
+  <si>
+    <t>JENKINS - THE COMPLETE TUTORIAL</t>
+  </si>
+  <si>
+    <t>COURSE INTRODUCTION</t>
+  </si>
+  <si>
+    <t>JENKINS DISTRIBUTED ARCHITECTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER SLAVE NODES. </t>
+  </si>
+  <si>
+    <t>JENKINS PIPELINE</t>
+  </si>
+  <si>
+    <t>INSTALLING JAVA &amp; PRE-REQUISITES</t>
+  </si>
+  <si>
+    <t>USER CREATION &amp; ROLE CREATION</t>
+  </si>
+  <si>
+    <t>JOB CREATION</t>
+  </si>
+  <si>
+    <t>MANAGE JENKINS SECTION</t>
+  </si>
+  <si>
+    <t>JOB CHAINING</t>
+  </si>
+  <si>
+    <t>INTEGRATING GIT WITH JENKINS WITH POLL SCM</t>
+  </si>
+  <si>
+    <t>INTEGRATING GIT WITH JENKINS WITH WEBHOOK</t>
+  </si>
+  <si>
+    <t>MAVEN INTEGRATION WITH JENIKINS</t>
+  </si>
+  <si>
+    <t>SONARQUBE INTEGRATION WITH JENKINS</t>
+  </si>
+  <si>
+    <t>EMAIL NOTIFICATIONS FROM JENKINS</t>
+  </si>
+  <si>
+    <t>Selenium and TestNG</t>
+  </si>
+  <si>
+    <t>BY THIS TIME, I SHOULD BE PERFECT IN JENKINS, MAVEN, TOMCAT, JFROG, SONAR INTEGRATIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT ALL THE STEPS</t>
+  </si>
+  <si>
+    <t>TOMCAT INTEGRATION FOR DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>JENKINS PIPELINES</t>
+  </si>
+  <si>
+    <t>MULTI-BRANCH PIPELINES</t>
+  </si>
+  <si>
+    <t>UDEMY-JENKINS ZTH, DPT 22, 23, 25, 26, 41, 42</t>
+  </si>
+  <si>
+    <t>SCRIPTED PIPELINE</t>
+  </si>
+  <si>
+    <t>DECLATIVE PIPELINE</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1686,6 +1780,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2055,7 +2152,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9147,8 +9244,8 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10009,18 +10106,18 @@
       <c r="B39" t="s">
         <v>407</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="22">
         <v>43</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="16">
         <v>44564</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>205</v>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17" t="s">
+        <v>473</v>
       </c>
       <c r="P39" s="1"/>
       <c r="S39" s="20"/>
@@ -10040,7 +10137,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>205</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -10058,7 +10155,10 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>205</v>
+        <v>432</v>
+      </c>
+      <c r="H41" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -10077,6 +10177,9 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
         <v>432</v>
+      </c>
+      <c r="H42" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -10887,4 +10990,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="C9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="C10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="C19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24000" windowWidth="28800" windowHeight="12420" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="24600" windowWidth="28800" windowHeight="12420" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="3-1-22" sheetId="24" r:id="rId7"/>
     <sheet name="03-01-2022" sheetId="25" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="26" r:id="rId9"/>
+    <sheet name="NEW PLAN" sheetId="27" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="585">
   <si>
     <t>SNO</t>
   </si>
@@ -1320,9 +1321,6 @@
     <t xml:space="preserve">THAT IS INSANE. </t>
   </si>
   <si>
-    <t>DCC - K8S PROJECT/UDEMY - SIMPLE PROJECT</t>
-  </si>
-  <si>
     <t>K8S - RAJDEEP SAHA</t>
   </si>
   <si>
@@ -1389,12 +1387,6 @@
     <t>GIT/GIT-HUB/BIT BUCKET</t>
   </si>
   <si>
-    <t>AWS TERRAFORM - GIT-HUB PROJECT</t>
-  </si>
-  <si>
-    <t>DPT - GIT-HUB PROJECT</t>
-  </si>
-  <si>
     <t>AWS - ROCKING SYSTEM DESIGN</t>
   </si>
   <si>
@@ -1479,9 +1471,6 @@
     <t>JENKINS PIPELINE</t>
   </si>
   <si>
-    <t>INSTALLING JAVA &amp; PRE-REQUISITES</t>
-  </si>
-  <si>
     <t>USER CREATION &amp; ROLE CREATION</t>
   </si>
   <si>
@@ -1527,20 +1516,275 @@
     <t>MULTI-BRANCH PIPELINES</t>
   </si>
   <si>
-    <t>UDEMY-JENKINS ZTH, DPT 22, 23, 25, 26, 41, 42</t>
-  </si>
-  <si>
     <t>SCRIPTED PIPELINE</t>
   </si>
   <si>
     <t>DECLATIVE PIPELINE</t>
+  </si>
+  <si>
+    <t>LIMITATION OF APACHE HTTP SERVERS</t>
+  </si>
+  <si>
+    <t>BUILD PROCESS - COMPILE &amp; PACKAGING - ARTIFACT (.WAR/.JAR)</t>
+  </si>
+  <si>
+    <t>INSTALLING JAVA &amp; PRE-REQUISITES - JAVA 11</t>
+  </si>
+  <si>
+    <t>.WAR FILE TO BE DEPLOYED IN APACHE TOMCAT WEBAPPS FOLDER</t>
+  </si>
+  <si>
+    <t>PRE-REQUITES JAVA 1.8</t>
+  </si>
+  <si>
+    <t>MAVEN INSTALLATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDERSTANDING OF POM.XML </t>
+  </si>
+  <si>
+    <t>INSTALLING APACHE TOMCAT</t>
+  </si>
+  <si>
+    <t>APACHE TOMCAT</t>
+  </si>
+  <si>
+    <t>MVN CLEAN COMMAND</t>
+  </si>
+  <si>
+    <t>FAILURES OF BUILD PROCESS</t>
+  </si>
+  <si>
+    <t>ACCESSING THE MANAGER APP BY MANAGER&gt;CONTEXT.XML FILE &amp; HOST-MANAGER&gt;CONTEXT.XML</t>
+  </si>
+  <si>
+    <t>NGINX REVERSE PROXY</t>
+  </si>
+  <si>
+    <t>PRE-REQUITES NO-PREREQ</t>
+  </si>
+  <si>
+    <t>NO PRE-REQUISITES</t>
+  </si>
+  <si>
+    <t>NGINX CONF FILE TWEAKS &amp; ACCESS TOMCAT SERVER AS REVERSE PROXY</t>
+  </si>
+  <si>
+    <t>CREATING REPOSITORY</t>
+  </si>
+  <si>
+    <t>COPY DEPLOY FILE INTO POM.XML</t>
+  </si>
+  <si>
+    <t>FOR CONNECTING TO JFROG CREATE SETTINGS.XML AND PLACE INTO /ROOT/.M2 FOLDER.</t>
+  </si>
+  <si>
+    <t>FOR PASSWORD ENCRYPTION USE MAVEN ENCRYPTION TOOL</t>
+  </si>
+  <si>
+    <t>DOWNLOAD THE .WAR FILE FROM JFROF REPOSITORY.</t>
+  </si>
+  <si>
+    <t>SONARCLOUD</t>
+  </si>
+  <si>
+    <t>ASSIGN THE ENVIRONMENT VARIABLE</t>
+  </si>
+  <si>
+    <t>UPDATE THE SETTINGS IN POM.XML</t>
+  </si>
+  <si>
+    <t>RUN MVN VERIFY TO CHECK THE CODE AND PUBLISH THE RESULTS TO SONAR CLOUD</t>
+  </si>
+  <si>
+    <t>PRE-REQUISITES JAVA 11</t>
+  </si>
+  <si>
+    <t>UDEMY-JENKINS ZTH, DPT 22, 23, 25, 26, 41, 42, DCC K8S PROJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I CAN UPDATE THIS PROJECT AS DONE WHEN I AM IN TCS, AS THIS SEEMS TO BE VERY OLD PROJECT. TILLER, NO ONE IS USING. </t>
+  </si>
+  <si>
+    <t>UDEMY-RD-SERVERLESS/JIRA</t>
+  </si>
+  <si>
+    <t>AWS TERRAFORM - PROJECT</t>
+  </si>
+  <si>
+    <t>DPT - PROJECT</t>
+  </si>
+  <si>
+    <t>K8S - RJS</t>
+  </si>
+  <si>
+    <t>ROCKING SYSTEM DESIGN - RJS</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING K8S</t>
+  </si>
+  <si>
+    <t>K8S HANDS ON</t>
+  </si>
+  <si>
+    <t>AWS VPC TG</t>
+  </si>
+  <si>
+    <t>K8S LEVEL UP 360</t>
+  </si>
+  <si>
+    <t>DEVSECOPS</t>
+  </si>
+  <si>
+    <t>AWS EKS KALYAN REDDY</t>
+  </si>
+  <si>
+    <t>RESUME BUILD/DEVOPS RESPONSIBILITIES VIDEO</t>
+  </si>
+  <si>
+    <t>1ST WEEK</t>
+  </si>
+  <si>
+    <t>10 ~ 16</t>
+  </si>
+  <si>
+    <t>2ND WEEK</t>
+  </si>
+  <si>
+    <t>17 ~ 23</t>
+  </si>
+  <si>
+    <t>3RD WEEK</t>
+  </si>
+  <si>
+    <t>24 ~ 30</t>
+  </si>
+  <si>
+    <t>SOME TOPICS FROM AWS LAMBDA COURSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Linux </t>
+  </si>
+  <si>
+    <t>2) Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Kubernetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Terraform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) 1 cloud (Azure/AWS/GCP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) CI/CD Pipelines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Ansible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8) Git /Github </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) Programming Language ( Python ) </t>
+  </si>
+  <si>
+    <t>10) bash</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>NEW COURSES GO THROUGH</t>
+  </si>
+  <si>
+    <t>JIRA, TROUBLESHOOTING K8S</t>
+  </si>
+  <si>
+    <t>K8S - RJS, ROCKING SYSTEM DESIGN - RJS</t>
+  </si>
+  <si>
+    <t>DEVSECOPS, AWS VPC TG</t>
+  </si>
+  <si>
+    <t>ULTIMATE CKA</t>
+  </si>
+  <si>
+    <t>COMPLETE K8S - GAURAV SHAH</t>
+  </si>
+  <si>
+    <t>INTERVIEW QUESTIONS GATHER &amp; FORMAT</t>
+  </si>
+  <si>
+    <t>ALL YT CHANNELS</t>
+  </si>
+  <si>
+    <t>DEVOPS LEVEL UP 360 - ANSHUL CHAUHAN</t>
+  </si>
+  <si>
+    <t>1. GIT (SECTIONS 1 - 7)</t>
+  </si>
+  <si>
+    <t>2. JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>3. DOCKER (SECTIONS 20 - 31)</t>
+  </si>
+  <si>
+    <t>4. KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>5. TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>3. MAVEN, SONARQUBE, JFROG INTEGRATION (SECTION 47), APACHE H, TC,NGX</t>
+  </si>
+  <si>
+    <t>6. ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>7. AWS</t>
+  </si>
+  <si>
+    <t>PROJECTS &amp; UPLOAD GIT HUB</t>
+  </si>
+  <si>
+    <t>JOB SCENARIO (SECTION 58 - 62)</t>
+  </si>
+  <si>
+    <t>TERRAFORM KALYAN REDDY</t>
+  </si>
+  <si>
+    <t>SIMPLE DEVOPS AR REDDY</t>
+  </si>
+  <si>
+    <t>DPT PROJECT PR REDDY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1814,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1664,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1783,6 +2033,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2903,6 +3159,603 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44567</v>
+      </c>
+      <c r="B2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I2" t="s">
+        <v>547</v>
+      </c>
+      <c r="M2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>44568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I3" t="s">
+        <v>548</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>44569</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" t="s">
+        <v>566</v>
+      </c>
+      <c r="I4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44570</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I5" t="s">
+        <v>550</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44571</v>
+      </c>
+      <c r="B6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I6" t="s">
+        <v>551</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="I8" t="s">
+        <v>553</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" t="s">
+        <v>554</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44575</v>
+      </c>
+      <c r="B10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" t="s">
+        <v>570</v>
+      </c>
+      <c r="I10" t="s">
+        <v>555</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44576</v>
+      </c>
+      <c r="B11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" t="s">
+        <v>570</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44577</v>
+      </c>
+      <c r="B12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" t="s">
+        <v>572</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44579</v>
+      </c>
+      <c r="B14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" t="s">
+        <v>573</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44580</v>
+      </c>
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" t="s">
+        <v>573</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44581</v>
+      </c>
+      <c r="B16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" t="s">
+        <v>577</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44582</v>
+      </c>
+      <c r="B17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" t="s">
+        <v>574</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" s="46"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44583</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" t="s">
+        <v>574</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>44584</v>
+      </c>
+      <c r="B19" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" t="s">
+        <v>575</v>
+      </c>
+      <c r="N19" s="46"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44585</v>
+      </c>
+      <c r="B20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" t="s">
+        <v>575</v>
+      </c>
+      <c r="M20" t="s">
+        <v>415</v>
+      </c>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>44586</v>
+      </c>
+      <c r="B21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" t="s">
+        <v>575</v>
+      </c>
+      <c r="M21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44587</v>
+      </c>
+      <c r="B22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" t="s">
+        <v>575</v>
+      </c>
+      <c r="M22" t="s">
+        <v>416</v>
+      </c>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>44588</v>
+      </c>
+      <c r="B23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" t="s">
+        <v>576</v>
+      </c>
+      <c r="M23" t="s">
+        <v>417</v>
+      </c>
+      <c r="N23" s="46"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44589</v>
+      </c>
+      <c r="B24" t="s">
+        <v>559</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" t="s">
+        <v>576</v>
+      </c>
+      <c r="M24" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44590</v>
+      </c>
+      <c r="B25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44591</v>
+      </c>
+      <c r="B26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>44592</v>
+      </c>
+      <c r="B27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44593</v>
+      </c>
+      <c r="B28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>44594</v>
+      </c>
+      <c r="B29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>44596</v>
+      </c>
+      <c r="B31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="D31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>44597</v>
+      </c>
+      <c r="B32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>44598</v>
+      </c>
+      <c r="B33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>44599</v>
+      </c>
+      <c r="B34" t="s">
+        <v>562</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>44600</v>
+      </c>
+      <c r="B35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C30"/>
+    <mergeCell ref="C31:C34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
@@ -8400,7 +9253,7 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:X10"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9241,11 +10094,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R65" sqref="R65:R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9265,7 +10118,7 @@
         <v>175</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -9282,7 +10135,7 @@
         <v>176</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -10117,7 +10970,7 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P39" s="1"/>
       <c r="S39" s="20"/>
@@ -10126,39 +10979,42 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="22">
         <v>42</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="16">
         <v>44565</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>501</v>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>408</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="22">
         <v>41</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="16">
         <v>44566</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
-        <v>432</v>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="H41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -10176,10 +11032,10 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="H42" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -10196,9 +11052,7 @@
         <v>140</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
-        <v>209</v>
-      </c>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -10211,9 +11065,7 @@
         <v>141</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>209</v>
-      </c>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -10229,9 +11081,7 @@
         <v>142</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>208</v>
-      </c>
+      <c r="G45" s="9"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="41"/>
@@ -10239,7 +11089,7 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C46" s="2">
         <v>36</v>
@@ -10254,10 +11104,10 @@
         <v>308</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P46" s="11"/>
     </row>
@@ -10278,10 +11128,10 @@
         <v>308</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P47" s="34"/>
     </row>
@@ -10302,14 +11152,14 @@
         <v>308</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P48" s="34"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>259</v>
       </c>
@@ -10326,14 +11176,14 @@
         <v>308</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P49" s="34"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>414</v>
       </c>
@@ -10350,14 +11200,14 @@
         <v>308</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P50" s="34"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>260</v>
       </c>
@@ -10374,14 +11224,14 @@
         <v>308</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P51" s="34"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>420</v>
       </c>
@@ -10398,14 +11248,14 @@
         <v>308</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P52" s="34"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>261</v>
       </c>
@@ -10422,12 +11272,12 @@
         <v>308</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P53" s="34"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
         <v>165</v>
       </c>
       <c r="C54" s="2">
@@ -10443,15 +11293,15 @@
         <v>308</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>265</v>
       </c>
@@ -10468,17 +11318,17 @@
         <v>308</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I55" s="42">
         <v>1</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K55" s="42"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>26</v>
       </c>
@@ -10492,17 +11342,17 @@
         <v>308</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I56" s="42">
         <v>2</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K56" s="42"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>415</v>
       </c>
@@ -10519,18 +11369,18 @@
         <v>308</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="42">
         <v>3</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K57" s="42"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>411</v>
       </c>
@@ -10547,18 +11397,18 @@
         <v>308</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="42">
         <v>4</v>
       </c>
       <c r="J58" s="43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K58" s="42"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>416</v>
       </c>
@@ -10575,11 +11425,11 @@
         <v>308</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H59" s="33"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>417</v>
       </c>
@@ -10596,14 +11446,14 @@
         <v>308</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H60" s="33"/>
       <c r="J60" s="42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>418</v>
       </c>
@@ -10620,14 +11470,14 @@
         <v>308</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H61" s="33"/>
       <c r="J61" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <v>20</v>
       </c>
@@ -10641,14 +11491,20 @@
         <v>308</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H62" s="33"/>
       <c r="J62" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>539</v>
+      </c>
+      <c r="R62" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <v>19</v>
       </c>
@@ -10665,8 +11521,17 @@
         <v>410</v>
       </c>
       <c r="H63" s="33"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>541</v>
+      </c>
+      <c r="R63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="47" t="s">
+        <v>546</v>
+      </c>
       <c r="C64" s="2">
         <v>18</v>
       </c>
@@ -10683,8 +11548,17 @@
         <v>410</v>
       </c>
       <c r="H64" s="33"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>543</v>
+      </c>
+      <c r="R64" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>547</v>
+      </c>
       <c r="C65" s="2">
         <v>17</v>
       </c>
@@ -10701,8 +11575,23 @@
         <v>410</v>
       </c>
       <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>11.5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>265</v>
+      </c>
+      <c r="R65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>548</v>
+      </c>
       <c r="C66" s="2">
         <v>16</v>
       </c>
@@ -10716,11 +11605,26 @@
         <v>308</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="H66" s="33"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>532</v>
+      </c>
+      <c r="R66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>549</v>
+      </c>
       <c r="C67" s="2">
         <v>15</v>
       </c>
@@ -10734,11 +11638,26 @@
         <v>308</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="H67" s="33"/>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="R67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>550</v>
+      </c>
       <c r="C68" s="2">
         <v>14</v>
       </c>
@@ -10752,11 +11671,26 @@
         <v>308</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H68" s="33"/>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>7.5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>531</v>
+      </c>
+      <c r="R68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>551</v>
+      </c>
       <c r="C69" s="2">
         <v>13</v>
       </c>
@@ -10770,11 +11704,26 @@
         <v>308</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H69" s="33"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69">
+        <v>13</v>
+      </c>
+      <c r="N69" t="s">
+        <v>536</v>
+      </c>
+      <c r="R69" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>552</v>
+      </c>
       <c r="C70" s="2">
         <v>12</v>
       </c>
@@ -10788,10 +11737,25 @@
         <v>308</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="L70">
+        <v>8</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>534</v>
+      </c>
+      <c r="R70" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>553</v>
+      </c>
       <c r="C71" s="2">
         <v>11</v>
       </c>
@@ -10805,10 +11769,22 @@
         <v>308</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="L71">
+        <v>9</v>
+      </c>
+      <c r="M71">
+        <v>19</v>
+      </c>
+      <c r="N71" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>554</v>
+      </c>
       <c r="C72" s="2">
         <v>10</v>
       </c>
@@ -10824,8 +11800,20 @@
       <c r="G72" s="9" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="M72" s="45">
+        <v>28</v>
+      </c>
+      <c r="N72" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="R72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>555</v>
+      </c>
       <c r="C73" s="2">
         <v>9</v>
       </c>
@@ -10839,10 +11827,19 @@
         <v>308</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="M73" s="45">
+        <v>62.5</v>
+      </c>
+      <c r="N73" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="R73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <v>8</v>
       </c>
@@ -10856,8 +11853,14 @@
         <v>308</v>
       </c>
       <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="R74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
         <v>7</v>
       </c>
@@ -10874,8 +11877,11 @@
       <c r="H75" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <v>6</v>
       </c>
@@ -10889,8 +11895,11 @@
         <v>308</v>
       </c>
       <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
         <v>5</v>
       </c>
@@ -10904,8 +11913,11 @@
         <v>308</v>
       </c>
       <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
         <v>4</v>
       </c>
@@ -10919,8 +11931,11 @@
         <v>308</v>
       </c>
       <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <v>3</v>
       </c>
@@ -10934,8 +11949,11 @@
         <v>308</v>
       </c>
       <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
         <v>2</v>
       </c>
@@ -10949,8 +11967,11 @@
         <v>308</v>
       </c>
       <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <v>1</v>
       </c>
@@ -10967,54 +11988,161 @@
       <c r="H81" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="R81" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R86" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="G91" s="11"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>270</v>
       </c>
+      <c r="G92" s="11"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G93" s="11"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>393</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>394</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>395</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>396</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F97" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>397</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>403</v>
+      </c>
+      <c r="F99" s="11"/>
     </row>
   </sheetData>
   <sortState ref="C39:C81">
     <sortCondition descending="1" ref="C39"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F97" r:id="rId1" display="https://www.youtube.com/watch?v=OKqXp-OaMag"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11022,220 +12150,346 @@
         <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="G2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="G3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="G4" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
+        <v>403</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="C27" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="C29" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
+      <c r="C30" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>507</v>
+      </c>
+      <c r="C34" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C44" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -11260,6 +12514,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1" display="https://www.youtube.com/watch?v=OKqXp-OaMag"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24600" windowWidth="28800" windowHeight="12420" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="25200" windowWidth="28800" windowHeight="12420" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="586">
   <si>
     <t>SNO</t>
   </si>
@@ -1717,9 +1717,6 @@
     <t>NEW COURSES GO THROUGH</t>
   </si>
   <si>
-    <t>JIRA, TROUBLESHOOTING K8S</t>
-  </si>
-  <si>
     <t>K8S - RJS, ROCKING SYSTEM DESIGN - RJS</t>
   </si>
   <si>
@@ -1778,6 +1775,12 @@
   </si>
   <si>
     <t>DPT PROJECT PR REDDY</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>JIRA, TROUBLESHOOTING K8S, RESUME POINTS FOR JIRA</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1909,12 +1912,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2031,13 +2060,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3164,7 +3212,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,587 +3220,596 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="48">
         <v>44567</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>44568</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="I2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>44568</v>
-      </c>
-      <c r="B3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" t="s">
-        <v>565</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F3" t="s">
         <v>548</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>2</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
-      <c r="M3" s="45" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="48">
         <v>44569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" t="s">
-        <v>566</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4" t="s">
         <v>549</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>408</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="45" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="48">
         <v>44570</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5" t="s">
         <v>550</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>409</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="48">
         <v>44571</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" t="s">
-        <v>567</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" t="s">
         <v>551</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>410</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" s="45" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="48">
         <v>44572</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" t="s">
         <v>552</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>259</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
         <v>44573</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D8" t="s">
-        <v>570</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="F8" t="s">
         <v>553</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>412</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="45" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="48">
         <v>44574</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" t="s">
-        <v>570</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F9" t="s">
         <v>554</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>458</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
-      <c r="M9" s="45" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="48">
         <v>44575</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" t="s">
-        <v>570</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" t="s">
         <v>555</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
-      <c r="M10" s="45" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="48">
         <v>44576</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" t="s">
+      <c r="C11" s="50" t="s">
         <v>570</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="L11">
         <v>6</v>
       </c>
-      <c r="M11" s="45" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="48">
         <v>44577</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="C12" s="51"/>
+      <c r="D12" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
         <v>44578</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="3" t="s">
         <v>572</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>414</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="45" t="s">
-        <v>414</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="48">
         <v>44579</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" t="s">
-        <v>573</v>
+      <c r="C14" s="51"/>
+      <c r="D14" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
-      <c r="M14" s="45" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="48">
         <v>44580</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="3" t="s">
         <v>573</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>420</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
-      <c r="M15" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="N15" s="46"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="48">
         <v>44581</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" t="s">
-        <v>577</v>
+      <c r="C16" s="51"/>
+      <c r="D16" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>261</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
-      <c r="M16" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="48">
         <v>44582</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="3" t="s">
         <v>574</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>165</v>
       </c>
       <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="N17" s="46"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="48">
         <v>44583</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="J18" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="N18" s="46"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="48">
         <v>44584</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="N19" s="45"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>44585</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="J20" t="s">
+        <v>415</v>
+      </c>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>44586</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="J21" t="s">
+        <v>411</v>
+      </c>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>44587</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="N19" s="46"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44585</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="J22" t="s">
+        <v>416</v>
+      </c>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>44588</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J23" t="s">
+        <v>417</v>
+      </c>
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>44589</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J24" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>44591</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>44592</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" t="s">
-        <v>575</v>
-      </c>
-      <c r="M20" t="s">
-        <v>415</v>
-      </c>
-      <c r="N20" s="46"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>44586</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>44593</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" t="s">
-        <v>575</v>
-      </c>
-      <c r="M21" t="s">
-        <v>411</v>
-      </c>
-      <c r="N21" s="46"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>44587</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="48">
+        <v>44594</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" t="s">
-        <v>575</v>
-      </c>
-      <c r="M22" t="s">
-        <v>416</v>
-      </c>
-      <c r="N22" s="46"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>44588</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>44595</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" t="s">
-        <v>576</v>
-      </c>
-      <c r="M23" t="s">
-        <v>417</v>
-      </c>
-      <c r="N23" s="46"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>44589</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="48">
+        <v>44596</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" t="s">
-        <v>576</v>
-      </c>
-      <c r="M24" t="s">
-        <v>418</v>
-      </c>
-      <c r="N24" s="46"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>44590</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C31" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>44597</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>44591</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>44598</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>44592</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="48">
+        <v>44599</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>44593</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="48">
+        <v>44600</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>44594</v>
-      </c>
-      <c r="B29" t="s">
-        <v>557</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>44595</v>
-      </c>
-      <c r="B30" t="s">
-        <v>558</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>44596</v>
-      </c>
-      <c r="B31" t="s">
-        <v>559</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="D31" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>44597</v>
-      </c>
-      <c r="B32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>44598</v>
-      </c>
-      <c r="B33" t="s">
-        <v>561</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>44599</v>
-      </c>
-      <c r="B34" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>44600</v>
-      </c>
-      <c r="B35" t="s">
-        <v>556</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C30"/>
     <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11277,7 +11334,7 @@
       <c r="P53" s="34"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="44" t="s">
         <v>165</v>
       </c>
       <c r="C54" s="2">
@@ -11529,7 +11586,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="46" t="s">
         <v>546</v>
       </c>
       <c r="C64" s="2">
@@ -11800,10 +11857,10 @@
       <c r="G72" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="M72" s="45">
+      <c r="M72" s="44">
         <v>28</v>
       </c>
-      <c r="N72" s="45" t="s">
+      <c r="N72" s="44" t="s">
         <v>533</v>
       </c>
       <c r="R72" t="s">
@@ -11829,10 +11886,10 @@
       <c r="G73" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="M73" s="45">
+      <c r="M73" s="44">
         <v>62.5</v>
       </c>
-      <c r="N73" s="45" t="s">
+      <c r="N73" s="44" t="s">
         <v>535</v>
       </c>
       <c r="R73" t="s">
@@ -11988,7 +12045,7 @@
       <c r="H81" t="s">
         <v>219</v>
       </c>
-      <c r="R81" s="45" t="s">
+      <c r="R81" s="44" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12129,11 +12186,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="G1" t="s">
         <v>393</v>
       </c>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25200" windowWidth="28800" windowHeight="12420" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="25800" windowWidth="28800" windowHeight="12420" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -22,8 +22,200 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+NEED TO STUDY ALL THE ISSUES MENTIONED IN THE COURSE.
+NOTE DOWN THE COMMANDS USED.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AFTER INSTALLING EKSCTL CHECK THE RESOURCES IT WILL CREATE IN CLOUDFORMATION.
+CONCENTRATE ON ROLLING UPDATE AND UPGRADE OF MANAGED CP AND NODE GROUPS.
+EFK STACK WITH BOTH FLUENTD AND FLUENTBIT.
+EKS CONTROL PLANE LOGGING &amp; MANAGED NODE LOGGING.
+CLOUDWATCH CONTAINER INSIGHTS
+HPA, CNA, RELATION BETWEEN BOTH HPA, CNA, &amp; AWS AUTOSCALLER
+VPA, GOLDILOCKS
+NAMESPACES
+EKS INGRESS VERY IMP
+SERVICE MESH
+CNI
+K8S NETWORK POLICY
+SERVICE MESH VS N/W POLICY ENFORCER
+RBAC
+SERVICE ACCOUNT
+SECURITY
+KUBECONFIG (CONTEXT)
+AWS IAM AUTHENTICATOR
+FARGATE
+ADVANTAGES OF DEVOPS
+BUILDSPEC.YML FILE
+GITOPS
+FOR RESUME
+JENKINS CI/CD PIPELINE
+GALICO FOR REQUEST AND LIMITS
+CONFIGURED INGRESS CONTROLLER
+SERVICE ACCOUNT FOR IAM ROLE
+COST OPTIMIZATION WITH KUBECOST
+CONFIGURED WITH AWS DEVOPS
+JIRA
+JIRA/SLACK JENKINS INTEGRATION
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LOAD BALANCERS
+API VS ALB DIFFERENCES
+MONOLITH VS MICROSERVICES
+MESSAGING VS STREAMING
+SQL VS NO SQL IMP
+DR - STRATEGIES
+RPO/RTO
+ENCRYPTION
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DEVOPS VS DEVSECOPS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">GIT HOOKS
+GIT PUSH STAGE: TALISMAN
+UNIT TEST: MUTATION TEST(PIT TEST) - IT WILL CHANGE THE USE CASES
+SAST - STATIC ANALYSIS - SONAR QUBE, QUALITY GATES-SETTING THRESHOLD
+CODE VULNERABILITY SCANNING
+DEPEDENCY CHECKER - IDENTIFIES DEPENDENCY VULNERABILITIES
+TRIVY - SAME AS ABOVE BUT ALSO CHECKS OS PACKAGES &amp; APPLICATION DEPENCIES
+OPA CONFTEST - TO TEST THE DOCKER FILES, K8S MANIFESTS, TERRAFORM CODES
+CHECKING K8S VULNERABILITIES
+OPA CONFTEST (K8S DEPLOYMENT YAML)
+KUBESEC 
+TRIVY (SCAN APP IMAGE)
+INTEGRATION TEST - WHEN APPLICATIONS CONNECTING EACH OTHER
+DAST - THE TEST EXECUTED WHEN THE APPLICATION IS RUNNING. THIS IS MOSTLY RUN IN QA ENVIRONMENT.
+OWASP ZAP USED FOR DAST
+OPEN API
+SLACK - INTEGRATING WITH JENKINS - ABLE TO SEND BUILD STATE INFORMATION.
+BEFORE MOVING APPLICATION TO PROD, DO CIS BENCHMARKING FOR K8S - KUBE BENCH
+ISTIO FOR POD COMMUNICATION, ENCRYPTION
+MONITORING
+KUBE-SCAN
+FALCO
+HELM
+SLACK
+PROMETHEUS &amp; GRAFANA
+K8S SECRETS &amp; ITS DRAWBACKS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="603">
   <si>
     <t>SNO</t>
   </si>
@@ -1426,9 +1618,6 @@
     <t>HOW DOES IT SOLVES</t>
   </si>
   <si>
-    <t xml:space="preserve">FOR ANY NEW TOOL, THE FIRST THING WE NEED TO LEARN IS TO ARCHITECTURE, </t>
-  </si>
-  <si>
     <t xml:space="preserve">HOW THE TOOL WORKS AND WHAT PROBLEM THE TOOLS IS SOLVING FOR US, </t>
   </si>
   <si>
@@ -1717,18 +1906,6 @@
     <t>NEW COURSES GO THROUGH</t>
   </si>
   <si>
-    <t>K8S - RJS, ROCKING SYSTEM DESIGN - RJS</t>
-  </si>
-  <si>
-    <t>DEVSECOPS, AWS VPC TG</t>
-  </si>
-  <si>
-    <t>ULTIMATE CKA</t>
-  </si>
-  <si>
-    <t>COMPLETE K8S - GAURAV SHAH</t>
-  </si>
-  <si>
     <t>INTERVIEW QUESTIONS GATHER &amp; FORMAT</t>
   </si>
   <si>
@@ -1741,27 +1918,6 @@
     <t>1. GIT (SECTIONS 1 - 7)</t>
   </si>
   <si>
-    <t>2. JENKINS (SECTIONS 8 - 19)</t>
-  </si>
-  <si>
-    <t>3. DOCKER (SECTIONS 20 - 31)</t>
-  </si>
-  <si>
-    <t>4. KUBERNETES (SECTIONS 32 - 46)</t>
-  </si>
-  <si>
-    <t>5. TERRAFORM (SECTIONS 48 - 57)</t>
-  </si>
-  <si>
-    <t>3. MAVEN, SONARQUBE, JFROG INTEGRATION (SECTION 47), APACHE H, TC,NGX</t>
-  </si>
-  <si>
-    <t>6. ANSIBLE (SECTIONS 63 - 78)</t>
-  </si>
-  <si>
-    <t>7. AWS</t>
-  </si>
-  <si>
     <t>PROJECTS &amp; UPLOAD GIT HUB</t>
   </si>
   <si>
@@ -1781,13 +1937,100 @@
   </si>
   <si>
     <t>JIRA, TROUBLESHOOTING K8S, RESUME POINTS FOR JIRA</t>
+  </si>
+  <si>
+    <t>2.1 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>2.2 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>3.1 MAVEN, SONARQUBE, JFROG INTEGRATION (SECTION 47), APACHE H, TC,NGX</t>
+  </si>
+  <si>
+    <t>3.2 DOCKER (SECTIONS 20 - 31)</t>
+  </si>
+  <si>
+    <t>3.3 DOCKER (SECTIONS 20 - 31)</t>
+  </si>
+  <si>
+    <t>4.1 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.2 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.3 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.4 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.5 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>5.2 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>5.3 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>5.4 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>6.1 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>6.2 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>6.3 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>7.1 AWS</t>
+  </si>
+  <si>
+    <t>7.2 AWS</t>
+  </si>
+  <si>
+    <t>K8S - RJS, ROCKING SYSTEM DESIGN - RJS, AWS VPC TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR ANY NEW TOPIC/TOOL, THE FIRST THING WE NEED TO LEARN IS TO ARCHITECTURE, </t>
+  </si>
+  <si>
+    <t>7.3 AWS</t>
+  </si>
+  <si>
+    <t>4.6 DEVSECOPS [UPDATE ALL THE JENKINS PLUGINS USED] - USEFUL FOR BUILD FAILURES</t>
+  </si>
+  <si>
+    <t>4.7 INTEGRATING ALL THE DEVSECOPS TOOLS WITH JENKINS AND WRITING JENKINS FILE.</t>
+  </si>
+  <si>
+    <t>4.8 ISTIO - ALL DEVSECOPS</t>
+  </si>
+  <si>
+    <t>RESUME UPLOAD</t>
+  </si>
+  <si>
+    <t>5.1 TERRAFORM (SECTIONS 48 - 57) LEARN ABOUT NEW VERSION 1.1</t>
+  </si>
+  <si>
+    <t>ALL YT CHANNELS - INTERVIEW QUESTIONS</t>
+  </si>
+  <si>
+    <t>DEVSECOPS , AWS EKS BY KRD, ULTIMATE CKA, COMPLETE K8S</t>
+  </si>
+  <si>
+    <t>7.4 AWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1823,6 +2066,32 @@
       <color rgb="FF030303"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1943,7 +2212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2063,11 +2332,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2079,15 +2351,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3208,11 +3480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3492,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3231,51 +3503,51 @@
         <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F1" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>44567</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" t="s">
         <v>546</v>
-      </c>
-      <c r="J1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
-        <v>44567</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F2" t="s">
-        <v>547</v>
       </c>
       <c r="J2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="58">
         <v>44568</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="3" t="s">
-        <v>564</v>
+      <c r="B3" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="54" t="s">
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>2</v>
@@ -3285,18 +3557,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="47">
         <v>44569</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>559</v>
+      </c>
+      <c r="C4" s="57"/>
       <c r="D4" s="3" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="F4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>408</v>
@@ -3306,18 +3578,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="47">
         <v>44570</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C5" s="49"/>
+        <v>560</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>563</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="F5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>409</v>
@@ -3326,19 +3600,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
         <v>44571</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>410</v>
@@ -3348,18 +3622,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>44572</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="49"/>
+        <v>555</v>
+      </c>
+      <c r="C7" s="50"/>
       <c r="D7" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>259</v>
@@ -3369,20 +3643,20 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>44573</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>568</v>
+        <v>556</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>565</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>412</v>
@@ -3391,19 +3665,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
         <v>44574</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="54"/>
+        <v>557</v>
+      </c>
+      <c r="C9" s="52"/>
       <c r="D9" s="3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>458</v>
@@ -3413,18 +3687,18 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>44575</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C10" s="55"/>
+        <v>558</v>
+      </c>
+      <c r="C10" s="52"/>
       <c r="D10" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>166</v>
@@ -3433,18 +3707,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
         <v>44576</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>570</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C11" s="52"/>
       <c r="D11" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>151</v>
@@ -3454,27 +3726,27 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>44577</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
+        <v>44578</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
-        <v>44578</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>414</v>
@@ -3484,15 +3756,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>44579</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C14" s="51"/>
+        <v>555</v>
+      </c>
+      <c r="C14" s="52"/>
       <c r="D14" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J14" s="44" t="s">
         <v>260</v>
@@ -3502,15 +3774,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>44580</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C15" s="51"/>
+        <v>556</v>
+      </c>
+      <c r="C15" s="52"/>
       <c r="D15" s="3" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="J15" s="44" t="s">
         <v>420</v>
@@ -3521,15 +3793,15 @@
       <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>44581</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C16" s="51"/>
+        <v>557</v>
+      </c>
+      <c r="C16" s="52"/>
       <c r="D16" s="3" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>261</v>
@@ -3540,15 +3812,15 @@
       <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>44582</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>558</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="3" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="J17" s="44" t="s">
         <v>165</v>
@@ -3559,15 +3831,15 @@
       <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>44583</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" s="51"/>
+        <v>559</v>
+      </c>
+      <c r="C18" s="52"/>
       <c r="D18" s="3" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>265</v>
@@ -3575,241 +3847,317 @@
       <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>44584</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="N19" s="45"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>44585</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="N19" s="45"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
-        <v>44585</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
+        <v>44586</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <v>44587</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
+        <v>44588</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J23" t="s">
         <v>415</v>
       </c>
-      <c r="N20" s="45"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
-        <v>44586</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
+        <v>44589</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="J24" t="s">
+        <v>411</v>
+      </c>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
+        <v>44590</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="J25" t="s">
+        <v>416</v>
+      </c>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
+        <v>44591</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J26" t="s">
+        <v>417</v>
+      </c>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
+        <v>44592</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="J27" t="s">
+        <v>418</v>
+      </c>
+      <c r="N27" s="45"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
+        <v>44593</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
+        <v>44594</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="J21" t="s">
-        <v>411</v>
-      </c>
-      <c r="N21" s="45"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
-        <v>44587</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
+        <v>44595</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J22" t="s">
-        <v>416</v>
-      </c>
-      <c r="N22" s="45"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
-        <v>44588</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J23" t="s">
-        <v>417</v>
-      </c>
-      <c r="N23" s="45"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
-        <v>44589</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="J24" t="s">
-        <v>418</v>
-      </c>
-      <c r="N24" s="45"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
-        <v>44590</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
-        <v>44591</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
-        <v>44592</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
-        <v>44593</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
-        <v>44594</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
-        <v>44595</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="3" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="47">
         <v>44596</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
+        <v>44597</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C31" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
-        <v>44597</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="47">
+        <v>44598</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
-        <v>44598</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
+        <v>44599</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
-        <v>44599</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="47">
         <v>44600</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="47">
+        <v>44601</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="47">
+        <v>44602</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>44603</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="47">
+        <v>44604</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
+        <v>44605</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="47">
+        <v>44606</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C30"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C8:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10154,8 +10502,8 @@
   <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R65" sqref="R65:R88"/>
+      <pane ySplit="9" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11027,7 +11375,7 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P39" s="1"/>
       <c r="S39" s="20"/>
@@ -11047,10 +11395,10 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="J40" t="s">
         <v>525</v>
-      </c>
-      <c r="J40" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -11071,7 +11419,7 @@
         <v>367</v>
       </c>
       <c r="H41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -11089,10 +11437,10 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -11507,7 +11855,7 @@
       </c>
       <c r="H60" s="33"/>
       <c r="J60" s="42" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -11531,7 +11879,7 @@
       </c>
       <c r="H61" s="33"/>
       <c r="J61" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -11552,13 +11900,13 @@
       </c>
       <c r="H62" s="33"/>
       <c r="J62" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q62" t="s">
+        <v>538</v>
+      </c>
+      <c r="R62" t="s">
         <v>539</v>
-      </c>
-      <c r="R62" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
@@ -11579,15 +11927,15 @@
       </c>
       <c r="H63" s="33"/>
       <c r="Q63" t="s">
+        <v>540</v>
+      </c>
+      <c r="R63" t="s">
         <v>541</v>
-      </c>
-      <c r="R63" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C64" s="2">
         <v>18</v>
@@ -11606,15 +11954,15 @@
       </c>
       <c r="H64" s="33"/>
       <c r="Q64" t="s">
+        <v>542</v>
+      </c>
+      <c r="R64" t="s">
         <v>543</v>
-      </c>
-      <c r="R64" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C65" s="2">
         <v>17</v>
@@ -11642,12 +11990,12 @@
         <v>265</v>
       </c>
       <c r="R65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C66" s="2">
         <v>16</v>
@@ -11662,7 +12010,7 @@
         <v>308</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H66" s="33"/>
       <c r="L66">
@@ -11672,7 +12020,7 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R66" t="s">
         <v>407</v>
@@ -11680,7 +12028,7 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C67" s="2">
         <v>15</v>
@@ -11695,7 +12043,7 @@
         <v>308</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H67" s="33"/>
       <c r="L67">
@@ -11705,7 +12053,7 @@
         <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R67" t="s">
         <v>2</v>
@@ -11713,7 +12061,7 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C68" s="2">
         <v>14</v>
@@ -11738,7 +12086,7 @@
         <v>7.5</v>
       </c>
       <c r="N68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R68" t="s">
         <v>408</v>
@@ -11746,7 +12094,7 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C69" s="2">
         <v>13</v>
@@ -11771,7 +12119,7 @@
         <v>13</v>
       </c>
       <c r="N69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R69" t="s">
         <v>409</v>
@@ -11779,7 +12127,7 @@
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C70" s="2">
         <v>12</v>
@@ -11803,7 +12151,7 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R70" t="s">
         <v>410</v>
@@ -11811,7 +12159,7 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C71" s="2">
         <v>11</v>
@@ -11835,12 +12183,12 @@
         <v>19</v>
       </c>
       <c r="N71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C72" s="2">
         <v>10</v>
@@ -11861,7 +12209,7 @@
         <v>28</v>
       </c>
       <c r="N72" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R72" t="s">
         <v>412</v>
@@ -11869,7 +12217,7 @@
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C73" s="2">
         <v>9</v>
@@ -11890,7 +12238,7 @@
         <v>62.5</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R73" t="s">
         <v>458</v>
@@ -11911,7 +12259,7 @@
       </c>
       <c r="G74" s="9"/>
       <c r="N74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R74" t="s">
         <v>166</v>
@@ -12186,11 +12534,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="G1" t="s">
         <v>393</v>
       </c>
@@ -12207,10 +12555,10 @@
         <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s">
         <v>394</v>
@@ -12223,10 +12571,10 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
         <v>395</v>
@@ -12239,7 +12587,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
         <v>396</v>
@@ -12255,7 +12603,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G5" t="s">
         <v>397</v>
@@ -12269,7 +12617,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
         <v>403</v>
@@ -12280,115 +12628,115 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12399,47 +12747,47 @@
         <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -12447,22 +12795,22 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -12470,16 +12818,16 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12490,31 +12838,31 @@
         <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12522,28 +12870,28 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25800" windowWidth="28800" windowHeight="12420" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="27000" windowWidth="28800" windowHeight="12420" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="622">
   <si>
     <t>SNO</t>
   </si>
@@ -1909,15 +1909,9 @@
     <t>INTERVIEW QUESTIONS GATHER &amp; FORMAT</t>
   </si>
   <si>
-    <t>ALL YT CHANNELS</t>
-  </si>
-  <si>
     <t>DEVOPS LEVEL UP 360 - ANSHUL CHAUHAN</t>
   </si>
   <si>
-    <t>1. GIT (SECTIONS 1 - 7)</t>
-  </si>
-  <si>
     <t>PROJECTS &amp; UPLOAD GIT HUB</t>
   </si>
   <si>
@@ -2017,13 +2011,76 @@
     <t>5.1 TERRAFORM (SECTIONS 48 - 57) LEARN ABOUT NEW VERSION 1.1</t>
   </si>
   <si>
-    <t>ALL YT CHANNELS - INTERVIEW QUESTIONS</t>
-  </si>
-  <si>
     <t>DEVSECOPS , AWS EKS BY KRD, ULTIMATE CKA, COMPLETE K8S</t>
   </si>
   <si>
     <t>7.4 AWS</t>
+  </si>
+  <si>
+    <t>1.1 GIT (SECTIONS 1 - 7)</t>
+  </si>
+  <si>
+    <t>1.2 GIT (SECTIONS 1 - 7)</t>
+  </si>
+  <si>
+    <t>2.3 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>ALL YT CHANNELS - INTERVIEW QUESTIONS, AWS START</t>
+  </si>
+  <si>
+    <t>START WITH AWS - SAA</t>
+  </si>
+  <si>
+    <t>FINISH AWS - SAA &amp; START AWS SOP</t>
+  </si>
+  <si>
+    <t>FINISH AWS SOP &amp; START CHECKING INTERVIEW QUESTIONS</t>
+  </si>
+  <si>
+    <t>STUDY</t>
+  </si>
+  <si>
+    <t>PREPARE KIDS</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDS  </t>
+  </si>
+  <si>
+    <t>Storage Auto Scaling</t>
+  </si>
+  <si>
+    <t>Read Replicas for read scalability</t>
+  </si>
+  <si>
+    <t>Multi AZ</t>
+  </si>
+  <si>
+    <t>AWS AURORA</t>
+  </si>
+  <si>
+    <t>Aurora Replicas - Auto Scaling</t>
+  </si>
+  <si>
+    <t>Custom Endpoints</t>
+  </si>
+  <si>
+    <t>Aurora Serverless</t>
+  </si>
+  <si>
+    <t>Aurora Multi-Master</t>
+  </si>
+  <si>
+    <t>Global Aurora</t>
+  </si>
+  <si>
+    <t>Aurora Machine Learning</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2333,14 +2390,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2351,15 +2408,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3483,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,101 +3557,65 @@
         <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="J1" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="50">
         <v>44567</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>557</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>573</v>
-      </c>
-      <c r="F2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J2" t="s">
-        <v>407</v>
+      <c r="D2" s="48" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="50">
         <v>44568</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>558</v>
       </c>
       <c r="C3" s="57"/>
-      <c r="D3" s="54" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" t="s">
-        <v>547</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
+      <c r="D3" s="48" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="50">
         <v>44569</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="48" t="s">
         <v>559</v>
       </c>
       <c r="C4" s="57"/>
-      <c r="D4" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F4" t="s">
-        <v>548</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="D4" s="48" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
         <v>44570</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
+      <c r="D5" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3607,39 +3625,29 @@
       <c r="B6" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="54" t="s">
+        <v>564</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F6" t="s">
-        <v>550</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="E6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>44572</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F7" t="s">
-        <v>551</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
+        <v>589</v>
+      </c>
+      <c r="E7" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,20 +3657,12 @@
       <c r="B8" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>565</v>
-      </c>
+      <c r="C8" s="54"/>
       <c r="D8" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F8" t="s">
-        <v>552</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+        <v>592</v>
+      </c>
+      <c r="E8" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,18 +3672,12 @@
       <c r="B9" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="F9" t="s">
-        <v>553</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
+        <v>599</v>
+      </c>
+      <c r="E9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3693,18 +3687,9 @@
       <c r="B10" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F10" t="s">
-        <v>554</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,15 +3699,9 @@
       <c r="B11" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3732,9 +3711,9 @@
       <c r="B12" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,15 +3723,9 @@
       <c r="B13" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3762,15 +3735,9 @@
       <c r="B14" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3780,15 +3747,9 @@
       <c r="B15" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
+        <v>574</v>
       </c>
       <c r="N15" s="45"/>
     </row>
@@ -3799,15 +3760,9 @@
       <c r="B16" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
+        <v>575</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -3818,15 +3773,9 @@
       <c r="B17" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
+        <v>576</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -3837,12 +3786,9 @@
       <c r="B18" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>265</v>
+        <v>577</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -3853,9 +3799,9 @@
       <c r="B19" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="3" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -3866,9 +3812,9 @@
       <c r="B20" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="55" t="s">
-        <v>596</v>
+      <c r="C20" s="54"/>
+      <c r="D20" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -3879,9 +3825,9 @@
       <c r="B21" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="3" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -3892,9 +3838,9 @@
       <c r="B22" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="3" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -3905,12 +3851,9 @@
       <c r="B23" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="J23" t="s">
-        <v>415</v>
+        <v>593</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -3921,12 +3864,9 @@
       <c r="B24" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J24" t="s">
-        <v>411</v>
+      <c r="C24" s="54"/>
+      <c r="D24" s="49" t="s">
+        <v>594</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -3937,12 +3877,9 @@
       <c r="B25" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="J25" t="s">
-        <v>416</v>
+        <v>595</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -3953,12 +3890,9 @@
       <c r="B26" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J26" t="s">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -3969,12 +3903,9 @@
       <c r="B27" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J27" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -3985,9 +3916,9 @@
       <c r="B28" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3997,9 +3928,9 @@
       <c r="B29" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4009,9 +3940,9 @@
       <c r="B30" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4021,9 +3952,9 @@
       <c r="B31" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4033,9 +3964,9 @@
       <c r="B32" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,11 +3976,11 @@
       <c r="B33" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>567</v>
+      <c r="C33" s="53" t="s">
+        <v>565</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4059,9 +3990,9 @@
       <c r="B34" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,9 +4002,9 @@
       <c r="B35" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,9 +4014,9 @@
       <c r="B36" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,9 +4026,9 @@
       <c r="B37" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,15 +4076,14 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C32"/>
+    <mergeCell ref="C6:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11855,7 +11785,7 @@
       </c>
       <c r="H60" s="33"/>
       <c r="J60" s="42" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
@@ -12519,10 +12449,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B58"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12534,11 +12464,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="G1" t="s">
         <v>393</v>
       </c>
@@ -12685,61 +12615,169 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I21" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="M21" t="s">
+        <v>537</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>609</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21" t="s">
+        <v>607</v>
+      </c>
+      <c r="W21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>546</v>
+      </c>
+      <c r="M22" t="s">
+        <v>407</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>607</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>610</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>547</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s">
+        <v>607</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>609</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>548</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s">
+        <v>607</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>549</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25" t="s">
+        <v>607</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -12749,48 +12787,180 @@
       <c r="C26" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>550</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>607</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>551</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>552</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>9</v>
+      </c>
+      <c r="T28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>553</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29" t="s">
+        <v>607</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>554</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
+        <v>607</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M31" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31" t="s">
+        <v>607</v>
+      </c>
+      <c r="U31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>611</v>
+      </c>
+      <c r="R32">
+        <v>12</v>
+      </c>
+      <c r="S32">
+        <v>13</v>
+      </c>
+      <c r="T32" t="s">
+        <v>607</v>
+      </c>
+      <c r="U32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>612</v>
+      </c>
+      <c r="M33" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+      <c r="S33">
+        <v>14</v>
+      </c>
+      <c r="T33" t="s">
+        <v>607</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -12800,20 +12970,71 @@
       <c r="C34" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>613</v>
+      </c>
+      <c r="M34" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>15</v>
+      </c>
+      <c r="T34" t="s">
+        <v>607</v>
+      </c>
+      <c r="U34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>614</v>
+      </c>
+      <c r="M35" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="R35">
+        <v>15</v>
+      </c>
+      <c r="S35">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
+        <v>607</v>
+      </c>
+      <c r="U35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M36" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="R36">
+        <v>16</v>
+      </c>
+      <c r="S36">
+        <v>17</v>
+      </c>
+      <c r="T36" t="s">
+        <v>607</v>
+      </c>
+      <c r="U36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -12823,14 +13044,50 @@
       <c r="C37" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>615</v>
+      </c>
+      <c r="M37" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37">
+        <v>17</v>
+      </c>
+      <c r="S37">
+        <v>18</v>
+      </c>
+      <c r="T37" t="s">
+        <v>607</v>
+      </c>
+      <c r="U37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>616</v>
+      </c>
+      <c r="M38" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="R38">
+        <v>18</v>
+      </c>
+      <c r="S38">
+        <v>19</v>
+      </c>
+      <c r="T38" t="s">
+        <v>607</v>
+      </c>
+      <c r="U38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -12840,32 +13097,110 @@
       <c r="C39" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>617</v>
+      </c>
+      <c r="R39">
+        <v>19</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
+      </c>
+      <c r="T39" t="s">
+        <v>607</v>
+      </c>
+      <c r="U39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>618</v>
+      </c>
+      <c r="R40">
+        <v>20</v>
+      </c>
+      <c r="S40">
+        <v>21</v>
+      </c>
+      <c r="T40" t="s">
+        <v>607</v>
+      </c>
+      <c r="U40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>619</v>
+      </c>
+      <c r="R41">
+        <v>21</v>
+      </c>
+      <c r="S41">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s">
+        <v>607</v>
+      </c>
+      <c r="U41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>620</v>
+      </c>
+      <c r="R42">
+        <v>22</v>
+      </c>
+      <c r="S42">
+        <v>23</v>
+      </c>
+      <c r="T42" t="s">
+        <v>609</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>621</v>
+      </c>
+      <c r="M43" t="s">
+        <v>415</v>
+      </c>
+      <c r="R43">
+        <v>23</v>
+      </c>
+      <c r="S43">
+        <v>24</v>
+      </c>
+      <c r="T43" t="s">
+        <v>609</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -12875,26 +13210,50 @@
       <c r="C44" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>411</v>
+      </c>
+      <c r="R44">
+        <v>24</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>609</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="27000" windowWidth="28800" windowHeight="12420" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="27600" windowWidth="28800" windowHeight="12420" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="646">
   <si>
     <t>SNO</t>
   </si>
@@ -2029,15 +2029,6 @@
     <t>ALL YT CHANNELS - INTERVIEW QUESTIONS, AWS START</t>
   </si>
   <si>
-    <t>START WITH AWS - SAA</t>
-  </si>
-  <si>
-    <t>FINISH AWS - SAA &amp; START AWS SOP</t>
-  </si>
-  <si>
-    <t>FINISH AWS SOP &amp; START CHECKING INTERVIEW QUESTIONS</t>
-  </si>
-  <si>
     <t>STUDY</t>
   </si>
   <si>
@@ -2081,6 +2072,87 @@
   </si>
   <si>
     <t>Aurora Machine Learning</t>
+  </si>
+  <si>
+    <t>AWS Regions &amp; AZ</t>
+  </si>
+  <si>
+    <t>AWS SAA</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>AWS SAA SECTION 3</t>
+  </si>
+  <si>
+    <t>AWS ACCOUNT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>AWS SOS SECTION 16</t>
+  </si>
+  <si>
+    <t>AWS SAA SECTION 25, AWS SOS 21</t>
+  </si>
+  <si>
+    <t>DATABASE RDS, DYNAMODB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS SAA SECTION 9, 21, AWS SOS 14, </t>
+  </si>
+  <si>
+    <t>CACHING</t>
+  </si>
+  <si>
+    <t>AWS SAA 17, AWS SOS 22</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS SAA 12, 14, 16, AWS SOS 10, 11, 12, </t>
+  </si>
+  <si>
+    <t>EC2 INSTANCE STORAGE</t>
+  </si>
+  <si>
+    <t>AWS SAA 7, AWS SOS SECTION 9</t>
+  </si>
+  <si>
+    <t>CLOUDFRONT</t>
+  </si>
+  <si>
+    <t>AWS SAA 15, AWS SOS 13</t>
+  </si>
+  <si>
+    <t>AWS SOS</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>AWS SAA 5, 6, AWS SOS 3, 4, 5</t>
+  </si>
+  <si>
+    <t>CLOUDWATCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS SAA 22, AWS SOS 15, </t>
+  </si>
+  <si>
+    <t>HIGH AVAILABILITY</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>CLOUD FORMATION</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE VIDEOS</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2414,6 +2486,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3535,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,9 +3621,10 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
@@ -3563,7 +3638,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50">
         <v>44567</v>
       </c>
@@ -3576,8 +3651,23 @@
       <c r="D2" s="48" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H2" t="s">
+        <v>622</v>
+      </c>
+      <c r="L2" t="s">
+        <v>620</v>
+      </c>
+      <c r="M2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
         <v>44568</v>
       </c>
@@ -3588,8 +3678,23 @@
       <c r="D3" s="48" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H3" t="s">
+        <v>624</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="50">
         <v>44569</v>
       </c>
@@ -3600,8 +3705,23 @@
       <c r="D4" s="48" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H4" t="s">
+        <v>625</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>44570</v>
       </c>
@@ -3614,28 +3734,52 @@
       <c r="D5" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="E5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H5" t="s">
+        <v>640</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
         <v>44571</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="58" t="s">
         <v>561</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="E6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>626</v>
+      </c>
+      <c r="H6" t="s">
+        <v>627</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>44572</v>
       </c>
@@ -3646,11 +3790,23 @@
       <c r="D7" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>44573</v>
       </c>
@@ -3661,11 +3817,23 @@
       <c r="D8" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>630</v>
+      </c>
+      <c r="H8" t="s">
+        <v>631</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>44574</v>
       </c>
@@ -3676,11 +3844,23 @@
       <c r="D9" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>634</v>
+      </c>
+      <c r="H9" t="s">
+        <v>635</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>44575</v>
       </c>
@@ -3689,10 +3869,25 @@
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H10" t="s">
+        <v>633</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>44576</v>
       </c>
@@ -3701,10 +3896,25 @@
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>637</v>
+      </c>
+      <c r="H11" t="s">
+        <v>638</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>44577</v>
       </c>
@@ -3713,10 +3923,19 @@
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="G12" t="s">
+        <v>641</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>44578</v>
       </c>
@@ -3725,10 +3944,19 @@
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="G13" t="s">
+        <v>642</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>44579</v>
       </c>
@@ -3737,10 +3965,19 @@
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="G14" t="s">
+        <v>643</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>44580</v>
       </c>
@@ -3749,11 +3986,19 @@
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="N15" s="45"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>44581</v>
       </c>
@@ -3762,11 +4007,19 @@
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="N16" s="45"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>44582</v>
       </c>
@@ -3775,11 +4028,19 @@
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="N17" s="45"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="G17" t="s">
+        <v>645</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>44583</v>
       </c>
@@ -3788,11 +4049,19 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="N18" s="45"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="G18" t="s">
+        <v>644</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>44584</v>
       </c>
@@ -3801,11 +4070,16 @@
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="N19" s="45"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>44585</v>
       </c>
@@ -3814,11 +4088,16 @@
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="N20" s="45"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>44586</v>
       </c>
@@ -3827,11 +4106,16 @@
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="N21" s="45"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>44587</v>
       </c>
@@ -3840,11 +4124,16 @@
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="N22" s="45"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>44588</v>
       </c>
@@ -3853,11 +4142,16 @@
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="N23" s="45"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>44589</v>
       </c>
@@ -3865,12 +4159,17 @@
         <v>558</v>
       </c>
       <c r="C24" s="54"/>
-      <c r="D24" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="N24" s="45"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>44590</v>
       </c>
@@ -3879,11 +4178,16 @@
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="N25" s="45"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>44591</v>
       </c>
@@ -3892,11 +4196,16 @@
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="N26" s="45"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>44592</v>
       </c>
@@ -3905,11 +4214,14 @@
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="N27" s="45"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>44593</v>
       </c>
@@ -3918,10 +4230,13 @@
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>44594</v>
       </c>
@@ -3930,10 +4245,13 @@
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>44595</v>
       </c>
@@ -3942,10 +4260,13 @@
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>44596</v>
       </c>
@@ -3953,11 +4274,14 @@
         <v>558</v>
       </c>
       <c r="C31" s="54"/>
-      <c r="D31" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>44597</v>
       </c>
@@ -3966,10 +4290,13 @@
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>44598</v>
       </c>
@@ -3982,8 +4309,11 @@
       <c r="D33" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>44599</v>
       </c>
@@ -3995,7 +4325,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>44600</v>
       </c>
@@ -4007,7 +4337,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>44601</v>
       </c>
@@ -4019,7 +4349,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>44602</v>
       </c>
@@ -4031,7 +4361,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>44603</v>
       </c>
@@ -4043,7 +4373,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>44604</v>
       </c>
@@ -4055,7 +4385,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>44605</v>
       </c>
@@ -4067,7 +4397,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>44606</v>
       </c>
@@ -12451,7 +12781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -12657,13 +12987,13 @@
         <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U21">
         <v>4</v>
       </c>
       <c r="V21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="W21">
         <v>18</v>
@@ -12687,13 +13017,13 @@
         <v>3</v>
       </c>
       <c r="T22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="W22">
         <v>2</v>
@@ -12717,13 +13047,13 @@
         <v>4</v>
       </c>
       <c r="T23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="W23">
         <v>4</v>
@@ -12747,7 +13077,7 @@
         <v>5</v>
       </c>
       <c r="T24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U24">
         <v>3</v>
@@ -12771,7 +13101,7 @@
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U25">
         <v>4</v>
@@ -12800,7 +13130,7 @@
         <v>7</v>
       </c>
       <c r="T26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U26">
         <v>5</v>
@@ -12824,7 +13154,7 @@
         <v>8</v>
       </c>
       <c r="T27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -12845,7 +13175,7 @@
         <v>9</v>
       </c>
       <c r="T28" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -12866,7 +13196,7 @@
         <v>10</v>
       </c>
       <c r="T29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U29">
         <v>6</v>
@@ -12890,7 +13220,7 @@
         <v>11</v>
       </c>
       <c r="T30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U30">
         <v>7</v>
@@ -12911,7 +13241,7 @@
         <v>12</v>
       </c>
       <c r="T31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U31">
         <v>8</v>
@@ -12922,7 +13252,7 @@
         <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R32">
         <v>12</v>
@@ -12931,7 +13261,7 @@
         <v>13</v>
       </c>
       <c r="T32" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U32">
         <v>9</v>
@@ -12942,7 +13272,7 @@
         <v>508</v>
       </c>
       <c r="I33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M33" s="44" t="s">
         <v>414</v>
@@ -12954,7 +13284,7 @@
         <v>14</v>
       </c>
       <c r="T33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U33">
         <v>10</v>
@@ -12971,7 +13301,7 @@
         <v>505</v>
       </c>
       <c r="I34" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M34" s="44" t="s">
         <v>260</v>
@@ -12983,7 +13313,7 @@
         <v>15</v>
       </c>
       <c r="T34" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U34">
         <v>11</v>
@@ -12995,7 +13325,7 @@
         <v>511</v>
       </c>
       <c r="I35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M35" s="44" t="s">
         <v>420</v>
@@ -13007,7 +13337,7 @@
         <v>16</v>
       </c>
       <c r="T35" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U35">
         <v>12</v>
@@ -13028,7 +13358,7 @@
         <v>17</v>
       </c>
       <c r="T36" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U36">
         <v>13</v>
@@ -13045,7 +13375,7 @@
         <v>512</v>
       </c>
       <c r="I37" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M37" s="44" t="s">
         <v>165</v>
@@ -13057,7 +13387,7 @@
         <v>18</v>
       </c>
       <c r="T37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U37">
         <v>14</v>
@@ -13069,7 +13399,7 @@
         <v>513</v>
       </c>
       <c r="I38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M38" s="44" t="s">
         <v>265</v>
@@ -13081,7 +13411,7 @@
         <v>19</v>
       </c>
       <c r="T38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U38">
         <v>15</v>
@@ -13098,7 +13428,7 @@
         <v>514</v>
       </c>
       <c r="I39" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -13107,7 +13437,7 @@
         <v>20</v>
       </c>
       <c r="T39" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U39">
         <v>16</v>
@@ -13119,7 +13449,7 @@
         <v>515</v>
       </c>
       <c r="I40" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R40">
         <v>20</v>
@@ -13128,7 +13458,7 @@
         <v>21</v>
       </c>
       <c r="T40" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U40">
         <v>17</v>
@@ -13140,7 +13470,7 @@
         <v>516</v>
       </c>
       <c r="I41" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="R41">
         <v>21</v>
@@ -13149,7 +13479,7 @@
         <v>22</v>
       </c>
       <c r="T41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="U41">
         <v>18</v>
@@ -13161,7 +13491,7 @@
         <v>517</v>
       </c>
       <c r="I42" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -13170,7 +13500,7 @@
         <v>23</v>
       </c>
       <c r="T42" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -13182,7 +13512,7 @@
         <v>518</v>
       </c>
       <c r="I43" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M43" t="s">
         <v>415</v>
@@ -13194,7 +13524,7 @@
         <v>24</v>
       </c>
       <c r="T43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U43">
         <v>2</v>
@@ -13220,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U44">
         <v>3</v>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="29400" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="613">
   <si>
     <t>SNO</t>
   </si>
@@ -2013,9 +2013,6 @@
     <t>AWS + JOB ACTIVITIES (Completed Till Section 5)</t>
   </si>
   <si>
-    <t>AWS + JOB ACTIVITIES (FINISH THE COURSE) GO THROUGH IN DEEP</t>
-  </si>
-  <si>
     <t>COMPLETE THE AWS - RANGA VIDEOS TWICE.</t>
   </si>
   <si>
@@ -2023,6 +2020,36 @@
   </si>
   <si>
     <t xml:space="preserve">NUMBER THE EACH SERVICE AND PREPARE NOTES BY APPLYING 5 POINT PRINCIPLES. </t>
+  </si>
+  <si>
+    <t>WEBAPP</t>
+  </si>
+  <si>
+    <t>AWS ELASTIC BEANSTALK</t>
+  </si>
+  <si>
+    <t>AZURE WEBAPPS</t>
+  </si>
+  <si>
+    <t>CREATE AMI WITH PACKER AND ANSIBLE</t>
+  </si>
+  <si>
+    <t>MOVE TO TERRAFORM AND CREATE MANIFEST FILE FOR EACH SERVICE USED</t>
+  </si>
+  <si>
+    <t>CREATE TERRAFORM PROJECT TO DEPLOY MULTIPLE ENVIRONMENTS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOW MOVE TO DEVOPS HIGHLIGHING THE PROBLEM AND TOOL. </t>
+  </si>
+  <si>
+    <t>LIKE THAT PREPARE ALL THE TOPICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS + JOB ACTIVITIES </t>
+  </si>
+  <si>
+    <t>AWS + JOB ACTIVITIES 1 - 12</t>
   </si>
 </sst>
 </file>
@@ -2366,6 +2393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2383,9 +2413,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3542,7 +3569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60:B64"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,10 +4342,18 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="2">
+        <v>45</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -6621,7 +6656,7 @@
       <c r="B2" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>465</v>
       </c>
       <c r="D2" s="53"/>
@@ -6651,7 +6686,7 @@
       <c r="B3" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="54"/>
       <c r="E3" s="47" t="s">
         <v>493</v>
@@ -6679,7 +6714,7 @@
       <c r="B4" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="54"/>
       <c r="E4" s="47" t="s">
         <v>500</v>
@@ -6737,7 +6772,7 @@
       <c r="B6" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>467</v>
       </c>
       <c r="D6" s="52"/>
@@ -6767,7 +6802,7 @@
       <c r="B7" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55" t="s">
         <v>492</v>
@@ -6795,7 +6830,7 @@
       <c r="B8" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="61" t="s">
         <v>585</v>
       </c>
@@ -6825,7 +6860,7 @@
       <c r="B9" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="61" t="s">
         <v>585</v>
       </c>
@@ -6855,7 +6890,7 @@
       <c r="B10" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="61" t="s">
         <v>585</v>
       </c>
@@ -6885,7 +6920,7 @@
       <c r="B11" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="61" t="s">
         <v>585</v>
       </c>
@@ -6915,7 +6950,7 @@
       <c r="B12" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="61" t="s">
         <v>585</v>
       </c>
@@ -6945,7 +6980,7 @@
       <c r="B13" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="61" t="s">
         <v>585</v>
       </c>
@@ -6975,7 +7010,7 @@
       <c r="B14" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="61" t="s">
         <v>585</v>
       </c>
@@ -7005,7 +7040,7 @@
       <c r="B15" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="61" t="s">
         <v>585</v>
       </c>
@@ -7035,7 +7070,7 @@
       <c r="B16" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="61" t="s">
         <v>585</v>
       </c>
@@ -7065,7 +7100,7 @@
       <c r="B17" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="61" t="s">
         <v>585</v>
       </c>
@@ -7095,7 +7130,7 @@
       <c r="B18" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="61" t="s">
         <v>585</v>
       </c>
@@ -7125,7 +7160,7 @@
       <c r="B19" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="61" t="s">
         <v>585</v>
       </c>
@@ -7155,7 +7190,7 @@
       <c r="B20" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="61" t="s">
         <v>585</v>
       </c>
@@ -7179,7 +7214,7 @@
       <c r="B21" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="61" t="s">
         <v>585</v>
       </c>
@@ -7203,7 +7238,7 @@
       <c r="B22" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="61" t="s">
         <v>585</v>
       </c>
@@ -7227,7 +7262,7 @@
       <c r="B23" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="61" t="s">
         <v>585</v>
       </c>
@@ -7251,7 +7286,7 @@
       <c r="B24" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="61" t="s">
         <v>585</v>
       </c>
@@ -7275,7 +7310,7 @@
       <c r="B25" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="61"/>
       <c r="E25" s="3" t="s">
         <v>480</v>
@@ -7297,7 +7332,7 @@
       <c r="B26" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="61"/>
       <c r="E26" s="3" t="s">
         <v>481</v>
@@ -7312,7 +7347,7 @@
       <c r="B27" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="61"/>
       <c r="E27" s="3" t="s">
         <v>482</v>
@@ -7327,7 +7362,7 @@
       <c r="B28" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="61"/>
       <c r="E28" s="3" t="s">
         <v>483</v>
@@ -7342,7 +7377,7 @@
       <c r="B29" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="61"/>
       <c r="E29" s="3" t="s">
         <v>484</v>
@@ -7357,7 +7392,7 @@
       <c r="B30" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="61"/>
       <c r="E30" s="3" t="s">
         <v>495</v>
@@ -7372,7 +7407,7 @@
       <c r="B31" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="61"/>
       <c r="E31" s="48" t="s">
         <v>496</v>
@@ -7387,7 +7422,7 @@
       <c r="B32" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C32" s="64"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="61"/>
       <c r="E32" s="3" t="s">
         <v>497</v>
@@ -7402,7 +7437,7 @@
       <c r="B33" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="63" t="s">
         <v>468</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -7421,7 +7456,7 @@
       <c r="B34" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="51" t="s">
         <v>255</v>
       </c>
@@ -7438,7 +7473,7 @@
       <c r="B35" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="51" t="s">
         <v>255</v>
       </c>
@@ -7453,7 +7488,7 @@
       <c r="B36" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="51" t="s">
         <v>255</v>
       </c>
@@ -7468,7 +7503,7 @@
       <c r="B37" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="51" t="s">
         <v>255</v>
       </c>
@@ -7553,7 +7588,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7583,7 +7618,7 @@
       <c r="B2" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="55" t="s">
         <v>599</v>
       </c>
@@ -7591,25 +7626,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="56">
         <v>44574</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="3" t="s">
-        <v>600</v>
+      <c r="C3" s="62"/>
+      <c r="D3" s="55" t="s">
+        <v>586</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7620,14 +7655,14 @@
         <v>461</v>
       </c>
       <c r="C4" s="61"/>
-      <c r="D4" s="3" t="s">
-        <v>600</v>
+      <c r="D4" s="47" t="s">
+        <v>612</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7639,7 +7674,13 @@
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,7 +7692,13 @@
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7663,7 +7710,13 @@
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7675,7 +7728,13 @@
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7687,7 +7746,13 @@
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,7 +7764,7 @@
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7711,7 +7776,7 @@
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7723,7 +7788,7 @@
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7735,7 +7800,7 @@
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="3" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7867,7 +7932,7 @@
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="3" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8232,11 +8297,11 @@
       <c r="B1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30000" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30600" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="628">
   <si>
     <t>SNO</t>
   </si>
@@ -2050,6 +2050,51 @@
   </si>
   <si>
     <t>AWS + JOB ACTIVITIES 1 - 12</t>
+  </si>
+  <si>
+    <t>FEB 1ST</t>
+  </si>
+  <si>
+    <t>MAR 1ST</t>
+  </si>
+  <si>
+    <t>APR 1ST</t>
+  </si>
+  <si>
+    <t>MAY 1ST</t>
+  </si>
+  <si>
+    <t>MAR SAL</t>
+  </si>
+  <si>
+    <t>APR SAL</t>
+  </si>
+  <si>
+    <t>MAY 1ST - R</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>LINUX/BASH SCRIPTING</t>
+  </si>
+  <si>
+    <t>DEVOPS INTRO</t>
+  </si>
+  <si>
+    <t>SONARQUBE, MAVEN, JFROG</t>
+  </si>
+  <si>
+    <t>DOCKER &amp; DOCKER SWARM</t>
+  </si>
+  <si>
+    <t>KUBERNETES &amp; HELM &amp; MONITORING</t>
+  </si>
+  <si>
+    <t>JAN FEB</t>
+  </si>
+  <si>
+    <t>FEB MAR APR</t>
   </si>
 </sst>
 </file>
@@ -2719,21 +2764,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2758,29 +2805,29 @@
       <c r="J1">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="11">
+      <c r="N1" s="11">
         <v>2022</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>147</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>151</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>152</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>204</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -2806,34 +2853,37 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
+        <v>613</v>
+      </c>
+      <c r="M2" t="s">
         <v>271</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>292</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>44302</v>
-      </c>
-      <c r="T2">
-        <v>6000</v>
       </c>
       <c r="U2">
         <v>6000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2">
+        <v>6000</v>
+      </c>
+      <c r="X2" t="s">
         <v>205</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>368000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>800</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -2853,34 +2903,37 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M3" t="s">
         <v>286</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>293</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>44366</v>
-      </c>
-      <c r="T3">
-        <v>5000</v>
       </c>
       <c r="U3">
         <v>5000</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3">
+        <v>5000</v>
+      </c>
+      <c r="X3" t="s">
         <v>206</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>200000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>38</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -2903,34 +2956,37 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
+        <v>615</v>
+      </c>
+      <c r="M4" t="s">
         <v>287</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>294</v>
       </c>
-      <c r="S4" s="10">
+      <c r="T4" s="10">
         <v>44411</v>
-      </c>
-      <c r="T4">
-        <v>9000</v>
       </c>
       <c r="U4">
         <v>9000</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V4">
+        <v>9000</v>
+      </c>
+      <c r="X4" t="s">
         <v>207</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>280000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>35000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -2958,34 +3014,37 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
+        <v>616</v>
+      </c>
+      <c r="M5" t="s">
         <v>288</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>44443</v>
-      </c>
-      <c r="T5">
-        <v>4000</v>
       </c>
       <c r="U5">
         <v>4000</v>
       </c>
-      <c r="W5" t="s">
+      <c r="V5">
+        <v>4000</v>
+      </c>
+      <c r="X5" t="s">
         <v>208</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>468000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>6</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>78000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>7</v>
       </c>
@@ -3001,35 +3060,35 @@
       <c r="J6">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>289</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>295</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <v>44492</v>
-      </c>
-      <c r="T6">
-        <v>5000</v>
       </c>
       <c r="U6">
         <v>5000</v>
       </c>
-      <c r="W6" t="s">
+      <c r="V6">
+        <v>5000</v>
+      </c>
+      <c r="X6" t="s">
         <v>209</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>68000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>18</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -3054,29 +3113,29 @@
       <c r="J7">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>290</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>295</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>44531</v>
-      </c>
-      <c r="T7">
-        <v>10900</v>
       </c>
       <c r="U7">
         <v>10900</v>
       </c>
-      <c r="W7" t="s">
+      <c r="V7">
+        <v>10900</v>
+      </c>
+      <c r="X7" t="s">
         <v>210</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>400000</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -3101,28 +3160,28 @@
       <c r="J8">
         <v>37</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>291</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>296</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>148</v>
-      </c>
-      <c r="T8">
-        <f>SUM(T2:T7)</f>
-        <v>39900</v>
       </c>
       <c r="U8">
         <f>SUM(U2:U7)</f>
         <v>39900</v>
       </c>
-      <c r="W8" t="s">
+      <c r="V8">
+        <f>SUM(V2:V7)</f>
+        <v>39900</v>
+      </c>
+      <c r="X8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -3144,20 +3203,20 @@
       <c r="J9">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>267</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>296</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>212</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>350000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -3182,17 +3241,17 @@
       <c r="J10">
         <v>39</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>268</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>297</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C7:C10)</f>
         <v>19850</v>
@@ -3216,20 +3275,20 @@
       <c r="J11">
         <v>40</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>269</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>297</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>214</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>270000</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>260</v>
       </c>
@@ -3245,20 +3304,20 @@
       <c r="J12">
         <v>41</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>270</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>297</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>215</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>261</v>
       </c>
@@ -3274,20 +3333,20 @@
       <c r="J13">
         <v>42</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>161</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>297</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>216</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>262</v>
       </c>
@@ -3303,14 +3362,17 @@
       <c r="J14">
         <v>43</v>
       </c>
-      <c r="W14" t="s">
+      <c r="N14">
+        <v>90</v>
+      </c>
+      <c r="X14" t="s">
         <v>217</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>263</v>
       </c>
@@ -3326,14 +3388,17 @@
       <c r="J15">
         <v>44</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Q15" t="s">
+        <v>440</v>
+      </c>
+      <c r="X15" t="s">
         <v>218</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>550000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>264</v>
       </c>
@@ -3349,14 +3414,23 @@
       <c r="J16">
         <v>45</v>
       </c>
-      <c r="W16" t="s">
+      <c r="O16" t="s">
+        <v>626</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>621</v>
+      </c>
+      <c r="X16" t="s">
         <v>219</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3383,8 +3457,17 @@
       <c r="J17">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>627</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>264</v>
       </c>
@@ -3400,12 +3483,30 @@
       <c r="J18">
         <v>47</v>
       </c>
-      <c r="X18">
-        <f>SUM(X1:X17)</f>
+      <c r="L18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>288</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(Y1:Y17)</f>
         <v>3904000</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>593</v>
       </c>
@@ -3427,8 +3528,26 @@
       <c r="J19">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>286</v>
+      </c>
+      <c r="M19" t="s">
+        <v>287</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>26</v>
       </c>
@@ -3441,8 +3560,23 @@
       <c r="J20">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M20" t="s">
+        <v>288</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>591</v>
       </c>
@@ -3462,8 +3596,23 @@
       <c r="J21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>288</v>
+      </c>
+      <c r="M21" t="s">
+        <v>289</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>592</v>
       </c>
@@ -3482,8 +3631,26 @@
       <c r="J22">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>619</v>
+      </c>
+      <c r="M22" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>320</v>
+      </c>
+      <c r="T22">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>595</v>
       </c>
@@ -3502,8 +3669,26 @@
       <c r="J23">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>290</v>
+      </c>
+      <c r="M23" t="s">
+        <v>620</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>623</v>
+      </c>
+      <c r="T23">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>591</v>
       </c>
@@ -3523,16 +3708,50 @@
       <c r="J24">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>620</v>
+      </c>
+      <c r="M24" t="s">
+        <v>267</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>150</v>
+      </c>
+      <c r="T25">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>594</v>
       </c>
       <c r="D26">
         <v>99500</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>591</v>
       </c>
@@ -3540,22 +3759,87 @@
         <f>SUM(D24:D27)</f>
         <v>103405.59</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>624</v>
+      </c>
+      <c r="T28">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>595</v>
       </c>
       <c r="D30">
         <v>50000</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>591</v>
       </c>
       <c r="D32">
         <f>(D28-D30)</f>
         <v>53405.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f>SUM(P16:P32)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>617</v>
+      </c>
+      <c r="B34" t="s">
+        <v>615</v>
+      </c>
+      <c r="D34">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>SUM(D32:D35)</f>
+        <v>252405.59</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +4741,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="R65" sqref="R65:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6615,7 +6899,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L10" sqref="L10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7587,7 +7871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30600" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="31200" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="630">
   <si>
     <t>SNO</t>
   </si>
@@ -2079,9 +2079,6 @@
     <t>LINUX/BASH SCRIPTING</t>
   </si>
   <si>
-    <t>DEVOPS INTRO</t>
-  </si>
-  <si>
     <t>SONARQUBE, MAVEN, JFROG</t>
   </si>
   <si>
@@ -2095,6 +2092,15 @@
   </si>
   <si>
     <t>FEB MAR APR</t>
+  </si>
+  <si>
+    <t>DEVOPS INTRO - COMPARISION WITH AGILE MODEL</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1LAC</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2773,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3192,7 @@
         <v>143</v>
       </c>
       <c r="D9">
-        <v>100000</v>
+        <v>90402</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -3258,7 +3264,7 @@
       </c>
       <c r="D11">
         <f>SUM(D7:D10)</f>
-        <v>120250</v>
+        <v>110652</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -3415,7 +3421,7 @@
         <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P16">
         <v>14</v>
@@ -3440,7 +3446,7 @@
       </c>
       <c r="D17">
         <f>(D5-D11)</f>
-        <v>27405.589999999997</v>
+        <v>37003.589999999997</v>
       </c>
       <c r="F17" t="s">
         <v>264</v>
@@ -3458,7 +3464,7 @@
         <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -3582,7 +3588,7 @@
       </c>
       <c r="D21">
         <f>SUM(D17:D20)</f>
-        <v>126905.59</v>
+        <v>136503.59</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -3609,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -3617,7 +3623,7 @@
         <v>592</v>
       </c>
       <c r="D22">
-        <v>73000</v>
+        <v>90404</v>
       </c>
       <c r="G22">
         <v>28</v>
@@ -3648,6 +3654,15 @@
       </c>
       <c r="T22">
         <v>514</v>
+      </c>
+      <c r="W22" t="s">
+        <v>629</v>
+      </c>
+      <c r="X22" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y22">
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -3655,7 +3670,7 @@
         <v>595</v>
       </c>
       <c r="D23">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="G23">
         <v>29</v>
@@ -3682,10 +3697,19 @@
         <v>3</v>
       </c>
       <c r="Q23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T23">
         <v>309</v>
+      </c>
+      <c r="W23" t="s">
+        <v>629</v>
+      </c>
+      <c r="X23" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y23">
+        <v>3000</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -3694,7 +3718,7 @@
       </c>
       <c r="D24">
         <f>(D21-D22-D23)</f>
-        <v>3905.5899999999965</v>
+        <v>6099.5899999999965</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -3716,6 +3740,15 @@
       </c>
       <c r="N24">
         <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>629</v>
+      </c>
+      <c r="X24" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y24">
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -3728,6 +3761,15 @@
       <c r="T25">
         <v>1457</v>
       </c>
+      <c r="W25" t="s">
+        <v>629</v>
+      </c>
+      <c r="X25" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y25">
+        <v>3000</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3742,6 +3784,15 @@
       <c r="Q26" t="s">
         <v>229</v>
       </c>
+      <c r="W26" t="s">
+        <v>629</v>
+      </c>
+      <c r="X26" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y26">
+        <v>3000</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P27">
@@ -3750,6 +3801,12 @@
       <c r="Q27" t="s">
         <v>321</v>
       </c>
+      <c r="X27" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y27">
+        <v>3000</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3757,13 +3814,13 @@
       </c>
       <c r="D28">
         <f>SUM(D24:D27)</f>
-        <v>103405.59</v>
+        <v>105599.59</v>
       </c>
       <c r="P28">
         <v>7</v>
       </c>
       <c r="Q28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T28">
         <v>650</v>
@@ -3774,7 +3831,7 @@
         <v>14</v>
       </c>
       <c r="Q29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -3805,7 +3862,7 @@
       </c>
       <c r="D32">
         <f>(D28-D30)</f>
-        <v>53405.59</v>
+        <v>55599.59</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3839,7 +3896,7 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D36">
         <f>SUM(D32:D35)</f>
-        <v>252405.59</v>
+        <v>254599.59</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R65" sqref="R65:R82"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6899,7 +6956,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L12"/>
+      <selection activeCell="J2" sqref="J2:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8561,10 +8618,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:K439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8574,7 +8631,7 @@
     <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -8587,7 +8644,7 @@
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8606,8 +8663,17 @@
       <c r="G2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -8621,8 +8687,17 @@
       <c r="G3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>25000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8633,8 +8708,17 @@
       <c r="F4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>25000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8645,8 +8729,17 @@
       <c r="F5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>25000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8657,8 +8750,17 @@
       <c r="F6" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>15400</v>
+      </c>
+      <c r="K6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8669,8 +8771,12 @@
       <c r="F7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>SUM(J2:J6)</f>
+        <v>90402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -8682,7 +8788,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8694,7 +8800,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8706,7 +8812,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8718,7 +8824,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8730,7 +8836,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8742,7 +8848,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8754,7 +8860,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8766,7 +8872,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="31200" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="31800" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="627">
   <si>
     <t>SNO</t>
   </si>
@@ -654,9 +654,6 @@
     <t>PROMETHEUS</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -664,12 +661,6 @@
   </si>
   <si>
     <t>ANSIBLE</t>
-  </si>
-  <si>
-    <t>Nihant</t>
-  </si>
-  <si>
-    <t>Nihira</t>
   </si>
   <si>
     <t>TERRAFORM</t>
@@ -2773,7 +2764,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,7 +2779,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1">
         <v>146483.72</v>
@@ -2812,22 +2803,13 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N1" s="11">
         <v>2022</v>
       </c>
-      <c r="T1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" t="s">
-        <v>152</v>
-      </c>
       <c r="X1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y1">
         <v>100000</v>
@@ -2835,7 +2817,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2">
         <v>10067.870000000001</v>
@@ -2859,25 +2841,17 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N2" t="s">
-        <v>292</v>
-      </c>
-      <c r="T2" s="10">
-        <v>44302</v>
-      </c>
-      <c r="U2">
-        <v>6000</v>
-      </c>
-      <c r="V2">
-        <v>6000</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="T2" s="10"/>
       <c r="X2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Y2">
         <v>368000</v>
@@ -2891,7 +2865,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -2909,25 +2883,17 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N3" t="s">
-        <v>293</v>
-      </c>
-      <c r="T3" s="10">
-        <v>44366</v>
-      </c>
-      <c r="U3">
-        <v>5000</v>
-      </c>
-      <c r="V3">
-        <v>5000</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="T3" s="10"/>
       <c r="X3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y3">
         <v>200000</v>
@@ -2941,7 +2907,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4">
         <v>460</v>
@@ -2962,25 +2928,17 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N4" t="s">
-        <v>294</v>
-      </c>
-      <c r="T4" s="10">
-        <v>44411</v>
-      </c>
-      <c r="U4">
-        <v>9000</v>
-      </c>
-      <c r="V4">
-        <v>9000</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="T4" s="10"/>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y4">
         <v>280000</v>
@@ -2994,7 +2952,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <f>SUM(C1:C4)</f>
@@ -3020,25 +2978,17 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N5" t="s">
-        <v>294</v>
-      </c>
-      <c r="T5" s="10">
-        <v>44443</v>
-      </c>
-      <c r="U5">
-        <v>4000</v>
-      </c>
-      <c r="V5">
-        <v>4000</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="T5" s="10"/>
       <c r="X5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y5">
         <v>468000</v>
@@ -3067,22 +3017,14 @@
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N6" t="s">
-        <v>295</v>
-      </c>
-      <c r="T6" s="10">
-        <v>44492</v>
-      </c>
-      <c r="U6">
-        <v>5000</v>
-      </c>
-      <c r="V6">
-        <v>5000</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="T6" s="10"/>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Y6">
         <v>68000</v>
@@ -3096,7 +3038,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>3000</v>
@@ -3120,22 +3062,14 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N7" t="s">
-        <v>295</v>
-      </c>
-      <c r="T7" s="10">
-        <v>44531</v>
-      </c>
-      <c r="U7">
-        <v>10900</v>
-      </c>
-      <c r="V7">
-        <v>10900</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="T7" s="10"/>
       <c r="X7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y7">
         <v>400000</v>
@@ -3167,24 +3101,13 @@
         <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N8" t="s">
-        <v>296</v>
-      </c>
-      <c r="T8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8">
-        <f>SUM(U2:U7)</f>
-        <v>39900</v>
-      </c>
-      <c r="V8">
-        <f>SUM(V2:V7)</f>
-        <v>39900</v>
+        <v>293</v>
       </c>
       <c r="X8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -3210,13 +3133,13 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y9">
         <v>350000</v>
@@ -3248,13 +3171,13 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="X10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -3282,13 +3205,13 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="X11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y11">
         <v>270000</v>
@@ -3296,7 +3219,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G12">
         <v>18</v>
@@ -3311,13 +3234,13 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="X12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y12">
         <v>120000</v>
@@ -3325,7 +3248,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G13">
         <v>19</v>
@@ -3340,13 +3263,13 @@
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="X13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y13">
         <v>500000</v>
@@ -3354,7 +3277,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -3372,7 +3295,7 @@
         <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y14">
         <v>80000</v>
@@ -3380,7 +3303,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G15">
         <v>21</v>
@@ -3395,10 +3318,10 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="X15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y15">
         <v>550000</v>
@@ -3406,7 +3329,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -3421,16 +3344,16 @@
         <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P16">
         <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y16">
         <v>150000</v>
@@ -3438,7 +3361,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <f>(C5-C11)</f>
@@ -3449,7 +3372,7 @@
         <v>37003.589999999997</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -3464,7 +3387,7 @@
         <v>46</v>
       </c>
       <c r="O17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P17">
         <v>14</v>
@@ -3475,7 +3398,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -3490,22 +3413,22 @@
         <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Y18">
         <f>SUM(Y1:Y17)</f>
@@ -3514,13 +3437,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D19">
         <v>99500</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -3535,22 +3458,22 @@
         <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P19">
         <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -3567,10 +3490,10 @@
         <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -3579,12 +3502,12 @@
         <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D21">
         <f>SUM(D17:D20)</f>
@@ -3603,10 +3526,10 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -3615,12 +3538,12 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D22">
         <v>90404</v>
@@ -3638,10 +3561,10 @@
         <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -3650,16 +3573,16 @@
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="T22">
         <v>514</v>
       </c>
       <c r="W22" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y22">
         <v>3000</v>
@@ -3667,7 +3590,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D23">
         <v>40000</v>
@@ -3685,10 +3608,10 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -3697,16 +3620,16 @@
         <v>3</v>
       </c>
       <c r="Q23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="T23">
         <v>309</v>
       </c>
       <c r="W23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Y23">
         <v>3000</v>
@@ -3714,7 +3637,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D24">
         <f>(D21-D22-D23)</f>
@@ -3733,19 +3656,19 @@
         <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N24">
         <v>3</v>
       </c>
       <c r="W24" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y24">
         <v>3000</v>
@@ -3756,16 +3679,16 @@
         <v>7</v>
       </c>
       <c r="Q25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T25">
         <v>1457</v>
       </c>
       <c r="W25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Y25">
         <v>3000</v>
@@ -3773,7 +3696,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D26">
         <v>99500</v>
@@ -3782,13 +3705,13 @@
         <v>2</v>
       </c>
       <c r="Q26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W26" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y26">
         <v>3000</v>
@@ -3799,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="X27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y27">
         <v>3000</v>
@@ -3810,7 +3733,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D28">
         <f>SUM(D24:D27)</f>
@@ -3820,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="Q28" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="T28">
         <v>650</v>
@@ -3831,12 +3754,12 @@
         <v>14</v>
       </c>
       <c r="Q29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D30">
         <v>50000</v>
@@ -3845,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="Q30" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -3853,12 +3776,12 @@
         <v>2</v>
       </c>
       <c r="Q31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D32">
         <f>(D28-D30)</f>
@@ -3873,10 +3796,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B34" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D34">
         <v>99500</v>
@@ -3884,10 +3807,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B35" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D35">
         <v>99500</v>
@@ -4687,13 +4610,13 @@
         <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -4707,7 +4630,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4716,7 +4639,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4725,7 +4648,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4734,7 +4657,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4743,7 +4666,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4812,120 +4735,120 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="N1" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="N2" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N8" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4933,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C10" s="22">
         <v>63</v>
@@ -4946,10 +4869,10 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4957,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="22">
         <v>62</v>
@@ -4970,10 +4893,10 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
         <v>182</v>
-      </c>
-      <c r="H11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4981,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="22">
         <v>61</v>
@@ -4994,10 +4917,10 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5005,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="22">
         <v>60</v>
@@ -5018,10 +4941,10 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5029,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C14" s="22">
         <v>59</v>
@@ -5042,10 +4965,10 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5053,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C15" s="23">
         <v>58</v>
@@ -5066,10 +4989,10 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5077,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="23">
         <v>57</v>
@@ -5090,10 +5013,10 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5101,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="22">
         <v>56</v>
@@ -5114,10 +5037,10 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5125,7 +5048,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="22">
         <v>55</v>
@@ -5138,10 +5061,10 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -5149,7 +5072,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="22">
         <v>54</v>
@@ -5162,10 +5085,10 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5173,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="22">
         <v>53</v>
@@ -5186,10 +5109,10 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -5197,7 +5120,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="23">
         <v>52</v>
@@ -5210,10 +5133,10 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -5221,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="23">
         <v>51</v>
@@ -5234,10 +5157,10 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -5245,7 +5168,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C23" s="23">
         <v>50</v>
@@ -5258,10 +5181,10 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -5269,7 +5192,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" s="22">
         <v>49</v>
@@ -5281,13 +5204,13 @@
         <v>137</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -5308,10 +5231,10 @@
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -5325,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C26" s="22">
         <v>47</v>
@@ -5338,7 +5261,7 @@
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -5352,7 +5275,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" s="22">
         <v>46</v>
@@ -5365,7 +5288,7 @@
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T27">
         <v>3</v>
@@ -5379,7 +5302,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C28" s="22">
         <v>45</v>
@@ -5392,7 +5315,7 @@
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -5419,7 +5342,7 @@
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -5433,7 +5356,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="22">
         <v>43</v>
@@ -5446,10 +5369,10 @@
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S30" s="20"/>
       <c r="T30">
@@ -5468,7 +5391,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S31" s="20"/>
       <c r="T31">
@@ -5492,25 +5415,25 @@
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H32" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="L32" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="L32" s="30" t="s">
+      <c r="M32" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>283</v>
       </c>
       <c r="S32" s="20"/>
       <c r="T32">
@@ -5532,10 +5455,10 @@
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5560,12 +5483,12 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S34" s="20"/>
       <c r="T34">
@@ -5587,11 +5510,11 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H35" s="1"/>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S35" s="20"/>
       <c r="T35">
@@ -5613,10 +5536,10 @@
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P36" s="1"/>
       <c r="S36" s="20"/>
@@ -5633,21 +5556,21 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P37" s="1"/>
       <c r="S37" s="20"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="37" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -5657,7 +5580,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C39" s="22">
         <v>43</v>
@@ -5670,7 +5593,7 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P39" s="1"/>
       <c r="S39" s="20"/>
@@ -5690,15 +5613,15 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C41" s="22">
         <v>41</v>
@@ -5711,15 +5634,15 @@
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2">
         <v>40</v>
@@ -5732,15 +5655,15 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H42" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2">
         <v>39</v>
@@ -5769,7 +5692,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2">
         <v>37</v>
@@ -5789,7 +5712,7 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2">
         <v>36</v>
@@ -5801,19 +5724,19 @@
         <v>136</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P46" s="11"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2">
         <v>35</v>
@@ -5825,19 +5748,19 @@
         <v>137</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P47" s="34"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2">
         <v>34</v>
@@ -5849,19 +5772,19 @@
         <v>138</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P48" s="34"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C49" s="2">
         <v>33</v>
@@ -5873,19 +5796,19 @@
         <v>139</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -5897,19 +5820,19 @@
         <v>140</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P50" s="34"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C51" s="2">
         <v>31</v>
@@ -5921,19 +5844,19 @@
         <v>141</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C52" s="2">
         <v>30</v>
@@ -5945,19 +5868,19 @@
         <v>142</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P52" s="34"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C53" s="2">
         <v>29</v>
@@ -5969,16 +5892,16 @@
         <v>136</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P53" s="34"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -5990,20 +5913,20 @@
         <v>137</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -6015,16 +5938,16 @@
         <v>138</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I55" s="42">
         <v>1</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K55" s="42"/>
     </row>
@@ -6039,22 +5962,22 @@
         <v>139</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I56" s="42">
         <v>2</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C57" s="2">
         <v>25</v>
@@ -6066,23 +5989,23 @@
         <v>140</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="42">
         <v>3</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K57" s="42"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C58" s="2">
         <v>24</v>
@@ -6094,23 +6017,23 @@
         <v>141</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="42">
         <v>4</v>
       </c>
       <c r="J58" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K58" s="42"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2">
         <v>23</v>
@@ -6122,16 +6045,16 @@
         <v>142</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2">
         <v>22</v>
@@ -6143,19 +6066,19 @@
         <v>136</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H60" s="33"/>
       <c r="J60" s="42" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2">
         <v>21</v>
@@ -6167,14 +6090,14 @@
         <v>137</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H61" s="33"/>
       <c r="J61" s="42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
@@ -6188,20 +6111,20 @@
         <v>138</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H62" s="33"/>
       <c r="J62" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q62" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="R62" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
@@ -6215,22 +6138,22 @@
         <v>139</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H63" s="33"/>
       <c r="Q63" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="R63" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2">
         <v>18</v>
@@ -6242,22 +6165,22 @@
         <v>140</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H64" s="33"/>
       <c r="Q64" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2">
         <v>17</v>
@@ -6269,10 +6192,10 @@
         <v>141</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H65" s="33"/>
       <c r="L65">
@@ -6282,15 +6205,15 @@
         <v>11.5</v>
       </c>
       <c r="N65" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R65" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2">
         <v>16</v>
@@ -6302,10 +6225,10 @@
         <v>142</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H66" s="33"/>
       <c r="L66">
@@ -6315,15 +6238,15 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C67" s="2">
         <v>15</v>
@@ -6335,10 +6258,10 @@
         <v>136</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H67" s="33"/>
       <c r="L67">
@@ -6348,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="R67" t="s">
         <v>2</v>
@@ -6356,7 +6279,7 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2">
         <v>14</v>
@@ -6368,10 +6291,10 @@
         <v>137</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H68" s="33"/>
       <c r="L68">
@@ -6381,15 +6304,15 @@
         <v>7.5</v>
       </c>
       <c r="N68" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="R68" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C69" s="2">
         <v>13</v>
@@ -6401,10 +6324,10 @@
         <v>138</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H69" s="33"/>
       <c r="L69">
@@ -6414,15 +6337,15 @@
         <v>13</v>
       </c>
       <c r="N69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2">
         <v>12</v>
@@ -6434,10 +6357,10 @@
         <v>139</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L70">
         <v>8</v>
@@ -6446,15 +6369,15 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2">
         <v>11</v>
@@ -6466,10 +6389,10 @@
         <v>140</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L71">
         <v>9</v>
@@ -6478,12 +6401,12 @@
         <v>19</v>
       </c>
       <c r="N71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C72" s="2">
         <v>10</v>
@@ -6495,24 +6418,24 @@
         <v>141</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M72" s="44">
         <v>28</v>
       </c>
       <c r="N72" s="44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R72" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C73" s="2">
         <v>9</v>
@@ -6524,19 +6447,19 @@
         <v>142</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M73" s="44">
         <v>62.5</v>
       </c>
       <c r="N73" s="44" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="R73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
@@ -6550,14 +6473,14 @@
         <v>136</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G74" s="9"/>
       <c r="N74" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="R74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
@@ -6571,14 +6494,14 @@
         <v>137</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
@@ -6592,17 +6515,17 @@
         <v>138</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G76" s="9"/>
       <c r="J76" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N76" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="R76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
@@ -6616,17 +6539,17 @@
         <v>139</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G77" s="9"/>
       <c r="J77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="R77" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
@@ -6640,17 +6563,17 @@
         <v>140</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G78" s="9"/>
       <c r="J78" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N78" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
@@ -6664,17 +6587,17 @@
         <v>141</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G79" s="9"/>
       <c r="J79" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N79" s="44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="R79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
@@ -6688,17 +6611,17 @@
         <v>142</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G80" s="9"/>
       <c r="J80" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N80" s="44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
@@ -6712,231 +6635,231 @@
         <v>136</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J81" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N81" s="44" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="R81" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J82" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N82" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J83" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N83" s="44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N84" s="44" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R84" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N85" s="44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R85" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N86" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R86" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J87" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R87" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N88" s="44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R88" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N89" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J90" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N90" s="44" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G91" s="11"/>
       <c r="I91" s="20"/>
       <c r="N91" s="44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G92" s="11"/>
       <c r="I92" s="20"/>
       <c r="J92" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N92" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G93" s="11"/>
       <c r="I93" s="20"/>
       <c r="J93" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N93" s="44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G94" s="11"/>
       <c r="I94" s="20"/>
       <c r="J94" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G95" s="11"/>
       <c r="I95" s="20"/>
       <c r="J95" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J97" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F98" s="11"/>
       <c r="J98" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N98" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F99" s="11"/>
       <c r="N99" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N100" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N102" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6973,19 +6896,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J1"/>
       <c r="K1"/>
@@ -6995,20 +6918,20 @@
         <v>44567</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="47" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G2" s="22">
         <v>1</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -7017,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7025,18 +6948,18 @@
         <v>44568</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="54"/>
       <c r="E3" s="47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G3" s="23">
         <v>2</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7045,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7053,18 +6976,18 @@
         <v>44569</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="54"/>
       <c r="E4" s="47" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G4" s="22">
         <v>3</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -7073,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7081,20 +7004,20 @@
         <v>44570</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>463</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>466</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="47" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G5" s="22">
         <v>4</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7103,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7111,20 +7034,20 @@
         <v>44571</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>464</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>467</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -7133,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7141,18 +7064,18 @@
         <v>44572</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -7161,7 +7084,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7169,20 +7092,20 @@
         <v>44573</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -7191,7 +7114,7 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7199,20 +7122,20 @@
         <v>44574</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -7221,7 +7144,7 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7229,20 +7152,20 @@
         <v>44575</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -7251,7 +7174,7 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7259,20 +7182,20 @@
         <v>44576</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -7281,7 +7204,7 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7289,20 +7212,20 @@
         <v>44577</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -7311,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7319,20 +7242,20 @@
         <v>44578</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -7341,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -7349,20 +7272,20 @@
         <v>44579</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -7371,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -7379,20 +7302,20 @@
         <v>44580</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -7401,7 +7324,7 @@
         <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7409,14 +7332,14 @@
         <v>44581</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -7431,7 +7354,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7439,14 +7362,14 @@
         <v>44582</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -7461,7 +7384,7 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7469,20 +7392,20 @@
         <v>44583</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J18">
         <v>15</v>
@@ -7491,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7499,20 +7422,20 @@
         <v>44584</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J19">
         <v>16</v>
@@ -7521,7 +7444,7 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7529,14 +7452,14 @@
         <v>44585</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -7545,7 +7468,7 @@
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7553,14 +7476,14 @@
         <v>44586</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -7569,7 +7492,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7577,14 +7500,14 @@
         <v>44587</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J22">
         <v>19</v>
@@ -7593,7 +7516,7 @@
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7601,14 +7524,14 @@
         <v>44588</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -7617,7 +7540,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7625,14 +7548,14 @@
         <v>44589</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="61" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J24">
         <v>21</v>
@@ -7641,7 +7564,7 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -7649,12 +7572,12 @@
         <v>44590</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="61"/>
       <c r="E25" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J25">
         <v>22</v>
@@ -7663,7 +7586,7 @@
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7671,12 +7594,12 @@
         <v>44591</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="61"/>
       <c r="E26" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -7686,12 +7609,12 @@
         <v>44592</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="61"/>
       <c r="E27" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -7701,12 +7624,12 @@
         <v>44593</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="61"/>
       <c r="E28" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -7716,12 +7639,12 @@
         <v>44594</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="61"/>
       <c r="E29" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -7731,12 +7654,12 @@
         <v>44595</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
       <c r="E30" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -7746,12 +7669,12 @@
         <v>44596</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="61"/>
       <c r="E31" s="48" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -7761,12 +7684,12 @@
         <v>44597</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="61"/>
       <c r="E32" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -7776,16 +7699,16 @@
         <v>44598</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -7795,14 +7718,14 @@
         <v>44599</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -7812,14 +7735,14 @@
         <v>44600</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7827,14 +7750,14 @@
         <v>44601</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7842,14 +7765,14 @@
         <v>44602</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7857,14 +7780,14 @@
         <v>44603</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7872,14 +7795,14 @@
         <v>44604</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7887,14 +7810,14 @@
         <v>44605</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7902,14 +7825,14 @@
         <v>44606</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -7942,14 +7865,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,17 +7880,17 @@
         <v>44573</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="55" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7975,17 +7898,17 @@
         <v>44574</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="55" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7993,17 +7916,17 @@
         <v>44575</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="47" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8011,17 +7934,17 @@
         <v>44576</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8029,17 +7952,17 @@
         <v>44577</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8047,17 +7970,17 @@
         <v>44578</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,17 +7988,17 @@
         <v>44579</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8083,17 +8006,17 @@
         <v>44580</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8101,11 +8024,11 @@
         <v>44581</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8113,11 +8036,11 @@
         <v>44582</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,11 +8048,11 @@
         <v>44583</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8137,11 +8060,11 @@
         <v>44584</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8149,11 +8072,11 @@
         <v>44585</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8161,11 +8084,11 @@
         <v>44586</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8173,11 +8096,11 @@
         <v>44587</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8185,11 +8108,11 @@
         <v>44588</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,11 +8120,11 @@
         <v>44589</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,11 +8132,11 @@
         <v>44590</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,11 +8144,11 @@
         <v>44591</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8233,11 +8156,11 @@
         <v>44592</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,11 +8168,11 @@
         <v>44593</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,11 +8180,11 @@
         <v>44594</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8269,11 +8192,11 @@
         <v>44595</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8281,11 +8204,11 @@
         <v>44596</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8293,11 +8216,11 @@
         <v>44597</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,11 +8228,11 @@
         <v>44598</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8317,11 +8240,11 @@
         <v>44599</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,11 +8252,11 @@
         <v>44600</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,11 +8264,11 @@
         <v>44601</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8353,11 +8276,11 @@
         <v>44602</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8365,11 +8288,11 @@
         <v>44603</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8377,11 +8300,11 @@
         <v>44604</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,11 +8312,11 @@
         <v>44605</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,11 +8324,11 @@
         <v>44606</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,10 +8336,10 @@
         <v>44607</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,10 +8347,10 @@
         <v>44608</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,10 +8358,10 @@
         <v>44609</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,10 +8369,10 @@
         <v>44610</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,10 +8380,10 @@
         <v>44611</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8391,10 @@
         <v>44612</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8479,10 +8402,10 @@
         <v>44613</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,13 +8413,13 @@
         <v>44614</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8504,13 +8427,13 @@
         <v>44615</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8518,13 +8441,13 @@
         <v>44616</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8532,13 +8455,13 @@
         <v>44617</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8546,13 +8469,13 @@
         <v>44618</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8560,13 +8483,13 @@
         <v>44619</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8574,13 +8497,13 @@
         <v>44620</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8588,13 +8511,13 @@
         <v>44621</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8602,13 +8525,13 @@
         <v>44622</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8636,10 +8559,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -8649,19 +8572,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -8670,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8678,14 +8601,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -8694,7 +8617,7 @@
         <v>25000</v>
       </c>
       <c r="K3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8702,11 +8625,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -8715,7 +8638,7 @@
         <v>25000</v>
       </c>
       <c r="K4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8723,11 +8646,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -8736,7 +8659,7 @@
         <v>25000</v>
       </c>
       <c r="K5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8744,11 +8667,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -8757,7 +8680,7 @@
         <v>15400</v>
       </c>
       <c r="K6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8769,7 +8692,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J7">
         <f>SUM(J2:J6)</f>
@@ -8785,7 +8708,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8793,11 +8716,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8805,11 +8728,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8817,11 +8740,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8829,11 +8752,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8841,11 +8764,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8853,11 +8776,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8865,11 +8788,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8877,11 +8800,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8889,11 +8812,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8901,11 +8824,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8913,11 +8836,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D19" s="1"/>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,11 +8848,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D20" s="1"/>
       <c r="F20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8937,11 +8860,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D21" s="1"/>
       <c r="F21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8949,11 +8872,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8961,11 +8884,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D23" s="1"/>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8973,11 +8896,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D24" s="1"/>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8985,11 +8908,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D25" s="1"/>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8997,16 +8920,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9014,11 +8937,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D27" s="1"/>
       <c r="F27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9026,11 +8949,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9038,11 +8961,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9050,11 +8973,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9066,7 +8989,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9074,10 +8997,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9085,10 +9008,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9096,16 +9019,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,11 +9036,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9125,11 +9048,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9137,16 +9060,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9154,11 +9077,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D38" s="1"/>
       <c r="F38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9166,16 +9089,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9183,11 +9106,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D40" s="1"/>
       <c r="F40" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9195,11 +9118,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9207,11 +9130,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D42" s="1"/>
       <c r="F42" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9219,11 +9142,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D43" s="1"/>
       <c r="F43" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9231,16 +9154,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D44" s="1">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F44" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9252,7 +9175,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="F45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9260,11 +9183,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D46" s="1"/>
       <c r="F46" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9272,11 +9195,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D47" s="1"/>
       <c r="F47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9292,7 +9215,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9300,7 +9223,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9308,7 +9231,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9316,7 +9239,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9324,7 +9247,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9332,7 +9255,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -9340,7 +9263,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9348,7 +9271,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9356,7 +9279,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">

--- a/DPT_INTERVIEW_PREP1.xlsx
+++ b/DPT_INTERVIEW_PREP1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="31800" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
+    <sheet name="Accounts" sheetId="10" r:id="rId1"/>
     <sheet name="CLOUD SERVICES" sheetId="3" r:id="rId2"/>
     <sheet name="03-01-2022" sheetId="25" r:id="rId3"/>
     <sheet name="OLD PLAN" sheetId="27" r:id="rId4"/>
@@ -2764,7 +2764,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
